--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{7FC8FC94-ADDE-4135-AC86-EFBD80B9F5A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -24,12 +23,12 @@
     <sheet name="14-Nested &amp; Anonymus Classes" sheetId="9" r:id="rId9"/>
     <sheet name="Nested Classes-Oracle" sheetId="10" r:id="rId10"/>
     <sheet name="Generics" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId12"/>
-    <sheet name="LambdaExpressions" sheetId="11" r:id="rId13"/>
+    <sheet name="LambdaExpressions" sheetId="11" r:id="rId12"/>
+    <sheet name="Streaming&amp;API" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="12"/>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="13"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
   <extLst>
@@ -47,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="372">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -2593,13 +2592,157 @@
   <si>
     <t>List of parameters of the method.</t>
   </si>
+  <si>
+    <t>Introduced in JAVA 8, Stream API is used for collection of objects.</t>
+  </si>
+  <si>
+    <t>A Stream is a sequence of objects that supports various methods which can be pipelined to produce the desired result.</t>
+  </si>
+  <si>
+    <t>Different Operations On Streams-</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Terminal Operations:</t>
+  </si>
+  <si>
+    <t>collect</t>
+  </si>
+  <si>
+    <t>foreach</t>
+  </si>
+  <si>
+    <t>reduce</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>iterator</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>intermediate
+Operation</t>
+  </si>
+  <si>
+    <t>terminal operation</t>
+  </si>
+  <si>
+    <t>--------&gt;</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Source of Streams</t>
+  </si>
+  <si>
+    <t>IntStream</t>
+  </si>
+  <si>
+    <t>LongStream</t>
+  </si>
+  <si>
+    <t>DoubleStream</t>
+  </si>
+  <si>
+    <t>Stream&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>generic version for objects of type T.</t>
+  </si>
+  <si>
+    <t>stream of primitive integers.</t>
+  </si>
+  <si>
+    <t>stream of primitive longs.</t>
+  </si>
+  <si>
+    <t>stream of primitive doubles.</t>
+  </si>
+  <si>
+    <t>However, the stream must be created based on a source of data, there are different possible sources for a stream:</t>
+  </si>
+  <si>
+    <t>An I/O channel that supplies the elements.</t>
+  </si>
+  <si>
+    <t>A generator that delievers elements in one way or other.</t>
+  </si>
+  <si>
+    <t>A collection of elements, this can be an array or collection of elements</t>
+  </si>
+  <si>
+    <t>In our example, we have a collection of strings in the form of an array.</t>
+  </si>
+  <si>
+    <t>We can transform this into a stream using the Stream.of() method.</t>
+  </si>
+  <si>
+    <t>We can write this as follows:</t>
+  </si>
+  <si>
+    <t>Stream&lt;String&gt; stream = Stream.of(words)</t>
+  </si>
+  <si>
+    <t>This method provides an internal iterator that delivers the elements from the array one by one at the stream.</t>
+  </si>
+  <si>
+    <t>Stream interface is a generic interface which is provided with a type parameter.</t>
+  </si>
+  <si>
+    <t>In this case, we indicate that this stream contains only objects of the type String. The type is determjined by the type of the supplied array.</t>
+  </si>
+  <si>
+    <t>The Stream interface has numerous methods for creating a stream.</t>
+  </si>
+  <si>
+    <r>
+      <t>The general way to produce a stream is to use the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method.</t>
+    </r>
+  </si>
+  <si>
+    <t>This method has an object as an argument of the functional interface Supplier&lt;T&gt;,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -2807,7 +2950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2895,92 +3038,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3083,14 +3146,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3501,7 +3563,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A2FF2776-0470-41F8-8BC1-6B3F24DE664C}" diskRevisions="1" revisionId="145" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E197EF44-D0C9-41BB-96C5-5E002BF0ED48}" lastGuid="{F6E552FC-CC7B-407C-B0DE-F7E293DF40D7}" diskRevisions="1" revisionId="215" version="8">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -3774,6 +3836,91 @@
       <sheetId val="11"/>
     </sheetIdMap>
   </header>
+  <header guid="{52D427E5-7A3F-429F-A86A-BD93D7900C3B}" dateTime="2020-01-14T13:38:52" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId18" minRId="146" maxRId="149">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EAE26051-A044-4119-BC2E-4AC4F62FB075}" dateTime="2020-01-14T13:54:17" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId19" minRId="150" maxRId="193">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{424269A6-6483-4015-B9C4-C9EC2DA178F9}" dateTime="2020-01-14T13:56:43" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId20" minRId="194" maxRId="199">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F6E552FC-CC7B-407C-B0DE-F7E293DF40D7}" dateTime="2020-01-14T14:07:30" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId21" minRId="200" maxRId="210">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E197EF44-D0C9-41BB-96C5-5E002BF0ED48}" dateTime="2020-01-14T14:24:14" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId22" minRId="211" maxRId="215">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -4968,6 +5115,496 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="146" sId="13" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="147" sId="13">
+    <nc r="E5" t="inlineStr">
+      <is>
+        <t>Introduced in JAVA 8, Stream API is used for collection of objects.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="148" sId="13" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rcc rId="149" sId="13">
+    <nc r="E6" t="inlineStr">
+      <is>
+        <t>A Stream is a sequence of objects that supports various methods which can be pipelined to produce the desired result.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="150" sId="13" xfDxf="1" dxf="1">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>Different Operations On Streams-</t>
+      </is>
+    </nc>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="13" sqref="E9" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="E9" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="151" sId="13">
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="152" sId="13" eol="1" ref="A12:XFD12" action="insertRow"/>
+  <rcc rId="153" sId="13">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>filter</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="154" sId="13" eol="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="155" sId="13">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>sort</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E13">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="156" sId="13">
+    <nc r="D11">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="157" sId="13">
+    <nc r="D12">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="158" sId="13">
+    <nc r="D13">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" xfDxf="1" sqref="E15" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="159" sId="13" odxf="1" dxf="1">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>Terminal Operations:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="160" sId="13">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>collect</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E17">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="161" sId="13" eol="1" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="162" sId="13">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>foreach</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E18">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="163" sId="13" eol="1" ref="A19:XFD19" action="insertRow"/>
+  <rcc rId="164" sId="13">
+    <nc r="E19" t="inlineStr">
+      <is>
+        <t>reduce</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E19">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="165" sId="13">
+    <nc r="D17">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="166" sId="13">
+    <nc r="D18">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="167" sId="13">
+    <nc r="D19">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="168" sId="13">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>source</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="169" sId="13">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>iterator</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="170" sId="13">
+    <nc r="G25" t="inlineStr">
+      <is>
+        <t>stream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="171" sId="13" odxf="1" dxf="1">
+    <nc r="I25" t="inlineStr">
+      <is>
+        <t>intermediate
+Operation</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="172" sId="13">
+    <nc r="K25" t="inlineStr">
+      <is>
+        <t>stream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="173" sId="13">
+    <nc r="M25" t="inlineStr">
+      <is>
+        <t>terminal operation</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="F25">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="F25">
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="H25">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="J25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="174" sId="13" odxf="1" dxf="1" quotePrefix="1">
+    <nc r="L25" t="inlineStr">
+      <is>
+        <t>--------&gt;</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="13" sqref="L25">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="175" sId="13" odxf="1" dxf="1" quotePrefix="1">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <t>--------&gt;</t>
+      </is>
+    </nc>
+    <ndxf/>
+  </rcc>
+  <rcc rId="176" sId="13" odxf="1" dxf="1" quotePrefix="1">
+    <nc r="H25" t="inlineStr">
+      <is>
+        <t>--------&gt;</t>
+      </is>
+    </nc>
+    <ndxf/>
+  </rcc>
+  <rcc rId="177" sId="13" odxf="1" dxf="1" quotePrefix="1">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>--------&gt;</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="13" sqref="E27" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="178" sId="13">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="179" sId="13" quotePrefix="1">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="180" sheetId="13" source="E28" destination="E29" sourceSheetId="13">
+    <rfmt sheetId="13" sqref="E29" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rm>
+  <rcc rId="181" sId="13">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E28">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="182" sId="13">
+    <nc r="E32" t="inlineStr">
+      <is>
+        <t>Source of Streams</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E32">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="E32" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="E32" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="183" sId="13" eol="1" ref="A35:XFD35" action="insertRow"/>
+  <rcc rId="184" sId="13">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>IntStream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="185" sId="13" eol="1" ref="A36:XFD36" action="insertRow"/>
+  <rcc rId="186" sId="13">
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>LongStream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E36">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="187" sId="13" eol="1" ref="A37:XFD37" action="insertRow"/>
+  <rcc rId="188" sId="13">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>DoubleStream</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E37">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="189" sId="13">
+    <nc r="E34" t="inlineStr">
+      <is>
+        <t>Stream&lt;T&gt;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="190" sId="13">
+    <nc r="F34" t="inlineStr">
+      <is>
+        <t>generic version for objects of type T.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="191" sId="13">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>stream of primitive integers.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="192" sId="13">
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>stream of primitive longs.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="193" sId="13">
+    <nc r="F37" t="inlineStr">
+      <is>
+        <t>stream of primitive doubles.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="F37">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <ris rId="1" sheetId="11" name="[Notes.xlsx]LambdaExpressions" sheetPosition="8"/>
@@ -5083,6 +5720,338 @@
   </rcc>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="194" sId="13">
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>However, the stream must be created based on a source of data, there are different possible sources for a stream:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E39">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="13" sqref="E41">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="195" sId="13" eol="1" ref="A42:XFD42" action="insertRow"/>
+  <rfmt sheetId="13" sqref="E42">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="196" sId="13" eol="1" ref="A43:XFD43" action="insertRow"/>
+  <rcc rId="197" sId="13">
+    <nc r="E43" t="inlineStr">
+      <is>
+        <t>An I/O channel that supplies the elements.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E43">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="198" sId="13">
+    <nc r="E42" t="inlineStr">
+      <is>
+        <t>A generator that delievers elements in one way or other.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="199" sId="13">
+    <nc r="E41" t="inlineStr">
+      <is>
+        <t>A collection of elements, this can be an array or collection of elements</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="13" sqref="E46">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="200" sId="13">
+    <nc r="E46" t="inlineStr">
+      <is>
+        <t>In our example, we have a collection of strings in the form of an array.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="201" sId="13" eol="1" ref="A47:XFD47" action="insertRow"/>
+  <rcc rId="202" sId="13">
+    <nc r="E47" t="inlineStr">
+      <is>
+        <t>We can transform this into a stream using the Stream.of() method.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E47">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="203" sId="13" eol="1" ref="A48:XFD48" action="insertRow"/>
+  <rfmt sheetId="13" sqref="E48">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="204" sId="13" eol="1" ref="A49:XFD49" action="insertRow"/>
+  <rcc rId="205" sId="13">
+    <nc r="E49" t="inlineStr">
+      <is>
+        <t>We can write this as follows:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E49">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="206" sId="13">
+    <nc r="E51" t="inlineStr">
+      <is>
+        <t>Stream&lt;String&gt; stream = Stream.of(words)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E51">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="207" sId="13">
+    <nc r="E48" t="inlineStr">
+      <is>
+        <t>This method provides an internal iterator that delivers the elements from the array one by one at the stream.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="208" sId="13">
+    <nc r="E53" t="inlineStr">
+      <is>
+        <t>Stream interface is a generic interface which is provided with a type parameter.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E53">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="209" sId="13" eol="1" ref="A54:XFD54" action="insertRow"/>
+  <rcc rId="210" sId="13">
+    <nc r="E54" t="inlineStr">
+      <is>
+        <t>In this case, we indicate that this stream contains only objects of the type String. The type is determjined by the type of the supplied array.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E54">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="211" sId="13">
+    <nc r="E56" t="inlineStr">
+      <is>
+        <t>The Stream interface has numerous methods for creating a stream.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E56">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rrc rId="212" sId="13" eol="1" ref="A57:XFD57" action="insertRow"/>
+  <rfmt sheetId="13" sqref="E57">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="213" sId="13">
+    <nc r="E57" t="inlineStr">
+      <is>
+        <r>
+          <t>The general way to produce a stream is to use the</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> generate()</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> method.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="214" sId="13" eol="1" ref="A58:XFD58" action="insertRow"/>
+  <rcc rId="215" sId="13">
+    <nc r="E58" t="inlineStr">
+      <is>
+        <t>This method has an object as an argument of the functional interface Supplier&lt;T&gt;,</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="13" sqref="E58">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -6550,11 +7519,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6625,7 +7594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -6764,11 +7733,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7114,94 +8083,15 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D29062-31A3-4A83-89A9-D9E647CA7B7A}">
-  <dimension ref="E2:I10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E3" s="48"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="51"/>
-    </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E5" s="50"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="51"/>
-    </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E6" s="50"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="51"/>
-    </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E7" s="50"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="51"/>
-    </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E8" s="50"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="50"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="5:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E10" s="52"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="53"/>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7538,8 +8428,268 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D5:M58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="9.140625" style="47"/>
+    <col min="5" max="5" width="25" style="47" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="47"/>
+    <col min="9" max="9" width="14.85546875" style="47" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" style="47"/>
+    <col min="13" max="13" width="16.140625" style="47" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="47"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="47" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E9" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="47">
+        <v>1</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="47">
+        <v>2</v>
+      </c>
+      <c r="E12" s="47" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="47">
+        <v>3</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E15" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="47">
+        <v>1</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="47">
+        <v>2</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="47">
+        <v>3</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="K25" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L25" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="47" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="51" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="47" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E32" s="52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="49" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="49" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="49" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="49" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="49" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E57" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E58" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A8">
+      <selection activeCell="E42" sqref="E42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7722,7 +8872,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -7730,7 +8880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7760,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7927,7 +9077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7996,7 +9146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8051,7 +9201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -8253,7 +9403,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -8261,7 +9411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -8490,7 +9640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="373">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -2735,6 +2735,30 @@
   </si>
   <si>
     <t>This method has an object as an argument of the functional interface Supplier&lt;T&gt;,</t>
+  </si>
+  <si>
+    <r>
+      <t>The general way to produce a stream is to use the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> generate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3563,7 +3587,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E197EF44-D0C9-41BB-96C5-5E002BF0ED48}" lastGuid="{F6E552FC-CC7B-407C-B0DE-F7E293DF40D7}" diskRevisions="1" revisionId="215" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2A9D2A3A-05DE-4FD1-9E7C-D27F20A904CA}" diskRevisions="1" revisionId="215" version="9">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -3921,6 +3945,23 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{2A9D2A3A-05DE-4FD1-9E7C-D27F20A904CA}" dateTime="2020-01-14T15:54:01" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId23">
+    <sheetIdMap count="13">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6052,6 +6093,13 @@
       </border>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
 </revisions>
 </file>
 
@@ -7253,7 +7301,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -8430,10 +8478,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:M58"/>
+  <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8663,7 +8711,7 @@
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="49" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
@@ -8671,9 +8719,19 @@
         <v>371</v>
       </c>
     </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E59" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A8">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B0828C96-52ED-4343-B750-5867C9FE0294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
     <sheet name="Nested Classes-Oracle" sheetId="10" r:id="rId10"/>
     <sheet name="Generics" sheetId="12" r:id="rId11"/>
     <sheet name="LambdaExpressions" sheetId="11" r:id="rId12"/>
-    <sheet name="Streaming&amp;API" sheetId="13" r:id="rId13"/>
+    <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="13"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,12 +47,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2764,9 +2765,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3065,7 +3066,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7301,7 +7302,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -7567,11 +7568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7628,12 +7629,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -7642,7 +7643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7766,11 +7767,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -7781,11 +7782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8120,26 +8121,27 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8460,13 +8462,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -8477,11 +8479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8731,23 +8733,22 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8918,19 +8919,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -8938,7 +8939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8954,11 +8955,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -8968,7 +8969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9120,11 +9121,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9135,7 +9136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9187,12 +9188,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9204,7 +9205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9245,11 +9246,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9259,7 +9260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -9449,19 +9450,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -9469,7 +9470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -9681,12 +9682,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9698,7 +9699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -10296,12 +10297,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B0828C96-52ED-4343-B750-5867C9FE0294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="10" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -26,11 +25,12 @@
     <sheet name="Generics" sheetId="12" r:id="rId11"/>
     <sheet name="LambdaExpressions" sheetId="11" r:id="rId12"/>
     <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
+    <sheet name="Collections" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="14"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="13"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,12 +47,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="440">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -2761,13 +2761,279 @@
       <t xml:space="preserve"> method.</t>
     </r>
   </si>
+  <si>
+    <t>int x =10;</t>
+  </si>
+  <si>
+    <t>int y=15;</t>
+  </si>
+  <si>
+    <t>int z =20;</t>
+  </si>
+  <si>
+    <t>We can use these by Arrays,</t>
+  </si>
+  <si>
+    <t>Representing one value to one varaible is not a problem, but declaring a huge number of variables it is difficult to declare, due to data readability.</t>
+  </si>
+  <si>
+    <t>Arrays can hold only homogeneous data elements.</t>
+  </si>
+  <si>
+    <t>We can solve this problem by using Object Type Arrays.</t>
+  </si>
+  <si>
+    <t>Storing any type of array</t>
+  </si>
+  <si>
+    <t>Object [] a = n ew Object [];</t>
+  </si>
+  <si>
+    <t>a[1] = new Customer();</t>
+  </si>
+  <si>
+    <t>a[0] = new Student();</t>
+  </si>
+  <si>
+    <t>Arrays concept is not implemented based on one standard data structure.</t>
+  </si>
+  <si>
+    <t>Readymade method  support is not available , we need to  write a program,</t>
+  </si>
+  <si>
+    <t>Collections can hold both homogeneous and heterogeneous objects.</t>
+  </si>
+  <si>
+    <t>Collections are implemented based on a standard data structure.</t>
+  </si>
+  <si>
+    <t>Readymade method support is available for every requirement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ararys are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fixed in size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Knowing the exact size in real time is not always possible.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Collections are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>growable in nature.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(We need to scarifice the performance if we want to increase the size.</t>
+    </r>
+  </si>
+  <si>
+    <t>With respect to memory arrays are not recommended to use.</t>
+  </si>
+  <si>
+    <t>With respect to memory collections are  recommended to use.</t>
+  </si>
+  <si>
+    <t>With respect to performance  arrays are  recommended to use.</t>
+  </si>
+  <si>
+    <t>With respect to performance  collections  are not recommended to use.</t>
+  </si>
+  <si>
+    <t>We can create both int[] and Integer[], meand primitive arrays and Object arrays.</t>
+  </si>
+  <si>
+    <t>Collections can hold only Objects but not primitives</t>
+  </si>
+  <si>
+    <t>Differences</t>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Collection andCollection Framework</t>
+  </si>
+  <si>
+    <t>Collection Framework</t>
+  </si>
+  <si>
+    <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
+  </si>
+  <si>
+    <t>Defines several classes an d interfaces which are required by group of objects as a single entity</t>
+  </si>
+  <si>
+    <t>9 key interfaces of Collection Framework:</t>
+  </si>
+  <si>
+    <t>Like Array List, Link List</t>
+  </si>
+  <si>
+    <t>The most common methods are in Collection interface which are applicable for any collection object</t>
+  </si>
+  <si>
+    <t>It is considered as root interface of collection framework.</t>
+  </si>
+  <si>
+    <t>If you want to represent a group of individual objects as a single entity, should use Collection.</t>
+  </si>
+  <si>
+    <t>Collections is a utility class which defines several utility methods for collection object.</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>List Interface</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>If you want to represent a group of individual objects where duplicates should not be allowed and not preserved in the same order, then Set should be used.</t>
+  </si>
+  <si>
+    <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. Array List(1.2v)
+2. Linked List (1.2v)
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+  </si>
+  <si>
+    <t>Collection Interface(1.2v)</t>
+  </si>
+  <si>
+    <t>Differences between List &amp; Set</t>
+  </si>
+  <si>
+    <t>Duplicates are allowed</t>
+  </si>
+  <si>
+    <t>Duplicates are not allowed</t>
+  </si>
+  <si>
+    <t>Insertion Order is preserved</t>
+  </si>
+  <si>
+    <t>InsertionOrder is not preserved</t>
+  </si>
+  <si>
+    <t>It is the child interface of the Set interface</t>
+  </si>
+  <si>
+    <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the insertion order, then List should be used.</t>
+  </si>
+  <si>
+    <t>If you want to represent a group of individual objects where duplicates are not allowed and preserved in the insertion order, then Sorted set should be used.</t>
+  </si>
+  <si>
+    <t>Sorted Set(1.2v)</t>
+  </si>
+  <si>
+    <t>Set(1.2v)</t>
+  </si>
+  <si>
+    <t>It is the child interface of Sorted Set</t>
+  </si>
+  <si>
+    <t>It idefines several methods for navigation purpose</t>
+  </si>
+  <si>
+    <t>Navigable Set(1.6v)</t>
+  </si>
+  <si>
+    <t>Tree Set is the implementation Class(1.2v)</t>
+  </si>
+  <si>
+    <t>If you want ot represent a group of individual objects  prior to processing , you must use Queue.</t>
+  </si>
+  <si>
+    <t>Queue(1.5v)</t>
+  </si>
+  <si>
+    <t>It is the child interface of Collection</t>
+  </si>
+  <si>
+    <t>Implementation classes from Queue are:
+1. Priority Queue (1.5v)
+2.Blocking Queue(1.5)
+…..1. Linked Blocking Queue
+…..2. Priority Blocking Queue</t>
+  </si>
+  <si>
+    <t>It is not the child interface of collection</t>
+  </si>
+  <si>
+    <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface. Where key is an object and value is also an object.
+Duplicate keys are not allowed but duplicate values are allowed.</t>
+  </si>
+  <si>
+    <t>Set is the child interface of Collection.
+Implementation classes from the Set are:
+1. Hash Set (1.2v)
+2. Linked Hash Set (1.4v)</t>
+  </si>
+  <si>
+    <t>Map(1.2v)</t>
+  </si>
+  <si>
+    <t>Implementation classes from the Map are:
+1. Hash Map (1.2v)
+2. Linked Hash Map (1.4v)
+3. Weak Hash Map(1.2v)
+4. Identity Hash Map(1.4v)
+5. Hash Table(1.0)- it is the child of dictionary(1.0) which is abstract class
+6. Properties(1.0)</t>
+  </si>
+  <si>
+    <t>Sorted Map</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3066,7 +3332,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3588,7 +3854,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2A9D2A3A-05DE-4FD1-9E7C-D27F20A904CA}" diskRevisions="1" revisionId="215" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{91F11DBF-6AC7-47FE-9640-DDEC97793DCE}" diskRevisions="1" revisionId="350" version="34">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -3963,6 +4229,564 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{00434411-F72B-492A-97B8-D33A5F556BFA}" dateTime="2020-01-17T13:41:38" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId24" minRId="216" maxRId="224">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6B09EDA3-C55A-4D90-9B8C-03F171CA332C}" dateTime="2020-01-17T13:43:53" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId25" minRId="225" maxRId="232">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4582EFF5-A210-4650-AD94-15EA3488CDCA}" dateTime="2020-01-17T13:45:53" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId26" minRId="233" maxRId="240">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D55E928D-7F6A-4EBD-95CB-4B28E4331D9B}" dateTime="2020-01-17T13:46:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId27">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D80AC57B-E3FC-4AC5-AD76-6C14B318B925}" dateTime="2020-01-17T13:46:41" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId28" minRId="241" maxRId="242">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{82E58F13-14F4-43BC-94D6-EB3F858EF341}" dateTime="2020-01-17T13:48:25" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId29" minRId="243" maxRId="246">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{13B03637-2A3D-46FB-A85A-9EC7A925B8DF}" dateTime="2020-01-17T13:51:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId30" minRId="247" maxRId="251">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2944D3B0-64CE-4362-873E-B668B83287E2}" dateTime="2020-01-17T13:51:24" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId31" minRId="252">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{32FAA1AA-1880-4FFD-A658-9416D52B9DA0}" dateTime="2020-01-17T13:53:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId32" minRId="253">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8C1349B4-AD52-429A-A0AE-B45742B58AC8}" dateTime="2020-01-17T13:58:33" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId33" minRId="254" maxRId="260">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B744DD0C-54FC-4E48-AD68-C4F6243AEB89}" dateTime="2020-01-17T14:03:43" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId34" minRId="261" maxRId="271">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7BF31167-1DB7-433E-88E1-3F03D3DA4439}" dateTime="2020-01-17T14:06:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId35" minRId="272" maxRId="275">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0AEDCD0B-5DC9-43AF-ACE6-D96027DF4A19}" dateTime="2020-01-17T14:08:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId36" minRId="276">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FB1AE9BD-B147-4A26-AAF2-B1D5140288A1}" dateTime="2020-01-17T14:23:57" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId37" minRId="277" maxRId="280">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5A3A6C80-8DAA-44F6-8E40-C57BC5628CD4}" dateTime="2020-01-17T15:16:19" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId38" minRId="281" maxRId="282">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E33EDED-7BAC-4C33-8B3F-50A85B1D3FF7}" dateTime="2020-01-17T15:17:37" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId39" minRId="283" maxRId="287">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{51B33C89-E7DB-4BB1-ADAB-8964EA027695}" dateTime="2020-01-17T15:19:26" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId40" minRId="288" maxRId="289">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{80E21BF6-71C4-4D8F-81FE-58E67E438AC8}" dateTime="2020-01-17T15:25:08" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId41" minRId="290" maxRId="296">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E60D2AB7-1482-4804-8F29-F51E2F9FEDD9}" dateTime="2020-01-17T15:27:23" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId42" minRId="297" maxRId="303">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{719FA714-E657-40E4-BD9C-E860E8CA518A}" dateTime="2020-01-17T15:27:39" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId43" minRId="304">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DB0BAB50-EBEF-4ED6-86AF-A7AF5DB4C52C}" dateTime="2020-01-17T15:29:35" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId44" minRId="305" maxRId="314">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E2D3549-9A6F-4AD0-83CF-32E52B9EE7F9}" dateTime="2020-01-17T15:30:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId45" minRId="315" maxRId="318">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B45FF7AB-A534-408C-9FFA-4596211E30F0}" dateTime="2020-01-17T15:31:17" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId46" minRId="319" maxRId="320">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E316F28-ED97-44C2-BE1C-8F228226E4A1}" dateTime="2020-01-17T15:32:11" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId47" minRId="321" maxRId="327">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{17CC77F4-5139-4659-BE06-FC85946C0C7E}" dateTime="2020-01-17T15:33:01" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId48" minRId="328" maxRId="330">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AA27475A-3656-447C-8345-3A5EE0C8FAFB}" dateTime="2020-01-17T15:38:55" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId49" minRId="331" maxRId="337">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{776C763A-AE71-41EA-87A3-92DDF2423E7C}" dateTime="2020-01-17T15:40:59" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId50" minRId="338">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{0760555F-415E-4012-93CD-FBE9349D6FFC}" dateTime="2020-01-17T15:43:45" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId51" minRId="339" maxRId="344">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BCA2E30F-AF5E-4BE7-84CD-F03974DE9439}" dateTime="2020-01-17T15:45:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId52" minRId="345" maxRId="348">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FF90E65E-369F-4E8A-B0CF-7E8C94C760F2}" dateTime="2020-01-17T15:46:20" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId53" minRId="349" maxRId="350">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{91F11DBF-6AC7-47FE-9640-DDEC97793DCE}" dateTime="2020-01-17T15:48:45" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId54">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6104,6 +6928,206 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="216" sheetId="14" name="[Notes.xlsx]Collections" sheetPosition="13"/>
+  <rcc rId="217" sId="14">
+    <nc r="F8" t="inlineStr">
+      <is>
+        <t>int x =10;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="218" sId="14" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="219" sId="14">
+    <nc r="F9" t="inlineStr">
+      <is>
+        <t>int y=15;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="220" sId="14" eol="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="221" sId="14">
+    <nc r="F10" t="inlineStr">
+      <is>
+        <t>int z =20;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="222" sId="14" eol="1" ref="A13:XFD13" action="insertRow"/>
+  <rcc rId="223" sId="14">
+    <nc r="F13" t="inlineStr">
+      <is>
+        <t>We can use these by Arrays,</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="224" sId="14">
+    <nc r="F12" t="inlineStr">
+      <is>
+        <t>Representing one value to one varaible is not a problem, but declaring a huge number of variables it is difficult to declare, due to data readability.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="225" sId="14">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>Limitations of arrays:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="226" sId="14" eol="1" ref="A16:XFD16" action="insertRow"/>
+  <rcc rId="227" sId="14">
+    <nc r="F16">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rm rId="228" sheetId="14" source="F16" destination="E17" sourceSheetId="14"/>
+  <rrc rId="229" sId="14" eol="1" ref="A18:XFD18" action="insertRow"/>
+  <rcc rId="230" sId="14">
+    <nc r="E18">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="231" sId="14">
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>Ararys are fixed in size. Knowing the exact size in real time is not always possible.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="232" sId="14">
+    <nc r="F18" t="inlineStr">
+      <is>
+        <t>Arrays can hold only homogeneous data elements.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="233" sId="14">
+    <nc r="F20" t="inlineStr">
+      <is>
+        <t>We can solve this problem by using Object Type Arrays.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="234" sId="14" eol="1" ref="A21:XFD21" action="insertRow"/>
+  <rcc rId="235" sId="14">
+    <nc r="F21" t="inlineStr">
+      <is>
+        <t>Storing any type of array</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="236" sId="14">
+    <nc r="F23" t="inlineStr">
+      <is>
+        <t>Object [] a = n ew Object [];</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="237" sId="14" eol="1" ref="A24:XFD24" action="insertRow"/>
+  <rrc rId="238" sId="14" eol="1" ref="A25:XFD25" action="insertRow"/>
+  <rcc rId="239" sId="14">
+    <nc r="F25" t="inlineStr">
+      <is>
+        <t>a[1] = new Customer();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="240" sId="14">
+    <nc r="F24" t="inlineStr">
+      <is>
+        <t>a[0] = new Student();</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="241" sId="14">
+    <nc r="E28">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="242" sId="14">
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>Arrays concept is not implemented is not based on one standard data structure.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="243" sId="14">
+    <oc r="F28" t="inlineStr">
+      <is>
+        <t>Arrays concept is not implemented is not based on one standard data structure.</t>
+      </is>
+    </oc>
+    <nc r="F28" t="inlineStr">
+      <is>
+        <t>Arrays concept is not implemented based on one standard data structure.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="244" sId="14" eol="1" ref="A29:XFD29" action="insertRow"/>
+  <rcc rId="245" sId="14">
+    <nc r="F29" t="inlineStr">
+      <is>
+        <t>Readymade method  support is not available , we need to  write a program,</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="246" sId="14">
+    <nc r="F32" t="inlineStr">
+      <is>
+        <t>Collections are implemented based on a standard data structure and readymade method support is available for every requirement.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="20" sId="11" xfDxf="1" dxf="1">
@@ -6484,6 +7508,457 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="247" sId="14">
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>Collections are growable in nature.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="248" sId="14">
+    <nc r="J18" t="inlineStr">
+      <is>
+        <t>Collections can hold both homogeneous and heterogeneous objects.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F1:F1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J1:J1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rm rId="249" sheetId="14" source="F32" destination="J28" sourceSheetId="14">
+    <rfmt sheetId="14" sqref="J28" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="250" sId="14">
+    <oc r="J28" t="inlineStr">
+      <is>
+        <t>Collections are implemented based on a standard data structure and readymade method support is available for every requirement.</t>
+      </is>
+    </oc>
+    <nc r="J28" t="inlineStr">
+      <is>
+        <t>Collections are implemented based on a standard data structure.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="251" sId="14">
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t>Readymade method support is available for every requirement.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="252" sId="14" odxf="1" dxf="1">
+    <nc r="J15" t="inlineStr">
+      <is>
+        <t>Collections Advantages over Arrays:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="253" sId="14">
+    <oc r="J17" t="inlineStr">
+      <is>
+        <t>Collections are growable in nature.</t>
+      </is>
+    </oc>
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>Collections are growable in nature.
+(We need to scarifice the performance if we want to increase the size.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="254" sId="14">
+    <oc r="F17" t="inlineStr">
+      <is>
+        <t>Ararys are fixed in size. Knowing the exact size in real time is not always possible.</t>
+      </is>
+    </oc>
+    <nc r="F17" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ararys are </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>fixed in size</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>. Knowing the exact size in real time is not always possible.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="255" sId="14">
+    <oc r="J17" t="inlineStr">
+      <is>
+        <t>Collections are growable in nature.
+(We need to scarifice the performance if we want to increase the size.</t>
+      </is>
+    </oc>
+    <nc r="J17" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Collections are </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>growable in nature.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+(We need to scarifice the performance if we want to increase the size.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="256" sId="14">
+    <nc r="E31">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="257" sId="14">
+    <nc r="F31" t="inlineStr">
+      <is>
+        <t>With respect to memory arrays are not recommended to use.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="258" sId="14">
+    <nc r="J31" t="inlineStr">
+      <is>
+        <t>With respect to memory collections are  recommended to use.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="259" sId="14">
+    <nc r="F33" t="inlineStr">
+      <is>
+        <t>With respect to performance  arrays are  recommended to use.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="260" sId="14">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t>With respect to performance  collections  are not recommended to use.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="261" sId="14">
+    <nc r="E33">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="262" sId="14">
+    <nc r="E35">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="263" sId="14">
+    <nc r="F35" t="inlineStr">
+      <is>
+        <t>We can create both int[] and Integer[], meand primitive arrays and Object arrays.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="264" sId="14">
+    <nc r="J35" t="inlineStr">
+      <is>
+        <t>Collections can hold only Objects but not primitives</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="265" sId="14" ref="A14:XFD14" action="insertRow"/>
+  <rrc rId="266" sId="14" ref="A14:XFD14" action="insertRow"/>
+  <rcc rId="267" sId="14">
+    <nc r="F15" t="inlineStr">
+      <is>
+        <t>Differences</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="268" sId="14">
+    <oc r="F17" t="inlineStr">
+      <is>
+        <t>Limitations of arrays:</t>
+      </is>
+    </oc>
+    <nc r="F17" t="inlineStr">
+      <is>
+        <t>Arrays</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="269" sId="14">
+    <oc r="J17" t="inlineStr">
+      <is>
+        <t>Collections Advantages over Arrays:</t>
+      </is>
+    </oc>
+    <nc r="J17" t="inlineStr">
+      <is>
+        <t>Collections</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="270" sId="14">
+    <nc r="F40" t="inlineStr">
+      <is>
+        <t>Collection andCollection Framework</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F40" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="F40" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="271" sId="14">
+    <nc r="F42" t="inlineStr">
+      <is>
+        <t>Collection is a group of individual objects as a single entity.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="272" sId="14" xfDxf="1" dxf="1">
+    <nc r="F45" t="inlineStr">
+      <is>
+        <t>Collection Framework</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="273" sId="14" eol="1" ref="A46:XFD46" action="insertRow"/>
+  <rcc rId="274" sId="14">
+    <oc r="F42" t="inlineStr">
+      <is>
+        <t>Collection is a group of individual objects as a single entity.</t>
+      </is>
+    </oc>
+    <nc r="F42" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="275" sId="14">
+    <nc r="F46" t="inlineStr">
+      <is>
+        <t>Defines several classes an d interfaces which are required by group of objects as a single entity</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="276" sId="14">
+    <nc r="F49" t="inlineStr">
+      <is>
+        <t>9 key interfaces of Collection Framework:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F49" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="F49" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="277" sId="14">
+    <nc r="E51">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="278" sId="14">
+    <nc r="F51" t="inlineStr">
+      <is>
+        <t>Collection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="279" sId="14" odxf="1" dxf="1">
+    <nc r="G51" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
+      </is>
+    </nc>
+    <odxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </odxf>
+    <ndxf>
+      <alignment vertical="top" wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="280" sId="14" eol="1" ref="A52:XFD52" action="insertRow"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="281" sId="14" eol="1" ref="A52:XFD52" action="insertRow"/>
+  <rcc rId="282" sId="14">
+    <nc r="G52" t="inlineStr">
+      <is>
+        <t>The most common methods are in Collection interface.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="283" sId="14" eol="1" ref="A53:XFD53" action="insertRow"/>
+  <rcc rId="284" sId="14">
+    <nc r="G53" t="inlineStr">
+      <is>
+        <t>Like Array List, Link List</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="285" sId="14">
+    <oc r="G52" t="inlineStr">
+      <is>
+        <t>The most common methods are in Collection interface.</t>
+      </is>
+    </oc>
+    <nc r="G52" t="inlineStr">
+      <is>
+        <t>The most common methods are in Collection interface which are applicable for any collection object</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="G1:G1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rrc rId="286" sId="14" eol="1" ref="A54:XFD54" action="insertRow"/>
+  <rcc rId="287" sId="14">
+    <nc r="G54" t="inlineStr">
+      <is>
+        <t>It is considered as root interface of collection framework.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="31" sId="11">
@@ -6544,6 +8019,580 @@
     <nc r="E41" t="inlineStr">
       <is>
         <t>When there are more than one statements , then these may be enclosed in curly brackets(a code block) and the return type of the anonymous function is the same as the type of the value returned within the code blockm or void if nothing is returned.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="288" sId="14">
+    <oc r="G51" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
+      </is>
+    </oc>
+    <nc r="G51" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects as a single entity, should use Collection.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="289" sId="14">
+    <nc r="F56" t="inlineStr">
+      <is>
+        <t>Collection is a utility class which defines several utility methids for collection object.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="290" sId="14">
+    <oc r="F56" t="inlineStr">
+      <is>
+        <t>Collection is a utility class which defines several utility methids for collection object.</t>
+      </is>
+    </oc>
+    <nc r="F56" t="inlineStr">
+      <is>
+        <t>Collections is a utility class which defines several utility methods for collection object.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="291" sId="14">
+    <nc r="E58">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="F58" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="292" sId="14">
+    <oc r="F51" t="inlineStr">
+      <is>
+        <t>Collection</t>
+      </is>
+    </oc>
+    <nc r="F51" t="inlineStr">
+      <is>
+        <t>Collection Interface</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="293" sId="14">
+    <nc r="F58" t="inlineStr">
+      <is>
+        <t>List Interface</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="294" sId="14">
+    <nc r="G58" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are allowed and should be preserved in the same order, then List should be used.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="295" sId="14" eol="1" ref="A59:XFD59" action="insertRow"/>
+  <rcc rId="296" sId="14">
+    <nc r="G59" t="inlineStr">
+      <is>
+        <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. Array List
+2. Linked List
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="297" sId="14">
+    <nc r="E61">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="298" sId="14">
+    <nc r="F61" t="inlineStr">
+      <is>
+        <t>Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F61" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="299" sId="14">
+    <oc r="G58" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are allowed and should be preserved in the same order, then List should be used.</t>
+      </is>
+    </oc>
+    <nc r="G58" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the same order, then List should be used.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="300" sId="14">
+    <nc r="G61" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates should not be allowed and not preserved in the same order, then Set should be used.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="301" sId="14" eol="1" ref="A62:XFD62" action="insertRow"/>
+  <rcc rId="302" sId="14">
+    <nc r="G62" t="inlineStr">
+      <is>
+        <t>Set is the child interface of Collection.
+Implementation classes from the List are:
+1. Hash Set (1.2v)
+2. Linked Hash Set (1.4v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="303" sId="14">
+    <oc r="G59" t="inlineStr">
+      <is>
+        <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. Array List
+2. Linked List
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+      </is>
+    </oc>
+    <nc r="G59" t="inlineStr">
+      <is>
+        <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. Array List(1.2v)
+2. Linked List (1.2v)
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="304" sId="14">
+    <oc r="F51" t="inlineStr">
+      <is>
+        <t>Collection Interface</t>
+      </is>
+    </oc>
+    <nc r="F51" t="inlineStr">
+      <is>
+        <t>Collection Interface(1.2v)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="305" sheetId="14" source="J17:J37" destination="G17:G37" sourceSheetId="14">
+    <rfmt sheetId="14" sqref="G17" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G18" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G19" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G20" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G21" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G22" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G23" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G24" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G25" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G26" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G27" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G28" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G29" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G30" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G31" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G32" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G33" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G34" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G35" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G36" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="14" sqref="G37" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="306" sId="14">
+    <nc r="J57" t="inlineStr">
+      <is>
+        <t>Differences between List &amp; Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="J57" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="307" sId="14">
+    <nc r="J58" t="inlineStr">
+      <is>
+        <t>List</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="308" sId="14">
+    <nc r="K58" t="inlineStr">
+      <is>
+        <t>Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="309" sId="14">
+    <nc r="J59" t="inlineStr">
+      <is>
+        <t>Duplicates are allowed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="310" sId="14">
+    <nc r="K59" t="inlineStr">
+      <is>
+        <t>Duplicates are not allowed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="J58:K58" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="311" sId="14">
+    <nc r="J60" t="inlineStr">
+      <is>
+        <t>Insertion Order is preserved</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="312" sId="14">
+    <nc r="K60" t="inlineStr">
+      <is>
+        <t>InsertionOrder is not preserved</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="313" sId="14">
+    <nc r="E64">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="314" sId="14">
+    <nc r="F64" t="inlineStr">
+      <is>
+        <t>Sorted Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F64" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="315" sId="14" eol="1" ref="A65:XFD65" action="insertRow"/>
+  <rcc rId="316" sId="14">
+    <nc r="G65" t="inlineStr">
+      <is>
+        <t>It is the child interface of the Set interface</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="317" sId="14">
+    <oc r="G58" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the same order, then List should be used.</t>
+      </is>
+    </oc>
+    <nc r="G58" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the insertion order, then List should be used.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="318" sId="14">
+    <nc r="G64" t="inlineStr">
+      <is>
+        <t>If you want to represent a group of individual objects where duplicates are not allowed and preserved in the insertion order, then Sorted set should be used.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="319" sId="14">
+    <oc r="F64" t="inlineStr">
+      <is>
+        <t>Sorted Set</t>
+      </is>
+    </oc>
+    <nc r="F64" t="inlineStr">
+      <is>
+        <t>Sorted Set(1.2v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="320" sId="14">
+    <oc r="F61" t="inlineStr">
+      <is>
+        <t>Set</t>
+      </is>
+    </oc>
+    <nc r="F61" t="inlineStr">
+      <is>
+        <t>Set(1.2v)\</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="321" sId="14">
+    <oc r="F61" t="inlineStr">
+      <is>
+        <t>Set(1.2v)\</t>
+      </is>
+    </oc>
+    <nc r="F61" t="inlineStr">
+      <is>
+        <t>Set(1.2v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="322" sId="14">
+    <nc r="E67">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="323" sId="14">
+    <nc r="F67" t="inlineStr">
+      <is>
+        <t>Navigable Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="324" sId="14" eol="1" ref="A68:XFD68" action="insertRow"/>
+  <rcc rId="325" sId="14">
+    <nc r="G68" t="inlineStr">
+      <is>
+        <t>It is the child interface of Sorted Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="326" sId="14" eol="1" ref="A69:XFD69" action="insertRow"/>
+  <rcc rId="327" sId="14">
+    <nc r="G69" t="inlineStr">
+      <is>
+        <t>It idefines several methods for navigation purpose</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="328" sId="14">
+    <oc r="F67" t="inlineStr">
+      <is>
+        <t>Navigable Set</t>
+      </is>
+    </oc>
+    <nc r="F67" t="inlineStr">
+      <is>
+        <t>Navigable Set(1.6v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="329" sId="14" eol="1" ref="A70:XFD70" action="insertRow"/>
+  <rcc rId="330" sId="14">
+    <nc r="G70" t="inlineStr">
+      <is>
+        <t>Tree Set is the implementation Class(1.2v)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="331" sId="14">
+    <nc r="E72">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F72" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="332" sId="14" eol="1" ref="A73:XFD73" action="insertRow"/>
+  <rcc rId="333" sId="14">
+    <nc r="G72" t="inlineStr">
+      <is>
+        <t>If you want ot represent a group of individual objects  prior to processing , you must use Queue.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="334" sId="14" eol="1" ref="A74:XFD74" action="insertRow"/>
+  <rcc rId="335" sId="14">
+    <nc r="F72" t="inlineStr">
+      <is>
+        <t>Queue(1.5v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="336" sId="14">
+    <nc r="G73" t="inlineStr">
+      <is>
+        <t>It is the child interface of Collection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="337" sId="14">
+    <nc r="G74" t="inlineStr">
+      <is>
+        <t>Implementation classes from Queue are:
+1. Priority Queue (1.5v)
+2.Blocking Queue(1.5)
+…..1. Linked Blocking Queue
+…..2. Priority Blocking Queue</t>
       </is>
     </nc>
   </rcc>
@@ -6560,6 +8609,151 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="338" sId="14">
+    <nc r="G77" t="inlineStr">
+      <is>
+        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="339" sId="14" ref="A76:XFD76" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A76:XFD76" start="0" length="0"/>
+  </rrc>
+  <rcc rId="340" sId="14">
+    <nc r="E76">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcc rId="341" sId="14">
+    <nc r="F76" t="inlineStr">
+      <is>
+        <t>Map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="F76" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="342" sId="14" eol="1" ref="A77:XFD77" action="insertRow"/>
+  <rcc rId="343" sId="14">
+    <nc r="G77" t="inlineStr">
+      <is>
+        <t>It is not the child interface of collection</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="G77" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="344" sId="14">
+    <oc r="G76" t="inlineStr">
+      <is>
+        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface.</t>
+      </is>
+    </oc>
+    <nc r="G76" t="inlineStr">
+      <is>
+        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface. Where key is an object and value is also an object.
+Duplicate keys are not allowed but duplicate values are allowed.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="345" sId="14">
+    <oc r="G62" t="inlineStr">
+      <is>
+        <t>Set is the child interface of Collection.
+Implementation classes from the List are:
+1. Hash Set (1.2v)
+2. Linked Hash Set (1.4v)</t>
+      </is>
+    </oc>
+    <nc r="G62" t="inlineStr">
+      <is>
+        <t>Set is the child interface of Collection.
+Implementation classes from the Set are:
+1. Hash Set (1.2v)
+2. Linked Hash Set (1.4v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="346" sId="14" eol="1" ref="A78:XFD78" action="insertRow"/>
+  <rcc rId="347" sId="14">
+    <oc r="F76" t="inlineStr">
+      <is>
+        <t>Map</t>
+      </is>
+    </oc>
+    <nc r="F76" t="inlineStr">
+      <is>
+        <t>Map(1.2v)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="348" sId="14">
+    <nc r="G78" t="inlineStr">
+      <is>
+        <t>Implementation classes from the Map are:
+1. Hash Map (1.2v)
+2. Linked Hash Map (1.4v)
+3. Weak Hash Map(1.2v)
+4. Identity Hash Map(1.4v)
+5. Hash Table(1.0)- it is the child of dictionary(1.0) which is abstract class
+6. Properties(1.0)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="349" sId="14">
+    <nc r="E80">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="350" sId="14">
+    <nc r="F80" t="inlineStr">
+      <is>
+        <t>Sorted Map</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="14" sqref="F80" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -7302,7 +9496,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -7568,11 +9762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7629,12 +9823,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C12" sqref="C12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -7643,7 +9837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7767,11 +9961,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -7782,11 +9976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8121,27 +10315,26 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8462,13 +10655,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -8479,11 +10672,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8733,22 +10926,391 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:K80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="53.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F15" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F17" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F40" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F49" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G59" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K59" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="K60" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G62" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="64" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>6</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>7</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="78" spans="5:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>8</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="F64" sqref="F64"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8919,19 +11481,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -8939,7 +11501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8955,11 +11517,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -8969,7 +11531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9121,11 +11683,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9136,7 +11698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9188,12 +11750,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9205,7 +11767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9246,11 +11808,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9260,7 +11822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -9450,19 +12012,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -9470,7 +12032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -9682,12 +12244,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -9699,7 +12261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -10297,12 +12859,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C445F599-C2FA-43AD-9203-A16FCDAC3D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -27,11 +28,12 @@
     <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
     <sheet name="Collections" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="14"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,15 +49,16 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
+            <b/>
             <i/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -66,7 +69,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -78,10 +80,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
+            <b/>
             <i/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -92,7 +95,6 @@
         </r>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
@@ -2932,13 +2934,6 @@
     <t>If you want to represent a group of individual objects where duplicates should not be allowed and not preserved in the same order, then Set should be used.</t>
   </si>
   <si>
-    <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. Array List(1.2v)
-2. Linked List (1.2v)
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-  </si>
-  <si>
     <t>Collection Interface(1.2v)</t>
   </si>
   <si>
@@ -3027,13 +3022,20 @@
   <si>
     <t>Sorted Map</t>
   </si>
+  <si>
+    <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. ArrayList(1.2v)
+2. LinkedList (1.2v)
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25" x14ac:knownFonts="1">
     <font>
@@ -3201,7 +3203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -3209,6 +3210,7 @@
     </font>
     <font>
       <b/>
+      <i/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -3332,7 +3334,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3854,7 +3856,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{91F11DBF-6AC7-47FE-9640-DDEC97793DCE}" diskRevisions="1" revisionId="350" version="34">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7420AD2C-1314-4A22-B820-1F20A7481452}" diskRevisions="1" revisionId="356" version="2">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -4787,6 +4789,42 @@
       <sheetId val="14"/>
     </sheetIdMap>
   </header>
+  <header guid="{652866C5-FEB7-49E0-A123-062FC755C58A}" dateTime="2020-01-17T21:07:18" maxSheetId="15" userName="kalyan chavali" r:id="rId55" minRId="351" maxRId="356">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7420AD2C-1314-4A22-B820-1F20A7481452}" dateTime="2020-01-18T10:08:09" maxSheetId="15" userName="kalyan chavali" r:id="rId56">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8754,6 +8792,53 @@
       </font>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="351" sId="14" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="352" sId="14" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="353" sId="14" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="354" sId="14" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rrc rId="355" sId="14" ref="A1:XFD1" action="deleteRow">
+    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
+  </rrc>
+  <rcc rId="356" sId="14">
+    <oc r="G54" t="inlineStr">
+      <is>
+        <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. Array List(1.2v)
+2. Linked List (1.2v)
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+      </is>
+    </oc>
+    <nc r="G54" t="inlineStr">
+      <is>
+        <t>List is the child interface of Collection.
+Implementation classes from the List are:
+1. ArrayList(1.2v)
+2. LinkedList (1.2v)
+3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
 </revisions>
 </file>
 
@@ -9762,11 +9847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9823,12 +9908,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9837,7 +9922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -9961,11 +10046,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -9976,11 +10061,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10315,26 +10400,27 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10655,13 +10741,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -10672,11 +10758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10926,27 +11012,26 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:K80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="E3:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,360 +11042,365 @@
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="12" spans="6:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="15" spans="6:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F15" s="18" t="s">
+    <row r="10" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F10" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F17" s="18" t="s">
+    <row r="12" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F12" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="19" spans="5:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E19">
+    <row r="14" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E20">
+    <row r="15" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15">
         <v>2</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>3</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F35" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F44" s="18" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G47" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G49" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J52" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="5:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E56">
         <v>3</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="31" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E33">
+      <c r="F56" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="G57" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="E59">
         <v>4</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E35">
+      <c r="F59" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G60" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E62">
         <v>5</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>6</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F40" s="18" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F45" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F46" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="49" spans="5:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F49" s="18" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="51" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="52" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G52" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G53" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="56" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F56" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J57" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="58" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E58">
-        <v>2</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="59" spans="5:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="G59" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K59" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J60" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K60" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="61" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="62" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="G62" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E64">
-        <v>4</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>424</v>
-      </c>
+    </row>
+    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G64" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G65" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="5:7" ht="30" x14ac:dyDescent="0.25">
       <c r="E67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G68" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="69" spans="5:7" ht="75" x14ac:dyDescent="0.25">
       <c r="G69" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G70" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="72" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E72">
-        <v>6</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>7</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="73" spans="5:7" ht="120" x14ac:dyDescent="0.25">
       <c r="G73" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="74" spans="5:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="G74" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="E76">
-        <v>7</v>
-      </c>
-      <c r="F76" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G77" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="78" spans="5:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="G78" s="1" t="s">
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80">
-        <v>8</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
       <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11481,19 +11571,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -11501,7 +11591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11517,11 +11607,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11531,7 +11621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11683,11 +11773,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11698,7 +11788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11750,12 +11840,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11767,7 +11857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11808,11 +11898,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11822,7 +11912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -12012,19 +12102,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -12032,7 +12122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:O42"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -12244,12 +12334,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12261,7 +12351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -12859,12 +12949,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C445F599-C2FA-43AD-9203-A16FCDAC3D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -27,13 +26,13 @@
     <sheet name="LambdaExpressions" sheetId="11" r:id="rId12"/>
     <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
     <sheet name="Collections" sheetId="14" r:id="rId14"/>
+    <sheet name="Important points" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="14"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="481">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -3029,15 +3028,203 @@
 2. LinkedList (1.2v)
 3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
   </si>
+  <si>
+    <t>Interfaces cannot have constructors.</t>
+  </si>
+  <si>
+    <t>Like classes in JAVA, interfaces don’t extend Object class by default.</t>
+  </si>
+  <si>
+    <t>Interfaces can’t be local members of a method.</t>
+  </si>
+  <si>
+    <t>interfaces can be declared as ‘abstract’. But, there is no need to declare like that because interfaces are ‘abstract’ by default.</t>
+  </si>
+  <si>
+    <t>Abstract classes may or  may not have abstract methods.</t>
+  </si>
+  <si>
+    <t>Abstract classes must not have a body.</t>
+  </si>
+  <si>
+    <t>When you are extending abstract super class, you need to either specify the class as abstract or inherit the abstract methods from the super class to the sub class.</t>
+  </si>
+  <si>
+    <t>Abstract methods can’t be static.</t>
+  </si>
+  <si>
+    <t>Abstract methods can’t be private.</t>
+  </si>
+  <si>
+    <t>Abstract classes can have any number of constructors.</t>
+  </si>
+  <si>
+    <t>Abstract classes can have static initialization blocks as well as instance initialization blocks.</t>
+  </si>
+  <si>
+    <t>Constructors can’t be abstract.</t>
+  </si>
+  <si>
+    <t>Abstract methods can’t be final.</t>
+  </si>
+  <si>
+    <t>Local inner classes can be abstract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract </t>
+  </si>
+  <si>
+    <t xml:space="preserve">String </t>
+  </si>
+  <si>
+    <t>String is not a keyword in java. String is a final class in java.lang package which is used to represent the set of characters in java.</t>
+  </si>
+  <si>
+    <t>String is a derived type.</t>
+  </si>
+  <si>
+    <r>
+      <t>There are two ways to create string objects in java. One is using</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> new operator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and another one is using</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> string literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s. The objects created using new operator are stored in the heap memory and objects created using string literals are stored in string constant pool.</t>
+    </r>
+  </si>
+  <si>
+    <t>String s1 = new String("abc");          //Creating string object using new operator
+String s2 = "abc";        //Creating string object using string literal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String Constant Pool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
+    </r>
+  </si>
+  <si>
+    <t>One special thing about string objects is that you can create string objects without using new operator i.e using string literals. This is not possible with other derived types (except wrapper classes).</t>
+  </si>
+  <si>
+    <t> One more special thing about strings is that you can concatenate two string objects using ‘+’. </t>
+  </si>
+  <si>
+    <t>Immutable objects are like constants. You can’t modify them once they are created. They are final in nature. Where as mutable objects are concerned, you can perform modifications to them.</t>
+  </si>
+  <si>
+    <t>The objects of String class are immutable in nature. i.e you can’t modify them once they are created. If you try to modify them, a new object will be created with modified content. This may cause memory and performance issues if you are performing lots of string modifications in your code. To overcome these issues, StingBuffer and StringBuilder classes are introduced in java.</t>
+  </si>
+  <si>
+    <t>String object in the string constant pool is called as String Intern. You can create an exact copy of heap memory string object in string constant pool. This process of creating an exact copy of heap memory string object in the string constant pool is called interning. intern() method is used for interning.</t>
+  </si>
+  <si>
+    <t>a) Immutable strings increase security. As they can’t be modified once they are created, so we can use them to store sensitive data like username, password etc.</t>
+  </si>
+  <si>
+    <t>b) Immutable strings are thread safe. So, we can use them in a multi threaded code without synchronization.</t>
+  </si>
+  <si>
+    <t>c) String objects are used in class loading. If strings are mutable, it is possible that wrong class is being loaded as mutable objects are modifiable.</t>
+  </si>
+  <si>
+    <t>String constant pool increases the reusability of existing string objects</t>
+  </si>
+  <si>
+    <t>The main similarity between String and StringBuffer class is that both are thread safe. The main difference between them is that String objects are immutable where as StringBuffer objects are mutable.</t>
+  </si>
+  <si>
+    <t>The main similarity between StringBuffer and StringBuilder class is that both produces mutable string objects. The main difference between them is that StringBuffer class is thread safe where as StringBuilder class is not thread safe.</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Enum types can’t have duplicate constants.</t>
+  </si>
+  <si>
+    <t>Enum types can’t extend a class.</t>
+  </si>
+  <si>
+    <t>You can’t declare enum constants with any modifiers. They are public, static and final by default.</t>
+  </si>
+  <si>
+    <t> Enum types can have only private constructors.</t>
+  </si>
+  <si>
+    <t>Enum types can implement any number of interfaces.</t>
+  </si>
+  <si>
+    <t>In Java, a class can not extend more than one class.</t>
+  </si>
+  <si>
+    <t>A class can not extend itself.</t>
+  </si>
+  <si>
+    <t>Private members are not inherited to sub class.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3216,6 +3403,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3334,9 +3528,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3446,6 +3640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3856,7 +4053,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7420AD2C-1314-4A22-B820-1F20A7481452}" diskRevisions="1" revisionId="356" version="2">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB2E190E-02C0-44EC-9353-50BBAAE35EF9}" lastGuid="{7FC13229-663C-48C4-8106-D63D25793997}" diskRevisions="1" revisionId="429" version="20">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -4825,6 +5022,382 @@
       <sheetId val="14"/>
     </sheetIdMap>
   </header>
+  <header guid="{5D38786E-C7F6-4975-B210-F9CE71B2571E}" dateTime="2020-01-20T09:19:18" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId57" minRId="357" maxRId="359">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D672103A-D6C1-4278-9204-2FB00287DBFD}" dateTime="2020-01-20T09:28:27" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId58" minRId="360" maxRId="362">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D51C6AAE-0BCE-4C70-966F-5B88C4F249F2}" dateTime="2020-01-20T09:31:55" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId59" minRId="363" maxRId="364">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{23EB6EE6-DF98-4C09-AAF9-1F947B4CD4FB}" dateTime="2020-01-20T09:32:14" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId60" minRId="365" maxRId="366">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C934B96F-7183-47E6-9895-B94CAE1A0EDC}" dateTime="2020-01-20T09:53:57" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId61" minRId="367" maxRId="368">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E61088C8-E29A-4C62-B3F6-F62EB5DFA665}" dateTime="2020-01-20T09:57:04" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId62" minRId="369" maxRId="372">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F3D6DD9D-96B3-4637-A0B3-61B2C5A4000D}" dateTime="2020-01-20T10:03:36" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId63" minRId="373" maxRId="374">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EAEF3449-BB01-4E73-9D9E-0F491C05443B}" dateTime="2020-01-20T10:09:09" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId64" minRId="375" maxRId="378">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{12830BFB-792D-4FF6-B3AF-16C0E872E13C}" dateTime="2020-01-20T10:11:49" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId65" minRId="379" maxRId="381">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{783A259D-F1C5-40E4-B944-E2C9569BF83B}" dateTime="2020-01-20T10:15:45" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId66" minRId="382" maxRId="396">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1D9EC272-AA7A-4706-BC1C-9BB4430436F0}" dateTime="2020-01-20T10:17:14" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId67" minRId="397" maxRId="402">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3551D06F-4684-4CF0-92EC-A08CE357AD2A}" dateTime="2020-01-20T10:17:20" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId68">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3212106A-76A5-4921-981F-B6B82B741C9B}" dateTime="2020-01-20T10:23:50" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId69" minRId="403">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BE4D8F1E-1F0C-4F5C-B44D-BA98157ED21F}" dateTime="2020-01-20T10:26:13" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId70" minRId="404" maxRId="408">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B567659B-6D34-4289-9CC8-33FC784D52DE}" dateTime="2020-01-20T10:30:22" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId71" minRId="409" maxRId="415">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CD392C11-FF13-4F55-8C9A-34F9BA10AD1D}" dateTime="2020-01-20T10:30:44" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId72" minRId="416">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8649CA3F-9DBF-4A92-BB20-FF5ED3D5932F}" dateTime="2020-01-20T10:33:20" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId73" minRId="417" maxRId="419">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E31037AA-0C96-4590-B774-F3DB72D25121}" dateTime="2020-01-20T10:39:54" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId74" minRId="420" maxRId="422">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7FC13229-663C-48C4-8106-D63D25793997}" dateTime="2020-01-20T10:53:25" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId75" minRId="423" maxRId="427">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AB2E190E-02C0-44EC-9353-50BBAAE35EF9}" dateTime="2020-01-20T11:33:37" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId76" minRId="428" maxRId="429">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -8842,6 +9415,61 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="357" sId="8" eol="1" ref="A43:XFD43" action="insertRow"/>
+  <rcc rId="358" sId="8">
+    <nc r="B43">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcc rId="359" sId="8">
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t>Interfaces cannot have constructors.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="360" sId="8" eol="1" ref="A44:XFD44" action="insertRow"/>
+  <rcc rId="361" sId="8">
+    <nc r="B44">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="362" sId="8">
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t>Like classes in JAVA, interfaces don’t extend Object class by default.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="363" sId="8" xfDxf="1" dxf="1">
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>Interfaces can’t be local members of a method.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="364" sId="8">
+    <nc r="B45">
+      <v>9</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="44" sId="12" xfDxf="1" dxf="1">
@@ -8893,6 +9521,395 @@
         <t>S,U,V etc. - 2nd, 3rd, 4th types</t>
       </is>
     </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="365" sId="8" xfDxf="1" dxf="1">
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>interfaces can be declared as ‘abstract’. But, there is no need to declare like that because interfaces are ‘abstract’ by default.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="366" sId="8">
+    <nc r="B46">
+      <v>10</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="367" sheetId="15" name="[Notes.xlsx]Important points" sheetPosition="8"/>
+  <rcc rId="368" sId="15">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>Abstract classes may or  may not have abstract methods.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="369" sId="15" eol="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="370" sId="15">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <t>Abstract classes must not have a body.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="371" sId="15" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="372" sId="15">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t>When you are extending abstract super class, you need to either specify the class as abstract or inherit the abstract methods from the super class to the sub class.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="373" sId="15" xfDxf="1" dxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>abstract classes can have any number of constructors.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="374" sId="15" xfDxf="1" dxf="1">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>abstract methods can’t be private.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" xfDxf="1" sqref="C8" start="0" length="0"/>
+  <rcc rId="375" sId="15">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Abstract methods can’t be static.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="376" sId="15">
+    <oc r="C7" t="inlineStr">
+      <is>
+        <t>abstract methods can’t be private.</t>
+      </is>
+    </oc>
+    <nc r="C7" t="inlineStr">
+      <is>
+        <t>Abstract methods can’t be private.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="377" sId="15">
+    <oc r="C6" t="inlineStr">
+      <is>
+        <t>abstract classes can have any number of constructors.</t>
+      </is>
+    </oc>
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>Abstract classes can have any number of constructors.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="378" sId="15" xfDxf="1" dxf="1">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>Abstract classes can have static initialization blocks as well as instance initialization blocks.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="379" sId="15" xfDxf="1" dxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Constructors can’t be abstract.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="380" sId="15" xfDxf="1" dxf="1">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Abstract methods can’t be final.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="381" sId="15" xfDxf="1" dxf="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Local inner classes can be abstract.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="382" sId="15" ref="A2:XFD2" action="insertRow"/>
+  <rrc rId="383" sId="15" ref="A2:XFD2" action="insertRow"/>
+  <rrc rId="384" sId="15" ref="A2:XFD2" action="insertRow"/>
+  <rrc rId="385" sId="15" ref="A2:XFD2" action="insertRow"/>
+  <rcc rId="386" sId="15">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Abstract </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" sqref="C5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C5" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="387" sId="15">
+    <nc r="B7">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="388" sId="15">
+    <nc r="B8">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="389" sId="15">
+    <nc r="B9">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="390" sId="15">
+    <nc r="B10">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="391" sId="15">
+    <nc r="B11">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="392" sId="15">
+    <nc r="B12">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="393" sId="15">
+    <nc r="B13">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcc rId="394" sId="15">
+    <nc r="B14">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="395" sId="15">
+    <nc r="B15">
+      <v>9</v>
+    </nc>
+  </rcc>
+  <rcc rId="396" sId="15">
+    <nc r="B16">
+      <v>10</v>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="397" sId="15">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t xml:space="preserve">String </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" sqref="C20" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C20" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="398" sId="15" xfDxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>String is not a keyword in java. String is a final class in java.lang package which is used to represent the set of characters in java.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="399" sId="15">
+    <nc r="B22">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="400" sId="15" xfDxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>String is a derived type.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C24" start="0" length="0"/>
+  <rfmt sheetId="15" sqref="C1:C1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="401" sId="15">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <r>
+          <t>There are two ways to create string objects in java. One is using</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> new operator</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> and another one is using</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> string literal</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>s. The objects created using new operator are stored in the heap memory and objects created using string literals are stored in string constant pool.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C25" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C26" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C27" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C25:C27">
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C25:C27">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="402" sId="15">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>String s1 = new String("abc");          //Creating string object using new operator
+String s2 = "abc";        //Creating string object using string literal</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" sqref="C25" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C25" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="403" sId="15" xfDxf="1" dxf="1">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>String Constant Pool is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
   </rcc>
 </revisions>
 </file>
@@ -8925,6 +9942,364 @@
       <alignment wrapText="1" readingOrder="0"/>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="404" sId="15">
+    <oc r="C27" t="inlineStr">
+      <is>
+        <t>String Constant Pool is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
+      </is>
+    </oc>
+    <nc r="C27" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">String Constant Pool </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="405" sId="15" xfDxf="1" dxf="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>One special thing about string objects is that you can create string objects without using new operator i.e using string literals. This is not possible with other derived types (except wrapper classes).</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="406" sId="15" xfDxf="1" dxf="1">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t> One more special thing about strings is that you can concatenate two string objects using ‘+’. </t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="407" sId="15" xfDxf="1" dxf="1">
+    <nc r="C32" t="inlineStr">
+      <is>
+        <t>Immutable objects are like constants. You can’t modify them once they are created. They are final in nature. Where as mutable objects are concerned, you can perform modifications to them.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="408" sId="15" xfDxf="1" dxf="1">
+    <nc r="C34" t="inlineStr">
+      <is>
+        <t>The objects of String class are immutable in nature. i.e you can’t modify them once they are created. If you try to modify them, a new object will be created with modified content. This may cause memory and performance issues if you are performing lots of string modifications in your code. To overcome these issues, StingBuffer and StringBuilder classes are introduced in java.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="409" sId="15" xfDxf="1" dxf="1">
+    <nc r="C36" t="inlineStr">
+      <is>
+        <t>String object in the string constant pool is called as String Intern. You can create an exact copy of heap memory string object in string constant pool. This process of creating an exact copy of heap memory string object in the string constant pool is called interning. intern() method is used for interning.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="410" sId="15" xfDxf="1" dxf="1">
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t>a) Immutable strings increase security. As they can’t be modified once they are created, so we can use them to store sensitive data like username, password etc.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C39" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="411" sId="15" xfDxf="1" dxf="1">
+    <nc r="C40" t="inlineStr">
+      <is>
+        <t>b) Immutable strings are thread safe. So, we can use them in a multi threaded code without synchronization.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C41" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="412" sId="15" xfDxf="1" dxf="1">
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t>c) String objects are used in class loading. If strings are mutable, it is possible that wrong class is being loaded as mutable objects are modifiable.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C38:C42" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="413" sId="15" xfDxf="1" dxf="1">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>String constant pool increases the reusability of existing string objects</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="414" sId="15" ref="A29:XFD29" action="insertRow"/>
+  <rcc rId="415" sId="15" xfDxf="1" dxf="1">
+    <nc r="C45" t="inlineStr">
+      <is>
+        <t>The main similarity between String and StringBuffer class is that both are thread safe. The main difference between them is that String objects are immutable where as StringBuffer objects are mutable.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="416" sId="15" xfDxf="1" dxf="1">
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t>The main similarity between StringBuffer and StringBuilder class is that both produces mutable string objects. The main difference between them is that StringBuffer class is thread safe where as StringBuilder class is not thread safe.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C45:C47" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="417" sId="15">
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>Enums</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="418" sId="15" xfDxf="1" dxf="1">
+    <nc r="C53" t="inlineStr">
+      <is>
+        <t>Enum types can’t have duplicate constants.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="419" sId="15">
+    <oc r="B22">
+      <v>1</v>
+    </oc>
+    <nc r="B22"/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="420" sId="15" xfDxf="1" dxf="1">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>Enum types can’t extend a class.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="421" sId="15" xfDxf="1" dxf="1">
+    <nc r="C55" t="inlineStr">
+      <is>
+        <t>You can’t declare enum constants with any modifiers. They are public, static and final by default.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="422" sId="15" xfDxf="1" dxf="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t> Enum types can have only private constructors.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" xfDxf="1" sqref="C57" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="423" sId="15">
+    <nc r="C57" t="inlineStr">
+      <is>
+        <t>Enum types can implement any number of interfaces.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="424" sId="15">
+    <nc r="C60" t="inlineStr">
+      <is>
+        <t>Inheritance</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="425" sId="15" xfDxf="1" dxf="1">
+    <nc r="C62" t="inlineStr">
+      <is>
+        <t>In Java, a class can not extend more than one class.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="426" sId="15" xfDxf="1" dxf="1">
+    <nc r="C63" t="inlineStr">
+      <is>
+        <t>A class can not extend itself.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="427" sId="15" xfDxf="1" dxf="1">
+    <nc r="C64" t="inlineStr">
+      <is>
+        <t>Private members are not inherited to sub class.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="428" sId="15" xfDxf="1" dxf="1">
+    <nc r="F3" t="inlineStr">
+      <is>
+        <t>hyperskill.org</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="429" sId="15" xfDxf="1" dxf="1">
+    <nc r="F5" t="inlineStr">
+      <is>
+        <t>https://www.mooc.fi/</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -9582,7 +10957,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{7FC13229-663C-48C4-8106-D63D25793997}" name="SIRISHA AYYAGARI" id="-809064416" dateTime="2020-01-20T09:18:35"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9847,11 +11224,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,12 +11285,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C12" sqref="C12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -9922,7 +11299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -10046,11 +11423,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -10061,11 +11438,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10400,27 +11777,26 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10741,13 +12117,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -10758,11 +12134,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11012,26 +12388,27 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:K75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11383,13 +12760,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -11399,8 +12776,261 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:C64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="87.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C5" s="18" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C20" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="12"/>
+    </row>
+    <row r="41" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C41" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="53"/>
+    </row>
+    <row r="47" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C47" s="53" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C51" s="18" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C60" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C16" sqref="C16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11571,19 +13201,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -11591,7 +13221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11607,11 +13237,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11621,7 +13251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11773,11 +13403,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11788,7 +13418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11840,12 +13470,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11857,7 +13487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11898,11 +13528,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11912,7 +13542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -12102,19 +13732,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -12122,11 +13752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B4:O42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12332,14 +13962,46 @@
         <v>139</v>
       </c>
     </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>443</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A31">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
       <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -12351,7 +14013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -12949,12 +14611,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="486">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -3215,6 +3215,56 @@
   </si>
   <si>
     <t>Private members are not inherited to sub class.</t>
+  </si>
+  <si>
+    <t>hyperskill.org</t>
+  </si>
+  <si>
+    <t>https://www.mooc.fi/</t>
+  </si>
+  <si>
+    <t>Linked Hash Set" - Representing a group of individual objects where duplicates are not allowed but preserved in the insertion order.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hash Set"- Representing a group of individual objects where </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">duplicates are not allowed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> not preserved in the insertion order.</t>
+    </r>
+  </si>
+  <si>
+    <t>ordered and sorted</t>
   </si>
 </sst>
 </file>
@@ -4053,7 +4103,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AB2E190E-02C0-44EC-9353-50BBAAE35EF9}" lastGuid="{7FC13229-663C-48C4-8106-D63D25793997}" diskRevisions="1" revisionId="429" version="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" diskRevisions="1" revisionId="440" version="22">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -5398,6 +5448,63 @@
       <sheetId val="15"/>
     </sheetIdMap>
   </header>
+  <header guid="{C8CA0CD1-EDBB-47A6-B86C-24D4EE9E7BF5}" dateTime="2020-01-21T14:21:24" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId77" minRId="430" maxRId="437">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{053494EF-D893-4FDB-9BA6-00B0F4D6F8DC}" dateTime="2020-01-21T14:32:52" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId78" minRId="438" maxRId="439">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" dateTime="2020-01-21T14:33:11" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId79" minRId="440">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10303,6 +10410,109 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="430" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rrc rId="431" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rrc rId="432" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rrc rId="433" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rrc rId="434" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rrc rId="435" sId="14" ref="A59:XFD59" action="insertRow"/>
+  <rcc rId="436" sId="14" odxf="1" dxf="1">
+    <nc r="G59" t="inlineStr">
+      <is>
+        <t>Hash Set"- Representing a group of individual objects where duplicates are not allowed and not preserved in the insertion order.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" sqref="G61" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="437" sId="14">
+    <nc r="G61" t="inlineStr">
+      <is>
+        <t>Linked Hash Set" - Representing a group of individual objects where duplicates are not allowed but preserved in the insertion order.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="438" sId="14" ref="A72:XFD74" action="insertRow"/>
+  <rcc rId="439" sId="14">
+    <oc r="G59" t="inlineStr">
+      <is>
+        <t>Hash Set"- Representing a group of individual objects where duplicates are not allowed and not preserved in the insertion order.</t>
+      </is>
+    </oc>
+    <nc r="G59" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Hash Set"- Representing a group of individual objects where </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">duplicates are not allowed </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>and</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FFFF0000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> not preserved in the insertion order.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="440" sId="14">
+    <nc r="G73" t="inlineStr">
+      <is>
+        <t>ordered and sorted</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="54" sId="12">
@@ -10958,7 +11168,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7FC13229-663C-48C4-8106-D63D25793997}" name="SIRISHA AYYAGARI" id="-809064416" dateTime="2020-01-20T09:18:35"/>
+  <userInfo guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" name="SIRISHA AYYAGARI" id="-809053894" dateTime="2020-01-21T09:14:25"/>
 </users>
 </file>
 
@@ -11285,12 +11495,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11423,11 +11633,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11777,14 +11987,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12117,13 +12327,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -12137,7 +12347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -12388,14 +12598,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12405,10 +12615,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:K75"/>
+  <dimension ref="E3:K84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12669,104 +12879,119 @@
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E59">
+    <row r="59" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G59" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="G61" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="5:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E65">
         <v>4</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G60" s="1" t="s">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E62">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E68">
         <v>5</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G63" s="1" t="s">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="64" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="G64" s="1" t="s">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G65" s="1" t="s">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="67" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E67">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76">
         <v>6</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G68" s="1" t="s">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="69" spans="5:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="G69" s="1" t="s">
+    <row r="78" spans="5:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="G78" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="71" spans="5:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="E71">
+    <row r="80" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E80">
         <v>7</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G72" s="12" t="s">
+    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="73" spans="5:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="G73" s="1" t="s">
+    <row r="82" spans="5:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E84">
         <v>8</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>438</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -12778,10 +13003,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C64"/>
+  <dimension ref="B3:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12789,12 +13014,20 @@
     <col min="3" max="3" width="87.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C5" s="18" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -12802,7 +13035,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2</v>
       </c>
@@ -12810,7 +13043,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>3</v>
       </c>
@@ -12818,7 +13051,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>4</v>
       </c>
@@ -12826,7 +13059,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>5</v>
       </c>
@@ -12834,7 +13067,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>6</v>
       </c>
@@ -12842,7 +13075,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>7</v>
       </c>
@@ -12850,7 +13083,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>8</v>
       </c>
@@ -12858,7 +13091,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>9</v>
       </c>
@@ -12866,7 +13099,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>10</v>
       </c>
@@ -13201,12 +13434,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13237,11 +13470,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13403,11 +13636,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13470,12 +13703,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13528,11 +13761,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13732,12 +13965,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13996,13 +14229,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -14611,12 +14844,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{B64920B1-34DF-4877-B86F-D8E15ECF2604}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -28,9 +29,9 @@
     <sheet name="Collections" sheetId="14" r:id="rId14"/>
     <sheet name="Important points" sheetId="15" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="15"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
@@ -48,12 +49,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
+    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
+    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="495">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -3266,13 +3267,40 @@
   <si>
     <t>ordered and sorted</t>
   </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>you can’t refer a non static field inside a static initialization block.</t>
+  </si>
+  <si>
+    <t> Static Initialization Blocks can not be nested.</t>
+  </si>
+  <si>
+    <t>declaring a static variable is also a static code block</t>
+  </si>
+  <si>
+    <t>SIB – Static Initialization Block, is the first block to be executed after class is loaded in the memory. This block is mainly used to initialize static members of a class.IIB – Instance Initialization Block, is executed while instantiating a class. This block is executed each time you create an object to the class. This block is mainly used to initialize instance members of a class.</t>
+  </si>
+  <si>
+    <t>A a;</t>
+  </si>
+  <si>
+    <t>A a1 = new A();</t>
+  </si>
+  <si>
+    <t>A a2 = new A();</t>
+  </si>
+  <si>
+    <t>SIB----IIB---CCB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -3578,7 +3606,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4103,7 +4131,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" diskRevisions="1" revisionId="440" version="22">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CCBF64D5-580C-4F51-8C8B-465DC665D365}" diskRevisions="1" revisionId="459" version="25">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -5505,6 +5533,63 @@
       <sheetId val="15"/>
     </sheetIdMap>
   </header>
+  <header guid="{3CF915F9-E625-44BF-A192-3B08475ABFAB}" dateTime="2020-01-22T22:55:15" maxSheetId="16" userName="kalyan chavali" r:id="rId80" minRId="441" maxRId="445">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B858E786-A3E2-41EE-957F-5DC2D7077806}" dateTime="2020-01-22T23:03:15" maxSheetId="16" userName="kalyan chavali" r:id="rId81" minRId="446" maxRId="455">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{CCBF64D5-580C-4F51-8C8B-465DC665D365}" dateTime="2020-01-22T23:26:54" maxSheetId="16" userName="kalyan chavali" r:id="rId82" minRId="456" maxRId="459">
+    <sheetIdMap count="15">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10677,6 +10762,140 @@
   </rfmt>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="441" sId="15">
+    <nc r="C71" t="inlineStr">
+      <is>
+        <t>Static</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" sqref="C71" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C71" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C71" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C71" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C71" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="442" sId="15" xfDxf="1" dxf="1">
+    <nc r="C72" t="inlineStr">
+      <is>
+        <t>you can’t refer a non static field inside a static initialization block.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="443" sId="15" xfDxf="1" dxf="1">
+    <nc r="C73" t="inlineStr">
+      <is>
+        <t> Static Initialization Blocks can not be nested.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="444" sId="15" eol="1" ref="A74:XFD74" action="insertRow"/>
+  <rcc rId="445" sId="15">
+    <nc r="C74" t="inlineStr">
+      <is>
+        <t>declaring a static variable is also a static code block</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="446" sId="15" eol="1" ref="A69:XFD69" action="insertRow"/>
+  <rrc rId="447" sId="15" eol="1" ref="A70:XFD70" action="insertRow"/>
+  <rrc rId="448" sId="15" eol="1" ref="A71:XFD71" action="insertRow"/>
+  <rcc rId="449" sId="15" xfDxf="1" dxf="1">
+    <nc r="C78" t="inlineStr">
+      <is>
+        <t>SIB – Static Initialization Block, is the first block to be executed after class is loaded in the memory. This block is mainly used to initialize static members of a class.IIB – Instance Initialization Block, is executed while instantiating a class. This block is executed each time you create an object to the class. This block is mainly used to initialize instance members of a class.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="450" sId="15">
+    <nc r="C80" t="inlineStr">
+      <is>
+        <t>A a;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="451" sId="15" eol="1" ref="A81:XFD81" action="insertRow"/>
+  <rcc rId="452" sId="15">
+    <nc r="C81" t="inlineStr">
+      <is>
+        <t>A a1 = new A();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="453" sId="15" eol="1" ref="A82:XFD82" action="insertRow"/>
+  <rcc rId="454" sId="15">
+    <nc r="C82" t="inlineStr">
+      <is>
+        <t>A a2 = new A();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="455" sId="15">
+    <nc r="C84" t="inlineStr">
+      <is>
+        <t>SIB----IIB---CCB</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="456" sId="15" eol="1" ref="A85:XFD85" action="insertRow"/>
+  <rrc rId="457" sId="15" eol="1" ref="A86:XFD86" action="insertRow"/>
+  <rrc rId="458" sId="15" eol="1" ref="A87:XFD87" action="insertRow"/>
+  <rrc rId="459" sId="15" eol="1" ref="A88:XFD88" action="insertRow"/>
 </revisions>
 </file>
 
@@ -11434,11 +11653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11509,7 +11728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C2:J49"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -11648,11 +11867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11998,15 +12217,16 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12344,11 +12564,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12609,16 +12829,15 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="E3:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13002,11 +13221,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="B3:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13251,19 +13470,74 @@
         <v>480</v>
       </c>
     </row>
+    <row r="74" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C74" s="18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A56">
+      <selection activeCell="C75" sqref="C75"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C16" sqref="C16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13446,7 +13720,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -13454,7 +13728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13484,7 +13758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13651,7 +13925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13720,7 +13994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C4:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13775,7 +14049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -13977,7 +14251,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
+    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -13985,11 +14259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14246,7 +14520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C5:F122"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -4103,7 +4103,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" diskRevisions="1" revisionId="440" version="22">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{267EAB5A-0784-4FFD-927C-D58BF2C55C37}" lastGuid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" diskRevisions="1" revisionId="441" version="22">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -5505,6 +5505,26 @@
       <sheetId val="15"/>
     </sheetIdMap>
   </header>
+  <header guid="{267EAB5A-0784-4FFD-927C-D58BF2C55C37}" dateTime="2020-01-23T12:03:09" maxSheetId="17" userName="SIRISHA AYYAGARI" r:id="rId80" minRId="441">
+    <sheetIdMap count="16">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10680,6 +10700,12 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="441" sheetId="16" name="[Notes.xlsx]Sheet1" sheetPosition="15"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="73" sId="12" xfDxf="1" dxf="1">
@@ -11168,7 +11194,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" name="SIRISHA AYYAGARI" id="-809053894" dateTime="2020-01-21T09:14:25"/>
+  <userInfo guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" name="SIRISHA AYYAGARI" id="-809080477" dateTime="2020-01-23T11:48:08"/>
 </users>
 </file>
 

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -27,11 +27,12 @@
     <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
     <sheet name="Collections" sheetId="14" r:id="rId14"/>
     <sheet name="Important points" sheetId="15" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -11192,10 +11193,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" name="SIRISHA AYYAGARI" id="-809080477" dateTime="2020-01-23T11:48:08"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11521,12 +11520,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C12" sqref="C12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11659,11 +11658,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -12013,14 +12012,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12353,13 +12352,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -12373,7 +12372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -12624,14 +12623,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12643,8 +12642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13011,13 +13010,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -13031,8 +13030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13284,6 +13283,18 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13460,12 +13471,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13496,11 +13507,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13662,11 +13673,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13729,12 +13740,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -13787,11 +13798,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -13991,12 +14002,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -14015,7 +14026,7 @@
   <dimension ref="B4:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14255,13 +14266,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -14870,12 +14881,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -28,6 +28,7 @@
     <sheet name="Collections" sheetId="14" r:id="rId14"/>
     <sheet name="Important points" sheetId="15" r:id="rId15"/>
     <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
+    <sheet name="Sheet1 (2)" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="620">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -3267,6 +3268,525 @@
   <si>
     <t>ordered and sorted</t>
   </si>
+  <si>
+    <t>JAVA Syntax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Each code </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must end with a semicolon.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments can be used to explain Java code, and to make it more readable. </t>
+  </si>
+  <si>
+    <t>All Java variables must be identified with unique names.</t>
+  </si>
+  <si>
+    <r>
+      <t>These unique names are called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>identifiers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Names can contain letters, digits, underscores, and dollar signs</t>
+  </si>
+  <si>
+    <t>Names must begin with a letter</t>
+  </si>
+  <si>
+    <t>Names should start with a lowercase letter and it cannot contain whitespace</t>
+  </si>
+  <si>
+    <t>Names can also begin with $ and _ (but we will not use it in this tutorial)</t>
+  </si>
+  <si>
+    <t>Names are case sensitive ("myVar" and "myvar" are different variables)</t>
+  </si>
+  <si>
+    <t>Reserved words (like Java keywords, such as int or boolean) cannot be used as names</t>
+  </si>
+  <si>
+    <t>Primitive data types - includes byte, short, int, long, float, double, boolean and char</t>
+  </si>
+  <si>
+    <t>Non-primitive data types - such as String, Arrays and Classes</t>
+  </si>
+  <si>
+    <t>Java Data Types</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>Stores whole numbers from -128 to 127</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>2 bytes</t>
+  </si>
+  <si>
+    <t>Stores whole numbers from -32,768 to 32,767</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>4 bytes</t>
+  </si>
+  <si>
+    <t>Stores whole numbers from -2,147,483,648 to 2,147,483,647</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>8 bytes</t>
+  </si>
+  <si>
+    <t>Stores whole numbers from -9,223,372,036,854,775,808 to 9,223,372,036,854,775,807</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Stores fractional numbers. Sufficient for storing 6 to 7 decimal digits</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Stores fractional numbers. Sufficient for storing 15 decimal digits</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>1 bit</t>
+  </si>
+  <si>
+    <t>Stores true or false values</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>Stores a single character/letter or ASCII values</t>
+  </si>
+  <si>
+    <t>Primitive number types are divided into two groups:</t>
+  </si>
+  <si>
+    <t>Integer types</t>
+  </si>
+  <si>
+    <t>Floating point types</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> stores whole numbers, positive or negative (such as 123 or -456), without decimals. Valid types are byte, short, int and long. Which type you should use, depends on the numeric value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Floating point types</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> represents numbers with a fractional part, containing one or more decimals. There are two types: float and double.</t>
+    </r>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>The char data type is used to store a single character. The character must be surrounded by single quotes, like 'A' or 'c':</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>char myGrade = 'B';</t>
+  </si>
+  <si>
+    <t>System.out.println(myGrade);</t>
+  </si>
+  <si>
+    <t>Alternatively, you can use ASCII values to display certain characters:</t>
+  </si>
+  <si>
+    <t>char a = 65, b = 66, c = 67;</t>
+  </si>
+  <si>
+    <t>System.out.println(a);</t>
+  </si>
+  <si>
+    <t>System.out.println(b);</t>
+  </si>
+  <si>
+    <t>System.out.println(c);</t>
+  </si>
+  <si>
+    <t>Non-Primitive Data Types</t>
+  </si>
+  <si>
+    <t>Non-primitive data types are called reference types because they refer to objects.</t>
+  </si>
+  <si>
+    <t>The main difference between primitive and non-primitive data types are:</t>
+  </si>
+  <si>
+    <t>Primitive types are predefined (already defined) in Java. Non-primitive types are created by the programmer and is not defined by Java (except for String).</t>
+  </si>
+  <si>
+    <t>Non-primitive types can be used to call methods to perform certain operations, while primitive types cannot.</t>
+  </si>
+  <si>
+    <t>A primitive type has always a value, while non-primitive types can be null.</t>
+  </si>
+  <si>
+    <t>A primitive type starts with a lowercase letter, while non-primitive types starts with an uppercase letter.</t>
+  </si>
+  <si>
+    <t>The size of a primitive type depends on the data type, while non-primitive types have all the same size.</t>
+  </si>
+  <si>
+    <t>Examples of non-primitive types are Strings, Arrays, Classes, Interface, etc. </t>
+  </si>
+  <si>
+    <t>Java Type Casting</t>
+  </si>
+  <si>
+    <t>Type casting is when you assign a value of one primitive data type to another type.</t>
+  </si>
+  <si>
+    <t>In Java, there are two types of casting:</t>
+  </si>
+  <si>
+    <t>byte -&gt; short -&gt; char -&gt; int -&gt; long -&gt; float -&gt; double</t>
+  </si>
+  <si>
+    <t>double -&gt; float -&gt; long -&gt; int -&gt; char -&gt; short -&gt; byte</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Widening Casting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (automatically) - converting a smaller type to a larger type size</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Narrowing Casting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (manually) - converting a larger type to a smaller size type</t>
+    </r>
+  </si>
+  <si>
+    <t>Java Operators</t>
+  </si>
+  <si>
+    <t>Java divides the operators into the following groups:</t>
+  </si>
+  <si>
+    <t>Arithmetic operators</t>
+  </si>
+  <si>
+    <t>Assignment operators</t>
+  </si>
+  <si>
+    <t>Comparison operators</t>
+  </si>
+  <si>
+    <t>Logical operators</t>
+  </si>
+  <si>
+    <t>Bitwise operators</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>+,-,*,/,%,++,--</t>
+  </si>
+  <si>
+    <t>=.+=,-=,*=,/=,%=,&amp;=,|=,^=,&gt;&gt;=,&lt;&lt;=</t>
+  </si>
+  <si>
+    <t>==,!=,&gt;,&lt;,&gt;=,&lt;=</t>
+  </si>
+  <si>
+    <t>&amp;&amp;,|| ,!</t>
+  </si>
+  <si>
+    <t>JAVA Strings</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>\n</t>
+  </si>
+  <si>
+    <t>New Line</t>
+  </si>
+  <si>
+    <t>\r</t>
+  </si>
+  <si>
+    <t>Carriage Return</t>
+  </si>
+  <si>
+    <t>\t</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>\b</t>
+  </si>
+  <si>
+    <t>Backspace</t>
+  </si>
+  <si>
+    <t>\f</t>
+  </si>
+  <si>
+    <t>Form Feed</t>
+  </si>
+  <si>
+    <t>String Length</t>
+  </si>
+  <si>
+    <t>length()</t>
+  </si>
+  <si>
+    <t>toUpperCase(), toLowerCase()</t>
+  </si>
+  <si>
+    <t>index()</t>
+  </si>
+  <si>
+    <t>Finding a Character in a String</t>
+  </si>
+  <si>
+    <t>More String Methods</t>
+  </si>
+  <si>
+    <t>String Concatenation</t>
+  </si>
+  <si>
+    <t>Special Characters
+The backslash (\) escape character turns special characters into string characters:</t>
+  </si>
+  <si>
+    <t>Escape character</t>
+  </si>
+  <si>
+    <t>\'</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>Single quote</t>
+  </si>
+  <si>
+    <t>\"</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>Double quote</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>Backslash</t>
+  </si>
+  <si>
+    <t>hba</t>
+  </si>
+  <si>
+    <t>Six other escape sequences are valid in Java:</t>
+  </si>
+  <si>
+    <t>Java Math</t>
+  </si>
+  <si>
+    <t>The Java Math class has many methods that allows you to perform mathematical tasks on numbers.</t>
+  </si>
+  <si>
+    <t>Math.max(x,y)</t>
+  </si>
+  <si>
+    <t>The Math.max(x,y) method can be used to find the highest value of x and y:</t>
+  </si>
+  <si>
+    <t>Math.min(x,y)</t>
+  </si>
+  <si>
+    <t>The Math.min(x,y) method can be used to find the lowest value of of x and y:</t>
+  </si>
+  <si>
+    <t>Math.sqrt(x)</t>
+  </si>
+  <si>
+    <t>The Math.sqrt(x) method returns the square root of x:</t>
+  </si>
+  <si>
+    <t>Math.abs(x)</t>
+  </si>
+  <si>
+    <t>The Math.abs(x) method returns the absolute (positive) value of x:</t>
+  </si>
+  <si>
+    <t>Math.random()</t>
+  </si>
+  <si>
+    <t>Math.random() returns a random number between 0 (inclusive), and 1 (exclusive):</t>
+  </si>
+  <si>
+    <t>Java Booleans</t>
+  </si>
+  <si>
+    <t>Very often, in programming, you will need a data type that can only have one of two values, like:</t>
+  </si>
+  <si>
+    <t>YES / NO</t>
+  </si>
+  <si>
+    <t>ON / OFF</t>
+  </si>
+  <si>
+    <t>TRUE / FALSE</t>
+  </si>
+  <si>
+    <t>For this, Java has a boolean data type, which can take the values true or false.</t>
+  </si>
+  <si>
+    <t>Boolean Values</t>
+  </si>
+  <si>
+    <t>A boolean type is declared with the boolean keyword and can only take the values true or false:</t>
+  </si>
 </sst>
 </file>
 
@@ -3275,7 +3795,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3461,8 +3981,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3487,8 +4015,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3576,12 +4110,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3694,6 +4280,44 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4104,7 +4728,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{267EAB5A-0784-4FFD-927C-D58BF2C55C37}" lastGuid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" diskRevisions="1" revisionId="441" version="22">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4AFE597C-B662-43B9-9442-027B52B65434}" diskRevisions="1" revisionId="591" version="26">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -5526,6 +6150,174 @@
       <sheetId val="16"/>
     </sheetIdMap>
   </header>
+  <header guid="{4E5BEA1C-670B-461C-B13D-48FC784813E1}" dateTime="2020-01-28T10:58:52" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId81" minRId="442" maxRId="454">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{EBB1576A-ACC7-4E13-8A4A-ED016D75C9BE}" dateTime="2020-01-28T11:07:15" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId82" minRId="455" maxRId="503">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F649068D-B129-4CCD-9863-736291270083}" dateTime="2020-01-28T11:09:56" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId83" minRId="504" maxRId="512">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{70969B0D-0B5E-4352-B217-ED342D039277}" dateTime="2020-01-28T11:13:53" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId84" minRId="513" maxRId="519">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{28B8D64D-2A02-4AD0-B6D2-C4666359B427}" dateTime="2020-01-28T11:28:54" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId85" minRId="520" maxRId="530">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4C40FC8A-5CCD-494D-978D-528EF99A71ED}" dateTime="2020-01-28T13:12:17" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId86" minRId="531" maxRId="566">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BB21B1BB-02DF-4724-85E8-547B2AAC408E}" dateTime="2020-01-28T13:13:15" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId87" minRId="567" maxRId="571">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4AFE597C-B662-43B9-9442-027B52B65434}" dateTime="2020-01-28T13:25:31" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId88" minRId="572" maxRId="591">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10707,6 +11499,2464 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog81.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="442" sId="15" ref="A2:XFD35" action="insertRow"/>
+  <rcc rId="443" sId="15">
+    <nc r="C3" t="inlineStr">
+      <is>
+        <t>JAVA Syntax</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" sqref="C3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C4" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="444" sId="15">
+    <nc r="C4" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Each code </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>statement</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> must end with a semicolon.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C5" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="445" sId="15">
+    <nc r="C5" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Comments can be used to explain Java code, and to make it more readable. </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="446" sId="15" xfDxf="1" dxf="1">
+    <nc r="C6" t="inlineStr">
+      <is>
+        <t>All Java variables must be identified with unique names.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C7" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C8" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rm rId="447" sheetId="15" source="C8" destination="C7" sourceSheetId="15">
+    <rfmt sheetId="15" sqref="C7" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="448" sId="15">
+    <nc r="C7" t="inlineStr">
+      <is>
+        <r>
+          <t>These unique names are called </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>identifiers.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="449" sId="15" xfDxf="1" dxf="1">
+    <nc r="C8" t="inlineStr">
+      <is>
+        <t>Names can contain letters, digits, underscores, and dollar signs</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="450" sId="15" xfDxf="1" dxf="1">
+    <nc r="C9" t="inlineStr">
+      <is>
+        <t>Names must begin with a letter</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="451" sId="15" xfDxf="1" dxf="1">
+    <nc r="C10" t="inlineStr">
+      <is>
+        <t>Names should start with a lowercase letter and it cannot contain whitespace</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="452" sId="15" xfDxf="1" dxf="1">
+    <nc r="C11" t="inlineStr">
+      <is>
+        <t>Names can also begin with $ and _ (but we will not use it in this tutorial)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="453" sId="15" xfDxf="1" dxf="1">
+    <nc r="C12" t="inlineStr">
+      <is>
+        <t>Names are case sensitive ("myVar" and "myvar" are different variables)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="454" sId="15" xfDxf="1" dxf="1">
+    <nc r="C13" t="inlineStr">
+      <is>
+        <t>Reserved words (like Java keywords, such as int or boolean) cannot be used as names</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog82.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="455" sId="15" xfDxf="1" dxf="1">
+    <nc r="C15" t="inlineStr">
+      <is>
+        <t>Primitive data types - includes byte, short, int, long, float, double, boolean and char</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="456" sId="15" xfDxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Non-primitive data types - such as String, Arrays and Classes</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="457" sId="15" ref="A15:XFD18" action="insertRow"/>
+  <rcc rId="458" sId="15" xfDxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>Java Data Types</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="459" sId="15" xfDxf="1" dxf="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>Data Type</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="460" sId="15" xfDxf="1" dxf="1">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>Size</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="461" sId="15" xfDxf="1" dxf="1">
+    <nc r="E21" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="462" sId="15" xfDxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>byte</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="463" sId="15" xfDxf="1" dxf="1">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>1 byte</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="464" sId="15" xfDxf="1" dxf="1">
+    <nc r="E22" t="inlineStr">
+      <is>
+        <t>Stores whole numbers from -128 to 127</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="465" sId="15" xfDxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>short</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="466" sId="15" xfDxf="1" dxf="1">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>2 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="467" sId="15" xfDxf="1" dxf="1">
+    <nc r="E23" t="inlineStr">
+      <is>
+        <t>Stores whole numbers from -32,768 to 32,767</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="468" sId="15" xfDxf="1" dxf="1">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>int</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="469" sId="15" xfDxf="1" dxf="1">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>4 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="470" sId="15" xfDxf="1" dxf="1">
+    <nc r="E24" t="inlineStr">
+      <is>
+        <t>Stores whole numbers from -2,147,483,648 to 2,147,483,647</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="471" sId="15" xfDxf="1" dxf="1">
+    <nc r="C25" t="inlineStr">
+      <is>
+        <t>long</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="472" sId="15" xfDxf="1" dxf="1">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>8 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="473" sId="15" xfDxf="1" dxf="1">
+    <nc r="E25" t="inlineStr">
+      <is>
+        <t>Stores whole numbers from -9,223,372,036,854,775,808 to 9,223,372,036,854,775,807</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="474" sId="15" xfDxf="1" dxf="1">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <t>float</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="475" sId="15" xfDxf="1" dxf="1">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>4 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="476" sId="15" xfDxf="1" dxf="1">
+    <nc r="E26" t="inlineStr">
+      <is>
+        <t>Stores fractional numbers. Sufficient for storing 6 to 7 decimal digits</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="477" sId="15" xfDxf="1" dxf="1">
+    <nc r="C27" t="inlineStr">
+      <is>
+        <t>double</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="478" sId="15" xfDxf="1" dxf="1">
+    <nc r="D27" t="inlineStr">
+      <is>
+        <t>8 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="479" sId="15" xfDxf="1" dxf="1">
+    <nc r="E27" t="inlineStr">
+      <is>
+        <t>Stores fractional numbers. Sufficient for storing 15 decimal digits</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="480" sId="15" xfDxf="1" dxf="1">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <t>boolean</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="481" sId="15" xfDxf="1" dxf="1">
+    <nc r="D28" t="inlineStr">
+      <is>
+        <t>1 bit</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="482" sId="15" xfDxf="1" dxf="1">
+    <nc r="E28" t="inlineStr">
+      <is>
+        <t>Stores true or false values</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="483" sId="15" xfDxf="1" dxf="1">
+    <nc r="C29" t="inlineStr">
+      <is>
+        <t>char</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="484" sId="15" xfDxf="1" dxf="1">
+    <nc r="D29" t="inlineStr">
+      <is>
+        <t>2 bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="485" sId="15" xfDxf="1" dxf="1">
+    <nc r="E29" t="inlineStr">
+      <is>
+        <t>Stores a single character/letter or ASCII values</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="486" sheetId="15" source="C21:G29" destination="D19:H27" sourceSheetId="15"/>
+  <rfmt sheetId="15" sqref="D19:F27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D19:F19" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D19:D27" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D19:F19" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="F19:F27" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D27:F27" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D19:F27">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="487" sId="15" xfDxf="1" dxf="1">
+    <nc r="C22" t="inlineStr">
+      <is>
+        <t>Primitive number types are divided into two groups:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="488" sId="15" xfDxf="1" dxf="1">
+    <nc r="C23" t="inlineStr">
+      <is>
+        <t>Integer types</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="489" sId="15" xfDxf="1" dxf="1">
+    <nc r="C24" t="inlineStr">
+      <is>
+        <t>Floating point types</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C26" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C27" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C28" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="490" sId="15">
+    <nc r="C26" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Integer types</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> stores whole numbers, positive or negative (such as 123 or -456), without decimals. Valid types are byte, short, int and long. Which type you should use, depends on the numeric value.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="491" sId="15">
+    <nc r="C28" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Floating point types</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> represents numbers with a fractional part, containing one or more decimals. There are two types: float and double.</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="492" sId="15" ref="A34:XFD134" action="insertRow"/>
+  <rcc rId="493" sId="15" xfDxf="1" dxf="1">
+    <nc r="C31" t="inlineStr">
+      <is>
+        <t>Characters</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C32" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="494" sId="15" xfDxf="1" dxf="1">
+    <nc r="C33" t="inlineStr">
+      <is>
+        <t>The char data type is used to store a single character. The character must be surrounded by single quotes, like 'A' or 'c':</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C34" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="495" sId="15" xfDxf="1" dxf="1">
+    <nc r="C35" t="inlineStr">
+      <is>
+        <t>Example</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C36" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="496" sId="15" xfDxf="1" dxf="1">
+    <nc r="C37" t="inlineStr">
+      <is>
+        <t>char myGrade = 'B';</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="497" sId="15" xfDxf="1" dxf="1">
+    <nc r="C38" t="inlineStr">
+      <is>
+        <t>System.out.println(myGrade);</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C39" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C40" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C41" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="498" sId="15" xfDxf="1" dxf="1">
+    <nc r="C42" t="inlineStr">
+      <is>
+        <t>Alternatively, you can use ASCII values to display certain characters:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C43" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="499" sId="15" xfDxf="1" dxf="1">
+    <nc r="C44" t="inlineStr">
+      <is>
+        <t>Example</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C45" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="500" sId="15" xfDxf="1" dxf="1">
+    <nc r="C46" t="inlineStr">
+      <is>
+        <t>char a = 65, b = 66, c = 67;</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="501" sId="15" xfDxf="1" dxf="1">
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t>System.out.println(a);</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="502" sId="15" xfDxf="1" dxf="1">
+    <nc r="C48" t="inlineStr">
+      <is>
+        <t>System.out.println(b);</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="503" sId="15" xfDxf="1" dxf="1">
+    <nc r="C49" t="inlineStr">
+      <is>
+        <t>System.out.println(c);</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C50" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C51" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C31" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C42" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C33" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C31:C49" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C31" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C31:C49" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C49" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C31:C49">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog83.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="504" sId="15" xfDxf="1" dxf="1">
+    <nc r="C52" t="inlineStr">
+      <is>
+        <t>Non-Primitive Data Types</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C53" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="505" sId="15" xfDxf="1" dxf="1">
+    <nc r="C54" t="inlineStr">
+      <is>
+        <t>Non-primitive data types are called reference types because they refer to objects.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C55" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="506" sId="15" xfDxf="1" dxf="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>The main difference between primitive and non-primitive data types are:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C57" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="507" sId="15" xfDxf="1" dxf="1">
+    <nc r="C58" t="inlineStr">
+      <is>
+        <t>Primitive types are predefined (already defined) in Java. Non-primitive types are created by the programmer and is not defined by Java (except for String).</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="508" sId="15" xfDxf="1" dxf="1">
+    <nc r="C59" t="inlineStr">
+      <is>
+        <t>Non-primitive types can be used to call methods to perform certain operations, while primitive types cannot.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="509" sId="15" xfDxf="1" dxf="1">
+    <nc r="C60" t="inlineStr">
+      <is>
+        <t>A primitive type has always a value, while non-primitive types can be null.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="510" sId="15" xfDxf="1" dxf="1">
+    <nc r="C61" t="inlineStr">
+      <is>
+        <t>A primitive type starts with a lowercase letter, while non-primitive types starts with an uppercase letter.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="511" sId="15" xfDxf="1" dxf="1">
+    <nc r="C62" t="inlineStr">
+      <is>
+        <t>The size of a primitive type depends on the data type, while non-primitive types have all the same size.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C63" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="512" sId="15" xfDxf="1" dxf="1">
+    <nc r="C64" t="inlineStr">
+      <is>
+        <t>Examples of non-primitive types are Strings, Arrays, Classes, Interface, etc. </t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C52" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C56" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C64" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C64" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C52:C64">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C52:C64" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C52" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C52:C64" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C58" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C58:C64">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog84.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" sqref="C3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C3" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="513" sId="15" xfDxf="1" dxf="1">
+    <nc r="C67" t="inlineStr">
+      <is>
+        <t>Java Type Casting</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C68" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="514" sId="15" xfDxf="1" dxf="1">
+    <nc r="C69" t="inlineStr">
+      <is>
+        <t>Type casting is when you assign a value of one primitive data type to another type.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C70" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="515" sId="15" xfDxf="1" dxf="1">
+    <nc r="C71" t="inlineStr">
+      <is>
+        <t>In Java, there are two types of casting:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C72" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C73" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="516" sId="15" xfDxf="1" dxf="1">
+    <nc r="C74" t="inlineStr">
+      <is>
+        <t>byte -&gt; short -&gt; char -&gt; int -&gt; long -&gt; float -&gt; double</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C75" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C76" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="517" sId="15" xfDxf="1" dxf="1">
+    <nc r="C77" t="inlineStr">
+      <is>
+        <t>double -&gt; float -&gt; long -&gt; int -&gt; char -&gt; short -&gt; byte</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="10"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="11"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C67" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="518" sId="15">
+    <nc r="C73" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Widening Casting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> (automatically) - converting a smaller type to a larger type size</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="519" sId="15">
+    <nc r="C76" t="inlineStr">
+      <is>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Narrowing Casting</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t> (manually) - converting a larger type to a smaller size type</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog85.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" sqref="C80" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="520" sId="15">
+    <nc r="C80" t="inlineStr">
+      <is>
+        <t>Java Operators</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="521" sId="15" xfDxf="1" dxf="1">
+    <nc r="C81" t="inlineStr">
+      <is>
+        <t>Java divides the operators into the following groups:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C82" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="522" sId="15" xfDxf="1" dxf="1">
+    <nc r="C83" t="inlineStr">
+      <is>
+        <t>Arithmetic operators</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="523" sId="15" xfDxf="1" dxf="1">
+    <nc r="C84" t="inlineStr">
+      <is>
+        <t>Assignment operators</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="524" sId="15" xfDxf="1" dxf="1">
+    <nc r="C85" t="inlineStr">
+      <is>
+        <t>Comparison operators</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="525" sId="15" xfDxf="1" dxf="1">
+    <nc r="C86" t="inlineStr">
+      <is>
+        <t>Logical operators</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="526" sId="15" xfDxf="1" dxf="1">
+    <nc r="C87" t="inlineStr">
+      <is>
+        <t>Bitwise operators</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="D83" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E83" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F83" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G83" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H83" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D84" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E84" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F84" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G84" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H84" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D85" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E85" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F85" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G85" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H85" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D86" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E86" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F86" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G86" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H86" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D87" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E87" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F87" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G87" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H87" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D88" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E88" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F88" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G88" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H88" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="D89" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="E89" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="F89" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="G89" start="0" length="0"/>
+  <rfmt sheetId="15" xfDxf="1" sqref="H89" start="0" length="0"/>
+  <rcc rId="527" sId="15" odxf="1" quotePrefix="1">
+    <nc r="D83" t="inlineStr">
+      <is>
+        <t>+,-,*,/,%,++,--</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="528" sId="15" quotePrefix="1">
+    <nc r="D84" t="inlineStr">
+      <is>
+        <t>=.+=,-=,*=,/=,%=,&amp;=,|=,^=,&gt;&gt;=,&lt;&lt;=</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="D85" start="0" length="0"/>
+  <rcc rId="529" sId="15" odxf="1" quotePrefix="1">
+    <nc r="D85" t="inlineStr">
+      <is>
+        <t>==,!=,&gt;,&lt;,&gt;=,&lt;=</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="D86" start="0" length="0"/>
+  <rcc rId="530" sId="15" odxf="1" quotePrefix="1">
+    <nc r="D86" t="inlineStr">
+      <is>
+        <t>&amp;&amp;,|| ,!</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog86.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="531" sId="15" xfDxf="1" dxf="1">
+    <nc r="C91" t="inlineStr">
+      <is>
+        <t>Code</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="532" sId="15" xfDxf="1" dxf="1">
+    <nc r="D91" t="inlineStr">
+      <is>
+        <t>Result</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E91" start="0" length="0"/>
+  <rcc rId="533" sId="15" xfDxf="1" dxf="1">
+    <nc r="C92" t="inlineStr">
+      <is>
+        <t>\n</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="534" sId="15" xfDxf="1" dxf="1">
+    <nc r="D92" t="inlineStr">
+      <is>
+        <t>New Line</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E92" start="0" length="0"/>
+  <rcc rId="535" sId="15" xfDxf="1" dxf="1">
+    <nc r="C93" t="inlineStr">
+      <is>
+        <t>\r</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="536" sId="15" xfDxf="1" dxf="1">
+    <nc r="D93" t="inlineStr">
+      <is>
+        <t>Carriage Return</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E93" start="0" length="0"/>
+  <rcc rId="537" sId="15" xfDxf="1" dxf="1">
+    <nc r="C94" t="inlineStr">
+      <is>
+        <t>\t</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="538" sId="15" xfDxf="1" dxf="1">
+    <nc r="D94" t="inlineStr">
+      <is>
+        <t>Tab</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E94" start="0" length="0"/>
+  <rcc rId="539" sId="15" xfDxf="1" dxf="1">
+    <nc r="C95" t="inlineStr">
+      <is>
+        <t>\b</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="540" sId="15" xfDxf="1" dxf="1">
+    <nc r="D95" t="inlineStr">
+      <is>
+        <t>Backspace</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E95" start="0" length="0"/>
+  <rcc rId="541" sId="15" xfDxf="1" dxf="1">
+    <nc r="C96" t="inlineStr">
+      <is>
+        <t>\f</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="542" sId="15" xfDxf="1" dxf="1">
+    <nc r="D96" t="inlineStr">
+      <is>
+        <t>Form Feed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="E96" start="0" length="0"/>
+  <rfmt sheetId="15" sqref="C91:D91" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="543" sId="15" odxf="1" dxf="1">
+    <nc r="C89" t="inlineStr">
+      <is>
+        <t>JAVA Strings</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rrc rId="544" sId="15" ref="A91:XFD104" action="insertRow"/>
+  <rcc rId="545" sId="15">
+    <nc r="C91" t="inlineStr">
+      <is>
+        <t>String Length</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="546" sId="15">
+    <nc r="D91" t="inlineStr">
+      <is>
+        <t>length()</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="547" sId="15">
+    <nc r="C92" t="inlineStr">
+      <is>
+        <t>toUpperCase(), toLowerCase()</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="548" sId="15">
+    <nc r="C93" t="inlineStr">
+      <is>
+        <t>index()</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="549" sheetId="15" source="C92:C93" destination="D92:D93" sourceSheetId="15"/>
+  <rcc rId="550" sId="15" xfDxf="1" dxf="1">
+    <nc r="C93" t="inlineStr">
+      <is>
+        <t>Finding a Character in a String</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="551" sId="15" xfDxf="1" dxf="1">
+    <nc r="C92" t="inlineStr">
+      <is>
+        <t>More String Methods</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="552" sId="15" xfDxf="1" dxf="1">
+    <nc r="C94" t="inlineStr">
+      <is>
+        <t>String Concatenation</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="553" sId="15">
+    <nc r="D94" t="inlineStr">
+      <is>
+        <t>+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C95" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="554" sId="15">
+    <nc r="C95" t="inlineStr">
+      <is>
+        <t>Special Characters
+The backslash (\) escape character turns special characters into string characters:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="555" sId="15" xfDxf="1" dxf="1">
+    <nc r="C96" t="inlineStr">
+      <is>
+        <t>Escape character</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="556" sId="15" xfDxf="1" dxf="1">
+    <nc r="D96" t="inlineStr">
+      <is>
+        <t>Result</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="557" sId="15" xfDxf="1" dxf="1">
+    <nc r="E96" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="558" sId="15" xfDxf="1" dxf="1">
+    <nc r="C97" t="inlineStr">
+      <is>
+        <t>\'</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="559" sId="15" xfDxf="1" dxf="1">
+    <nc r="D97" t="inlineStr">
+      <is>
+        <t>'</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="560" sId="15" xfDxf="1" dxf="1">
+    <nc r="E97" t="inlineStr">
+      <is>
+        <t>Single quote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="561" sId="15" xfDxf="1" dxf="1">
+    <nc r="C98" t="inlineStr">
+      <is>
+        <t>\"</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="562" sId="15" xfDxf="1" dxf="1">
+    <nc r="D98" t="inlineStr">
+      <is>
+        <t>"</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="563" sId="15" xfDxf="1" dxf="1">
+    <nc r="E98" t="inlineStr">
+      <is>
+        <t>Double quote</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="564" sId="15" xfDxf="1" dxf="1">
+    <nc r="C99" t="inlineStr">
+      <is>
+        <t>\\</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="565" sId="15" xfDxf="1" dxf="1">
+    <nc r="D99" t="inlineStr">
+      <is>
+        <t>\</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="566" sId="15" xfDxf="1" dxf="1">
+    <nc r="E99" t="inlineStr">
+      <is>
+        <t>Backslash</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog87.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="15" sqref="C96:E96" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:C99" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E96" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="E96:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C99:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E99">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E99">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C99:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:C99" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E96" start="0" length="0">
+    <dxf>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="E96:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C99:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E99">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:C99" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:E96" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="E96:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C99:E99" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C96:C99" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D96:D99" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="567" sId="15">
+    <oc r="E96" t="inlineStr">
+      <is>
+        <t>Description</t>
+      </is>
+    </oc>
+    <nc r="E96" t="inlineStr">
+      <is>
+        <t>hba</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="568" sId="15" xfDxf="1" dxf="1">
+    <nc r="C101" t="inlineStr">
+      <is>
+        <t>Six other escape sequences are valid in Java:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rrc rId="569" sId="15" ref="A102:XFD102" action="deleteRow">
+    <rfmt sheetId="15" xfDxf="1" sqref="A102:XFD102" start="0" length="0"/>
+    <rfmt sheetId="15" sqref="C102" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="570" sId="15" ref="A102:XFD102" action="deleteRow">
+    <rfmt sheetId="15" xfDxf="1" sqref="A102:XFD102" start="0" length="0"/>
+    <rfmt sheetId="15" sqref="C102" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rrc rId="571" sId="15" ref="A102:XFD102" action="deleteRow">
+    <rfmt sheetId="15" xfDxf="1" sqref="A102:XFD102" start="0" length="0"/>
+    <rfmt sheetId="15" sqref="C102" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="15" sqref="C102:D107">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C102:C107" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C102:D102" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="D102:D107" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C107:D107" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C102:C107" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C102:D102" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C102:D102">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog88.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="572" sId="15" xfDxf="1" dxf="1">
+    <nc r="C110" t="inlineStr">
+      <is>
+        <t>Java Math</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C110" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C110" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C110" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C110" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="18"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C110" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="573" sId="15" xfDxf="1" dxf="1">
+    <nc r="C112" t="inlineStr">
+      <is>
+        <t>The Java Math class has many methods that allows you to perform mathematical tasks on numbers.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="574" sId="15" xfDxf="1" dxf="1">
+    <nc r="C114" t="inlineStr">
+      <is>
+        <t>Math.max(x,y)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C115" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="575" sId="15" xfDxf="1" dxf="1">
+    <nc r="C116" t="inlineStr">
+      <is>
+        <t>The Math.max(x,y) method can be used to find the highest value of x and y:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C114" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C114" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C114" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" sqref="C114" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C118" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C119" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="576" sId="15" xfDxf="1" dxf="1">
+    <nc r="C120" t="inlineStr">
+      <is>
+        <t>The Math.min(x,y) method can be used to find the lowest value of of x and y:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="577" sId="15" odxf="1" dxf="1">
+    <nc r="C118" t="inlineStr">
+      <is>
+        <t>Math.min(x,y)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C122" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C123" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="578" sId="15" xfDxf="1" dxf="1">
+    <nc r="C124" t="inlineStr">
+      <is>
+        <t>The Math.sqrt(x) method returns the square root of x:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="579" sId="15" odxf="1" dxf="1">
+    <nc r="C122" t="inlineStr">
+      <is>
+        <t>Math.sqrt(x)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C126" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C127" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="580" sId="15" xfDxf="1" dxf="1">
+    <nc r="C128" t="inlineStr">
+      <is>
+        <t>The Math.abs(x) method returns the absolute (positive) value of x:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="581" sId="15" odxf="1" dxf="1">
+    <nc r="C126" t="inlineStr">
+      <is>
+        <t>Math.abs(x)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C130" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="15" xfDxf="1" sqref="C131" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="582" sId="15" xfDxf="1" dxf="1">
+    <nc r="C132" t="inlineStr">
+      <is>
+        <t>Math.random() returns a random number between 0 (inclusive), and 1 (exclusive):</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="583" sId="15" odxf="1" dxf="1">
+    <nc r="C130" t="inlineStr">
+      <is>
+        <t>Math.random()</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C134" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="584" sId="15" odxf="1" dxf="1">
+    <nc r="C134" t="inlineStr">
+      <is>
+        <t>Java Booleans</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="585" sId="15" xfDxf="1" dxf="1">
+    <nc r="C136" t="inlineStr">
+      <is>
+        <t>Very often, in programming, you will need a data type that can only have one of two values, like:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C137" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="586" sId="15" xfDxf="1" dxf="1">
+    <nc r="C138" t="inlineStr">
+      <is>
+        <t>YES / NO</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="587" sId="15" xfDxf="1" dxf="1">
+    <nc r="C139" t="inlineStr">
+      <is>
+        <t>ON / OFF</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="588" sId="15" xfDxf="1" dxf="1">
+    <nc r="C140" t="inlineStr">
+      <is>
+        <t>TRUE / FALSE</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C141" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="589" sId="15" xfDxf="1" dxf="1">
+    <nc r="C142" t="inlineStr">
+      <is>
+        <t>For this, Java has a boolean data type, which can take the values true or false.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="590" sId="15" xfDxf="1" dxf="1">
+    <nc r="C144" t="inlineStr">
+      <is>
+        <t>Boolean Values</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" xfDxf="1" sqref="C145" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="591" sId="15" xfDxf="1" dxf="1">
+    <nc r="C146" t="inlineStr">
+      <is>
+        <t>A boolean type is declared with the boolean keyword and can only take the values true or false:</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="15" sqref="C144" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="73" sId="12" xfDxf="1" dxf="1">
@@ -11193,7 +14443,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -13028,262 +16278,914 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F64"/>
+  <dimension ref="B3:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="87.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F3" t="s">
+    <row r="3" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C3" s="65" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C16" s="65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="56" t="s">
+        <v>517</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="56" t="s">
+        <v>522</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="58" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="59"/>
+    </row>
+    <row r="33" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C33" s="60" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="59"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="59" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="59"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="59" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="59" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="59"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="59"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="59"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="60" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="59"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="59" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="59"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="59" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="59" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="59" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="61" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="58" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="59"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="59"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="59"/>
+    </row>
+    <row r="58" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C58" s="63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59" s="63" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" s="63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C62" s="63" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C63" s="63"/>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="64" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C67" s="65" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C80" s="65" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D84" s="66" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D85" s="66" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D86" s="66" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C89" s="65" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D91" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D94" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" s="58" t="s">
+        <v>588</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>590</v>
+      </c>
+      <c r="E97" s="24" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>593</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C99" s="61" t="s">
+        <v>595</v>
+      </c>
+      <c r="D99" s="71" t="s">
+        <v>596</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="59" t="s">
+        <v>570</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="59" t="s">
+        <v>572</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="59" t="s">
+        <v>574</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="59" t="s">
+        <v>576</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="61" t="s">
+        <v>578</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C110" s="65" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C114" s="13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C118" s="13" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C122" s="13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C126" s="13" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C130" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C134" s="65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F153" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C5" s="18" t="s">
+    <row r="155" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C155" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F155" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="159" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B159">
         <v>3</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C20" s="18" t="s">
+    <row r="170" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C170" s="18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="172" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C172" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="174" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C174" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+    <row r="175" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C175" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
+    <row r="177" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
+    <row r="180" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C180" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
+    <row r="183" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C183" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="35" spans="3:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
+    <row r="185" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="37" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C37" s="1" t="s">
+    <row r="187" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="39" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="12" t="s">
+    <row r="189" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C189" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="12" t="s">
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="12"/>
+    </row>
+    <row r="191" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C191" s="12" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="12"/>
+    </row>
+    <row r="193" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C193" s="12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="45" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="53" t="s">
+    <row r="195" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C195" s="53" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="53"/>
-    </row>
-    <row r="47" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C47" s="53" t="s">
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="53"/>
+    </row>
+    <row r="197" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C197" s="53" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="18" t="s">
+    <row r="201" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C201" s="18" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="1" t="s">
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="1" t="s">
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="55" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55" s="1" t="s">
+    <row r="205" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C205" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="1" t="s">
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="60" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C60" s="18" t="s">
+    <row r="210" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C210" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62" s="1" t="s">
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="1" t="s">
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="1" t="s">
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1" t="s">
         <v>480</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C16" sqref="C16"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A79">
+      <selection activeCell="A104" sqref="A104"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13295,6 +17197,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14026,7 +17950,7 @@
   <dimension ref="B4:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="642">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -3787,6 +3787,288 @@
   <si>
     <t>A boolean type is declared with the boolean keyword and can only take the values true or false:</t>
   </si>
+  <si>
+    <r>
+      <t>Collection :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Root interface with basic methods like add(), remove(), </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">             contains(), isEmpty(), addAll(), ... etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Doesn't allow duplicates. Example implementations of Set </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">      interface are HashSet (Hashing based) and TreeSet (balanced</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      BST based). Note that TreeSet implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SortedSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Can contain duplicates and elements are ordered. Example</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">       implementations are LinkedList (linked list based) and</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (dynamic array based)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Queue</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Typically order elements in FIFO order except exceptions</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        like PriorityQueue.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Deque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Elements can be inserted and removed at both ends. Allows</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">        both LIFO and FIFO. </t>
+  </si>
+  <si>
+    <r>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Contains Key value pairs. Doesn't allow duplicates.  Example</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      implementation are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> and TreeMap. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TreeMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> implements </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SortedMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.        </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference between Set and Map interface is that in Set we </t>
+  </si>
+  <si>
+    <t>have only keys, whereas in Map, we have key, value pairs.</t>
+  </si>
+  <si>
+    <t>1. HashMap implements Map interface while TreeMap implements SortedMap interface. A Sorted Map interface is a child of Map.</t>
+  </si>
+  <si>
+    <t>2. HashMap implements Hashing, while TreeMap implements Red-Black Tree(a Self Balancing Binary Search Tree). Therefore all differences between Hashing and Balanced Binary Search Tree apply here.</t>
+  </si>
+  <si>
+    <t>3. Both HashMap and TreeMap have their counterparts HashSet and TreeSet. HashSet and TreeSet implement Set interface. In HashSet and TreeSet, we have only key, no value, these are mainly used to see presence/absence in a set. For above problem, we can’t use HashSet (or TreeSet) as we can’t store counts. An example problem where we would prefer HashSet (or TreeSet) over HashMap (or TreeMap) is to print all distinct elements in an array.</t>
+  </si>
+  <si>
+    <t>Differences between Hash Map &amp; Tree Map</t>
+  </si>
 </sst>
 </file>
 
@@ -3795,7 +4077,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3989,6 +4271,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFEC4E20"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEC4E20"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4167,7 +4475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4318,6 +4626,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4728,7 +5057,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{4AFE597C-B662-43B9-9442-027B52B65434}" diskRevisions="1" revisionId="591" version="26">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BC735098-5B3E-45E5-BB3C-FDADA0CB175F}" lastGuid="{4AFE597C-B662-43B9-9442-027B52B65434}" diskRevisions="1" revisionId="613" version="26">
   <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
     <sheetIdMap count="10">
       <sheetId val="1"/>
@@ -6318,6 +6647,27 @@
       <sheetId val="17"/>
     </sheetIdMap>
   </header>
+  <header guid="{BC735098-5B3E-45E5-BB3C-FDADA0CB175F}" dateTime="2020-01-30T11:33:49" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId89" minRId="592" maxRId="613">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -13957,6 +14307,983 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog89.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="14" sqref="J25" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J26" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J27" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J28" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J29" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J30" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J31" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J32" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J33" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J34" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J35" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J36" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J37" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J38" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J39" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J40" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J41" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J42" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J43" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J44" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J45" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J46" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J47" start="0" length="0">
+    <dxf>
+      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J25" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J28" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J30" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J32" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J34" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J36" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J39" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J42" start="0" length="0">
+    <dxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J43" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J44" start="0" length="0">
+    <dxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="592" sId="14" xfDxf="1" dxf="1">
+    <nc r="J25" t="inlineStr">
+      <is>
+        <r>
+          <t>Collection :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> Root interface with basic methods like add(), remove(), </t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="593" sId="14" xfDxf="1" dxf="1">
+    <nc r="J26" t="inlineStr">
+      <is>
+        <t xml:space="preserve">             contains(), isEmpty(), addAll(), ... etc.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="594" sId="14" xfDxf="1" dxf="1">
+    <nc r="J27" t="inlineStr">
+      <is>
+        <t xml:space="preserve"> </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="595" sId="14" xfDxf="1" dxf="1">
+    <nc r="J28" t="inlineStr">
+      <is>
+        <r>
+          <t>Set</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> Doesn't allow duplicates. Example implementations of Set </t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="596" sId="14" xfDxf="1" dxf="1">
+    <nc r="J29" t="inlineStr">
+      <is>
+        <t xml:space="preserve">      interface are HashSet (Hashing based) and TreeSet (balanced</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="597" sId="14" xfDxf="1" dxf="1">
+    <nc r="J30" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">      BST based). Note that TreeSet implements </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>SortedSet</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>.</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" xfDxf="1" sqref="J31" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="598" sId="14" xfDxf="1" dxf="1">
+    <nc r="J32" t="inlineStr">
+      <is>
+        <r>
+          <t>List</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>Can contain duplicates and elements are ordered. Example</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="599" sId="14" xfDxf="1" dxf="1">
+    <nc r="J33" t="inlineStr">
+      <is>
+        <t xml:space="preserve">       implementations are LinkedList (linked list based) and</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="600" sId="14" xfDxf="1" dxf="1">
+    <nc r="J34" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">       </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFEC4E20"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>ArrayList</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> (dynamic array based)</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" xfDxf="1" sqref="J35" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="601" sId="14" xfDxf="1" dxf="1">
+    <nc r="J36" t="inlineStr">
+      <is>
+        <r>
+          <t>Queue</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>Typically order elements in FIFO order except exceptions</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="602" sId="14" xfDxf="1" dxf="1">
+    <nc r="J37" t="inlineStr">
+      <is>
+        <t xml:space="preserve">        like PriorityQueue.  </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" xfDxf="1" sqref="J38" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="603" sId="14" xfDxf="1" dxf="1">
+    <nc r="J39" t="inlineStr">
+      <is>
+        <r>
+          <t>Deque</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> Elements can be inserted and removed at both ends. Allows</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="604" sId="14" xfDxf="1" dxf="1">
+    <nc r="J40" t="inlineStr">
+      <is>
+        <t xml:space="preserve">        both LIFO and FIFO. </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" xfDxf="1" sqref="J41" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="605" sId="14" xfDxf="1" dxf="1">
+    <nc r="J42" t="inlineStr">
+      <is>
+        <r>
+          <t>Map</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> :</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> Contains Key value pairs. Doesn't allow duplicates.  Example</t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+        <color rgb="FFEC4E20"/>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="606" sId="14" xfDxf="1" dxf="1">
+    <nc r="J43" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">      implementation are </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFEC4E20"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>HashMap</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> and TreeMap. </t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="607" sId="14" xfDxf="1" dxf="1">
+    <nc r="J44" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">      </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FFEC4E20"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>TreeMap</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve"> implements </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t>SortedMap</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Consolas"/>
+            <family val="3"/>
+          </rPr>
+          <t xml:space="preserve">.        </t>
+        </r>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" xfDxf="1" sqref="J45" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="608" sId="14" xfDxf="1" dxf="1">
+    <nc r="J46" t="inlineStr">
+      <is>
+        <t xml:space="preserve">The difference between Set and Map interface is that in Set we </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="609" sId="14" xfDxf="1" dxf="1">
+    <nc r="J47" t="inlineStr">
+      <is>
+        <t>have only keys, whereas in Map, we have key, value pairs.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Consolas"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFE0E0E0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="14" sqref="J25:N47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J25:J47" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J25:N25" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="N25:N47" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J47:N47" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J26:N26" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J31:N31" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J35:N35" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J38:N38" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J41:N41" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J45:N45" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="610" sId="14" xfDxf="1" dxf="1">
+    <nc r="J86" t="inlineStr">
+      <is>
+        <t>1. HashMap implements Map interface while TreeMap implements SortedMap interface. A Sorted Map interface is a child of Map.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="611" sId="14" xfDxf="1" dxf="1">
+    <nc r="J87" t="inlineStr">
+      <is>
+        <t>2. HashMap implements Hashing, while TreeMap implements Red-Black Tree(a Self Balancing Binary Search Tree). Therefore all differences between Hashing and Balanced Binary Search Tree apply here.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="612" sId="14" xfDxf="1" dxf="1">
+    <nc r="J88" t="inlineStr">
+      <is>
+        <t>3. Both HashMap and TreeMap have their counterparts HashSet and TreeSet. HashSet and TreeSet implement Set interface. In HashSet and TreeSet, we have only key, no value, these are mainly used to see presence/absence in a set. For above problem, we can’t use HashSet (or TreeSet) as we can’t store counts. An example problem where we would prefer HashSet (or TreeSet) over HashMap (or TreeMap) is to print all distinct elements in an array.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="613" sId="14">
+    <nc r="J85" t="inlineStr">
+      <is>
+        <t>Differences between Hash Map &amp; Tree Map</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="14" sqref="J85" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J85" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J85" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="14" sqref="J1:J1048576">
+    <dxf>
+      <alignment wrapText="1" indent="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="73" sId="12" xfDxf="1" dxf="1">
@@ -14443,7 +15770,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -14770,12 +16097,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -14908,11 +16235,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15262,14 +16589,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15602,13 +16929,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -15873,14 +17200,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15890,17 +17217,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:K84"/>
+  <dimension ref="E3:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="53.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="48.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="76" style="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15964,32 +17291,32 @@
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>3</v>
       </c>
@@ -15999,16 +17326,39 @@
       <c r="G25" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="26" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J25" s="72" t="s">
+        <v>620</v>
+      </c>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J26" s="73" t="s">
+        <v>621</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+    </row>
+    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J27" s="74" t="s">
+        <v>622</v>
+      </c>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>4</v>
       </c>
@@ -16018,8 +17368,24 @@
       <c r="G28" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="30" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" s="75" t="s">
+        <v>623</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>5</v>
       </c>
@@ -16029,8 +17395,22 @@
       <c r="G30" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="32" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J30" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="77"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>6</v>
       </c>
@@ -16040,33 +17420,139 @@
       <c r="G32" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J32" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J33" s="76" t="s">
+        <v>627</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J34" s="76" t="s">
+        <v>628</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F35" s="18" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="37" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J35" s="77"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J36" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J37" s="76" t="s">
+        <v>630</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J38" s="77"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="28"/>
+    </row>
+    <row r="39" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J39" s="75" t="s">
+        <v>631</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="41" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="44" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J41" s="77"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="28"/>
+    </row>
+    <row r="42" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J42" s="75" t="s">
+        <v>633</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J43" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F44" s="18" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="46" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J44" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="24"/>
+    </row>
+    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J45" s="77"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="28"/>
+    </row>
+    <row r="46" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>1</v>
       </c>
@@ -16076,13 +17562,27 @@
       <c r="G46" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="47" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J46" s="76" t="s">
+        <v>636</v>
+      </c>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="5:14" ht="45" x14ac:dyDescent="0.25">
       <c r="G47" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="J47" s="73" t="s">
+        <v>637</v>
+      </c>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="28"/>
+    </row>
+    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
       <c r="G48" s="1" t="s">
         <v>405</v>
       </c>
@@ -16240,17 +17740,17 @@
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
       <c r="G81" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="5:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:10" ht="120" x14ac:dyDescent="0.25">
       <c r="G82" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>8</v>
       </c>
@@ -16258,15 +17758,35 @@
         <v>438</v>
       </c>
     </row>
+    <row r="85" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J85" s="18" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J86" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J87" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -16280,8 +17800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16352,7 +17872,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>497</v>
       </c>
@@ -16846,7 +18366,6 @@
         <v>602</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="116" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
         <v>603</v>
@@ -16857,7 +18376,6 @@
         <v>604</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
         <v>605</v>
@@ -16868,7 +18386,6 @@
         <v>606</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
         <v>607</v>
@@ -16879,7 +18396,6 @@
         <v>608</v>
       </c>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
         <v>609</v>
@@ -16890,7 +18406,6 @@
         <v>610</v>
       </c>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
         <v>611</v>
@@ -16906,7 +18421,6 @@
         <v>613</v>
       </c>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="138" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C138" s="1" t="s">
         <v>614</v>
@@ -16922,7 +18436,6 @@
         <v>616</v>
       </c>
     </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25"/>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
         <v>617</v>
@@ -16933,7 +18446,6 @@
         <v>618</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25"/>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C146" s="1" t="s">
         <v>619</v>
@@ -17395,12 +18907,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17431,11 +18943,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -17597,11 +19109,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -17664,12 +19176,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -17722,11 +19234,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -17926,12 +19438,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18190,13 +19702,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -18805,12 +20317,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
-    <sheet name="Constructors" sheetId="2" r:id="rId2"/>
-    <sheet name="Static" sheetId="3" r:id="rId3"/>
-    <sheet name="OOP" sheetId="4" r:id="rId4"/>
-    <sheet name="Inheritance" sheetId="5" r:id="rId5"/>
-    <sheet name="Polymorphism" sheetId="6" r:id="rId6"/>
-    <sheet name="Enums" sheetId="7" r:id="rId7"/>
-    <sheet name="13-Interfaces" sheetId="8" r:id="rId8"/>
-    <sheet name="14-Nested &amp; Anonymus Classes" sheetId="9" r:id="rId9"/>
-    <sheet name="Nested Classes-Oracle" sheetId="10" r:id="rId10"/>
-    <sheet name="Generics" sheetId="12" r:id="rId11"/>
-    <sheet name="LambdaExpressions" sheetId="11" r:id="rId12"/>
-    <sheet name="Streaming API" sheetId="13" r:id="rId13"/>
-    <sheet name="Collections" sheetId="14" r:id="rId14"/>
-    <sheet name="Important points" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet1" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet1 (2)" sheetId="17" r:id="rId17"/>
+    <sheet name="Strings" sheetId="18" r:id="rId2"/>
+    <sheet name="Constructors" sheetId="2" r:id="rId3"/>
+    <sheet name="Static" sheetId="3" r:id="rId4"/>
+    <sheet name="OOP" sheetId="4" r:id="rId5"/>
+    <sheet name="Inheritance" sheetId="5" r:id="rId6"/>
+    <sheet name="Polymorphism" sheetId="6" r:id="rId7"/>
+    <sheet name="Enums" sheetId="7" r:id="rId8"/>
+    <sheet name="13-Interfaces" sheetId="8" r:id="rId9"/>
+    <sheet name="14-Nested &amp; Anonymus Classes" sheetId="9" r:id="rId10"/>
+    <sheet name="Nested Classes-Oracle" sheetId="10" r:id="rId11"/>
+    <sheet name="Generics" sheetId="12" r:id="rId12"/>
+    <sheet name="LambdaExpressions" sheetId="11" r:id="rId13"/>
+    <sheet name="Streaming API" sheetId="13" r:id="rId14"/>
+    <sheet name="Collections" sheetId="14" r:id="rId15"/>
+    <sheet name="Important points" sheetId="15" r:id="rId16"/>
+    <sheet name="Maven" sheetId="16" r:id="rId17"/>
+    <sheet name="DBMS" sheetId="17" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="15"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="670">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -4068,6 +4069,110 @@
   </si>
   <si>
     <t>Differences between Hash Map &amp; Tree Map</t>
+  </si>
+  <si>
+    <t>Maven is an automation and management tool developed by Apache Software Foundation.</t>
+  </si>
+  <si>
+    <t>Maven is a powerful project management tool that is based on POM (project object model).</t>
+  </si>
+  <si>
+    <t>It is used for projects build, dependency and documentation.</t>
+  </si>
+  <si>
+    <t>It simplifies the build process like ANT.</t>
+  </si>
+  <si>
+    <t>In short terms we can tell maven is a tool that can be used for building and managing any Java-based project.</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>DataBase Support</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>What is JDBC</t>
+  </si>
+  <si>
+    <t>Allows Java applications to connect to the relational database.</t>
+  </si>
+  <si>
+    <t>provides portable access to various databases. No need to develop different codefor diff databases.</t>
+  </si>
+  <si>
+    <t>call level interface to the db.</t>
+  </si>
+  <si>
+    <t>you can build your own custom sql statemets like select , insert , update and delete</t>
+  </si>
+  <si>
+    <t>call stored procedures</t>
+  </si>
+  <si>
+    <t>Oracle, Sql, DB2</t>
+  </si>
+  <si>
+    <t>includes a key component that is the JDBC driver, this driver provides a critical need between your java application and the data base</t>
+  </si>
+  <si>
+    <t>converts the standard api calls to low level calls for your specific DB</t>
+  </si>
+  <si>
+    <t>JDBC implementations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JDBC Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- provides the connection to a DB</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">JDBC driverManager </t>
+  </si>
+  <si>
+    <t>This is another keyplayer</t>
+  </si>
+  <si>
+    <t>DM helps to connect an app to the DB based on the DB connection string.</t>
+  </si>
+  <si>
+    <t>The current version of JDBC is 4.0 with this latest version,the Driver manager wioll automatically load drivers that are in the application class path.</t>
+  </si>
+  <si>
+    <t>so there is no additional work required to load the driver.</t>
+  </si>
+  <si>
+    <t>however legacy JDBC3.0 should be explicity loaded with the Class.forName(DriverName)</t>
+  </si>
+  <si>
+    <t>String is a non primitive type</t>
+  </si>
+  <si>
+    <t>String is a class.</t>
+  </si>
+  <si>
+    <t>String is a type of Object that can hold texts.</t>
   </si>
 </sst>
 </file>
@@ -4077,7 +4182,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4285,17 +4390,27 @@
       <family val="3"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFEC4E20"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFEC4E20"/>
       <name val="Consolas"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4475,7 +4590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4626,25 +4741,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5057,975 +5166,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BC735098-5B3E-45E5-BB3C-FDADA0CB175F}" lastGuid="{4AFE597C-B662-43B9-9442-027B52B65434}" diskRevisions="1" revisionId="613" version="26">
-  <header guid="{6A5A1ADB-ED93-42E2-AAE5-EB13E3906FDE}" dateTime="2020-01-07T15:45:22" maxSheetId="11" userName="SIRISHA AYYAGARI" r:id="rId1">
-    <sheetIdMap count="10">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4644B6CC-E214-4F79-9747-3BE0951235AE}" dateTime="2020-01-10T09:14:59" maxSheetId="12" userName="SIRISHA AYYAGARI" r:id="rId2" minRId="1" maxRId="19">
-    <sheetIdMap count="11">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C310F75E-4908-44E0-823A-6BE3BC7AF42A}" dateTime="2020-01-10T09:18:05" maxSheetId="12" userName="SIRISHA AYYAGARI" r:id="rId3" minRId="20" maxRId="30">
-    <sheetIdMap count="11">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A8AA825C-ECEA-42D8-82DE-38840C43DB5E}" dateTime="2020-01-10T09:23:04" maxSheetId="12" userName="SIRISHA AYYAGARI" r:id="rId4" minRId="31" maxRId="41">
-    <sheetIdMap count="11">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4B7884D3-121D-4781-A41C-B5B108964585}" dateTime="2020-01-10T10:08:04" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId5" minRId="42" maxRId="43">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E63EE002-E017-4941-9628-5142E3E4EE75}" dateTime="2020-01-10T10:13:46" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId6" minRId="44" maxRId="50">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{25ACE87B-F479-46EA-AA87-874DB8BDC53A}" dateTime="2020-01-10T14:16:49" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId7" minRId="51" maxRId="53">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F97BD519-49FE-4505-8418-91F94D8529A0}" dateTime="2020-01-10T14:18:25" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId8" minRId="54" maxRId="72">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="11"/>
-      <sheetId val="12"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{41AC87D3-5DEB-4B7E-8920-0A97FDD581A4}" dateTime="2020-01-10T14:31:49" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId9" minRId="73" maxRId="94">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5A5EC5A5-38EB-41AE-8659-514E5299279B}" dateTime="2020-01-10T14:39:15" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId10" minRId="95" maxRId="98">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9C6B71BB-CE52-4F8D-9B92-519952CF3E54}" dateTime="2020-01-10T14:46:49" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId11" minRId="99" maxRId="111">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0AB95B86-9594-4A71-88CF-57919D3AB65C}" dateTime="2020-01-10T15:16:50" maxSheetId="13" userName="SIRISHA AYYAGARI" r:id="rId12" minRId="112" maxRId="115">
-    <sheetIdMap count="12">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{40C8A67F-1A24-48EF-A3E9-2805B2418234}" dateTime="2020-01-10T22:39:32" maxSheetId="14" userName="kalyan chavali" r:id="rId13" minRId="116" maxRId="120">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0EB87A91-B6DF-4405-A204-03EAA4330ECE}" dateTime="2020-01-12T21:54:45" maxSheetId="14" userName="kalyan chavali" r:id="rId14" minRId="121" maxRId="131">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1697B5D9-32AE-4AA0-AB25-A3425A7E8F21}" dateTime="2020-01-12T21:57:36" maxSheetId="14" userName="kalyan chavali" r:id="rId15" minRId="132" maxRId="134">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E3434006-3B25-4F00-A25C-895AAC32963B}" dateTime="2020-01-12T21:59:39" maxSheetId="14" userName="kalyan chavali" r:id="rId16" minRId="135" maxRId="144">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{A2FF2776-0470-41F8-8BC1-6B3F24DE664C}" dateTime="2020-01-12T22:31:42" maxSheetId="14" userName="kalyan chavali" r:id="rId17" minRId="145">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="13"/>
-      <sheetId val="11"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{52D427E5-7A3F-429F-A86A-BD93D7900C3B}" dateTime="2020-01-14T13:38:52" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId18" minRId="146" maxRId="149">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EAE26051-A044-4119-BC2E-4AC4F62FB075}" dateTime="2020-01-14T13:54:17" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId19" minRId="150" maxRId="193">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{424269A6-6483-4015-B9C4-C9EC2DA178F9}" dateTime="2020-01-14T13:56:43" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId20" minRId="194" maxRId="199">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F6E552FC-CC7B-407C-B0DE-F7E293DF40D7}" dateTime="2020-01-14T14:07:30" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId21" minRId="200" maxRId="210">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E197EF44-D0C9-41BB-96C5-5E002BF0ED48}" dateTime="2020-01-14T14:24:14" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId22" minRId="211" maxRId="215">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2A9D2A3A-05DE-4FD1-9E7C-D27F20A904CA}" dateTime="2020-01-14T15:54:01" maxSheetId="14" userName="SIRISHA AYYAGARI" r:id="rId23">
-    <sheetIdMap count="13">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{00434411-F72B-492A-97B8-D33A5F556BFA}" dateTime="2020-01-17T13:41:38" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId24" minRId="216" maxRId="224">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{6B09EDA3-C55A-4D90-9B8C-03F171CA332C}" dateTime="2020-01-17T13:43:53" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId25" minRId="225" maxRId="232">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{4582EFF5-A210-4650-AD94-15EA3488CDCA}" dateTime="2020-01-17T13:45:53" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId26" minRId="233" maxRId="240">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D55E928D-7F6A-4EBD-95CB-4B28E4331D9B}" dateTime="2020-01-17T13:46:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId27">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D80AC57B-E3FC-4AC5-AD76-6C14B318B925}" dateTime="2020-01-17T13:46:41" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId28" minRId="241" maxRId="242">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{82E58F13-14F4-43BC-94D6-EB3F858EF341}" dateTime="2020-01-17T13:48:25" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId29" minRId="243" maxRId="246">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{13B03637-2A3D-46FB-A85A-9EC7A925B8DF}" dateTime="2020-01-17T13:51:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId30" minRId="247" maxRId="251">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2944D3B0-64CE-4362-873E-B668B83287E2}" dateTime="2020-01-17T13:51:24" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId31" minRId="252">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{32FAA1AA-1880-4FFD-A658-9416D52B9DA0}" dateTime="2020-01-17T13:53:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId32" minRId="253">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8C1349B4-AD52-429A-A0AE-B45742B58AC8}" dateTime="2020-01-17T13:58:33" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId33" minRId="254" maxRId="260">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B744DD0C-54FC-4E48-AD68-C4F6243AEB89}" dateTime="2020-01-17T14:03:43" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId34" minRId="261" maxRId="271">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7BF31167-1DB7-433E-88E1-3F03D3DA4439}" dateTime="2020-01-17T14:06:05" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId35" minRId="272" maxRId="275">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0AEDCD0B-5DC9-43AF-ACE6-D96027DF4A19}" dateTime="2020-01-17T14:08:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId36" minRId="276">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FB1AE9BD-B147-4A26-AAF2-B1D5140288A1}" dateTime="2020-01-17T14:23:57" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId37" minRId="277" maxRId="280">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5A3A6C80-8DAA-44F6-8E40-C57BC5628CD4}" dateTime="2020-01-17T15:16:19" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId38" minRId="281" maxRId="282">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3E33EDED-7BAC-4C33-8B3F-50A85B1D3FF7}" dateTime="2020-01-17T15:17:37" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId39" minRId="283" maxRId="287">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{51B33C89-E7DB-4BB1-ADAB-8964EA027695}" dateTime="2020-01-17T15:19:26" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId40" minRId="288" maxRId="289">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{80E21BF6-71C4-4D8F-81FE-58E67E438AC8}" dateTime="2020-01-17T15:25:08" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId41" minRId="290" maxRId="296">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E60D2AB7-1482-4804-8F29-F51E2F9FEDD9}" dateTime="2020-01-17T15:27:23" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId42" minRId="297" maxRId="303">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{719FA714-E657-40E4-BD9C-E860E8CA518A}" dateTime="2020-01-17T15:27:39" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId43" minRId="304">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{DB0BAB50-EBEF-4ED6-86AF-A7AF5DB4C52C}" dateTime="2020-01-17T15:29:35" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId44" minRId="305" maxRId="314">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3E2D3549-9A6F-4AD0-83CF-32E52B9EE7F9}" dateTime="2020-01-17T15:30:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId45" minRId="315" maxRId="318">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B45FF7AB-A534-408C-9FFA-4596211E30F0}" dateTime="2020-01-17T15:31:17" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId46" minRId="319" maxRId="320">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3E316F28-ED97-44C2-BE1C-8F228226E4A1}" dateTime="2020-01-17T15:32:11" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId47" minRId="321" maxRId="327">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{17CC77F4-5139-4659-BE06-FC85946C0C7E}" dateTime="2020-01-17T15:33:01" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId48" minRId="328" maxRId="330">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AA27475A-3656-447C-8345-3A5EE0C8FAFB}" dateTime="2020-01-17T15:38:55" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId49" minRId="331" maxRId="337">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{776C763A-AE71-41EA-87A3-92DDF2423E7C}" dateTime="2020-01-17T15:40:59" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId50" minRId="338">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{0760555F-415E-4012-93CD-FBE9349D6FFC}" dateTime="2020-01-17T15:43:45" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId51" minRId="339" maxRId="344">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BCA2E30F-AF5E-4BE7-84CD-F03974DE9439}" dateTime="2020-01-17T15:45:54" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId52" minRId="345" maxRId="348">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{FF90E65E-369F-4E8A-B0CF-7E8C94C760F2}" dateTime="2020-01-17T15:46:20" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId53" minRId="349" maxRId="350">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{91F11DBF-6AC7-47FE-9640-DDEC97793DCE}" dateTime="2020-01-17T15:48:45" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId54">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{652866C5-FEB7-49E0-A123-062FC755C58A}" dateTime="2020-01-17T21:07:18" maxSheetId="15" userName="kalyan chavali" r:id="rId55" minRId="351" maxRId="356">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7420AD2C-1314-4A22-B820-1F20A7481452}" dateTime="2020-01-18T10:08:09" maxSheetId="15" userName="kalyan chavali" r:id="rId56">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DB89652D-01E9-4ECD-9321-4628965A13E2}" lastGuid="{6BB0854D-C15D-4DCE-BC56-3E9E33CA2391}" diskRevisions="1" revisionId="660" version="33">
   <header guid="{5D38786E-C7F6-4975-B210-F9CE71B2571E}" dateTime="2020-01-20T09:19:18" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId57" minRId="357" maxRId="359">
     <sheetIdMap count="14">
       <sheetId val="1"/>
@@ -6668,111 +5809,340 @@
       <sheetId val="17"/>
     </sheetIdMap>
   </header>
+  <header guid="{B14064EB-3121-4C32-9A21-77DE586CB227}" dateTime="2020-02-13T09:43:05" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId90" minRId="614" maxRId="618">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{866E4FC9-EB2B-404D-8B53-22471A6A7332}" dateTime="2020-02-18T12:32:34" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId91" minRId="619" maxRId="635">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{8CE5B4AE-64E0-4D18-8078-1692786D14BA}" dateTime="2020-02-18T12:37:45" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId92" minRId="636" maxRId="644">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{463A97BA-C245-4317-85B7-9411F6FCE7B4}" dateTime="2020-02-18T12:38:33" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId93" minRId="645" maxRId="646">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DA884924-D0C6-4247-94E6-F1669D92028F}" dateTime="2020-02-18T12:39:32" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId94" minRId="647" maxRId="648">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7ACB8981-F249-4F87-A965-9730260E5DAA}" dateTime="2020-02-18T12:40:24" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId95" minRId="649" maxRId="652">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{497EC498-ACF7-44B3-9AAA-4C668A20ADB5}" dateTime="2020-02-18T12:41:19" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId96" minRId="653" maxRId="654">
+    <sheetIdMap count="17">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2F979EC1-7B8A-4E4E-9C9B-D7FD326979FA}" dateTime="2020-02-18T12:41:59" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId97" minRId="655">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6BB0854D-C15D-4DCE-BC56-3E9E33CA2391}" dateTime="2020-02-18T12:42:42" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId98" minRId="656">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DB89652D-01E9-4ECD-9321-4628965A13E2}" dateTime="2020-02-18T12:54:02" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId99" minRId="657" maxRId="660">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="12" sqref="D45" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D44" start="0" length="0">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="95" sId="12" xfDxf="1" dxf="1">
-    <nc r="D44" t="inlineStr">
-      <is>
-        <t>Java Generics - Methods</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-      </font>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="96" sId="12" xfDxf="1" dxf="1">
-    <nc r="D47" t="inlineStr">
-      <is>
-        <t>You can write a single generic method declaration that can be called with arguments of different types.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="97" sId="12" xfDxf="1" dxf="1">
-    <nc r="D49" t="inlineStr">
-      <is>
-        <t>Based on the types of the arguments passed to the generic method, the compiler handles each method call appropriately. </t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" xfDxf="1" sqref="D51" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D51" start="0" length="0">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="98" sId="12">
-    <nc r="D51" t="inlineStr">
-      <is>
-        <t>Rules to define Generic Methods −</t>
-      </is>
-    </nc>
-  </rcc>
+  <rrc rId="619" sId="17" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="620" sId="17">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>Features</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="621" sId="17" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="622" sId="17">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>DataBase Support</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="623" sId="17" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="624" sId="17">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>Architecture</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="625" sId="17" eol="1" ref="A10:XFD10" action="insertRow"/>
+  <rcc rId="626" sId="17">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Development Process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="627" sId="17">
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>What is JDBC</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="628" sId="17" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="629" sId="17">
+    <nc r="E7" t="inlineStr">
+      <is>
+        <t>Allows Java applications to connect to the relational database.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="630" sId="17" ref="A9:XFD12" action="insertRow"/>
+  <rcc rId="631" sId="17">
+    <nc r="E9" t="inlineStr">
+      <is>
+        <t>provides portable access to various databases. No need to develop different codefor diff databases.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="632" sId="17">
+    <nc r="E10" t="inlineStr">
+      <is>
+        <t>call level interface to the db.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="633" sId="17">
+    <nc r="E11" t="inlineStr">
+      <is>
+        <t>you can build your own custom sql statemets like select , insert , update and delete</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="634" sId="17">
+    <nc r="E12" t="inlineStr">
+      <is>
+        <t>call stored procedures</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+  <rsnm rId="635" sheetId="17" oldName="[Notes.xlsx]Sheet1 (2)" newName="[Notes.xlsx]DBMS"/>
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="12" xfDxf="1" sqref="D53" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="99" sId="12">
-    <nc r="C53">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="100" sId="12">
-    <nc r="D53" t="inlineStr">
-      <is>
-        <r>
-          <t xml:space="preserve">All generic method declarations have a type parameter section delimited by angle brackets (&lt; and &gt;) that </t>
-        </r>
+  <rcc rId="636" sId="17">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>Oracle, Sql, DB2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="637" sId="17" ref="A15:XFD19" action="insertRow"/>
+  <rcc rId="638" sId="17">
+    <nc r="E15" t="inlineStr">
+      <is>
+        <t>includes a key component that is the JDBC driver, this driver provides a critical need between your java application and the data base</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="639" sId="17">
+    <nc r="E17" t="inlineStr">
+      <is>
+        <t>converts the standard api calls to low level calls for your specific DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="640" sId="17">
+    <nc r="E18" t="inlineStr">
+      <is>
+        <t>JDBC implementations</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="641" sId="17">
+    <nc r="E16" t="inlineStr">
+      <is>
         <r>
           <rPr>
             <b/>
@@ -6781,7 +6151,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t>precedes the method's return type</t>
+          <t>JDBC Driver</t>
         </r>
         <r>
           <rPr>
@@ -6790,2219 +6160,35 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> ( &lt; E &gt; in the next example).</t>
+          <t>- provides the connection to a DB</t>
         </r>
       </is>
     </nc>
   </rcc>
-  <rcc rId="101" sId="12" xfDxf="1" dxf="1">
-    <nc r="D54" t="inlineStr">
-      <is>
-        <t>Each type parameter section contains one or more type parameters separated by commas.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="102" sId="12">
-    <nc r="C54">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rrc rId="103" sId="12" eol="1" ref="A55:XFD55" action="insertRow"/>
-  <rcc rId="104" sId="12">
-    <nc r="C55">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="105" sId="12" xfDxf="1" dxf="1">
-    <nc r="D55" t="inlineStr">
-      <is>
-        <t>A type parameter, also known as a type variable, is an identifier that specifies a generic type name.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rrc rId="106" sId="12" eol="1" ref="A56:XFD56" action="insertRow"/>
-  <rcc rId="107" sId="12">
-    <nc r="C56">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="108" sId="12" xfDxf="1" dxf="1">
-    <nc r="D56" t="inlineStr">
-      <is>
-        <t>The type parameters can be used to declare the return type and act as placeholders for the types of the arguments passed to the generic method, which are known as actual type arguments.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rm rId="109" sheetId="12" source="H55:I55" destination="H56:I56" sourceSheetId="12"/>
-  <rfmt sheetId="12" sqref="H53:H55">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="H56" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="I56" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="I56">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="I56">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="J53" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="J54" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="J55" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="J56" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="K56" start="0" length="0">
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="110" sId="12" xfDxf="1" dxf="1">
-    <nc r="D57" t="inlineStr">
-      <is>
-        <t>A generic method's body is declared like that of any other method. Note that type parameters can represent only reference types, not primitive types (like int, double and char).</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="111" sId="12">
-    <nc r="C57">
-      <v>5</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="12" xfDxf="1" sqref="E48" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E49" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E50" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E51" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E52" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E53" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E54" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E55" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E56" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E57" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E58" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E59" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E60" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E61" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E62" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E63" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E64" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E65" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E66" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E67" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E68" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E69" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E70" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E71" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E72" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E73" start="0" length="0"/>
-  <rfmt sheetId="12" sqref="F48" start="0" length="0">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F50" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F53" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F54" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F56" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F59" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F60" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F62" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F63" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F64" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F66" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F67" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F69" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F70" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F72" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F73" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="F76" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F48" start="0" length="0">
-    <dxf>
-      <font>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F49" start="0" length="0">
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F50" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F51" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F52" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F53" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F54" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F55" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F56" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F57" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F58" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F59" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F60" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F61" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F62" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F63" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F64" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F65" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F66" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F67" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F68" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F69" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F70" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F71" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F72" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F73" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F74" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F75" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F76" start="0" length="0">
-    <dxf>
-      <font>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="F77" start="0" length="0">
-    <dxf>
-      <font>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <name val="Consolas"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="D61" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="112" sId="12" odxf="1" dxf="1">
-    <nc r="D61" t="inlineStr">
-      <is>
-        <t>Java Generics - Multiple Type Parameters</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" xfDxf="1" sqref="D63" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="113" sId="12">
-    <nc r="D63" t="inlineStr">
-      <is>
-        <t>A Generic class can have muliple type parameters.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="12" xfDxf="1" sqref="D66" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="114" sId="12" odxf="1" dxf="1">
-    <nc r="D66" t="inlineStr">
-      <is>
-        <t>Java Generics - Parameterized Types</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="115" sId="12" xfDxf="1" dxf="1">
-    <nc r="D68" t="inlineStr">
-      <is>
-        <t>A Generic class can have parameterized types where a type parameter can be substituted with a parameterized type</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="116" sheetId="13" name="[Notes.xlsx]Sheet1" sheetPosition="11"/>
-  <rfmt sheetId="13" sqref="E10:F10" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E3:E10" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E3:I3" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="I3:I10" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E10:I10" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="117" sId="13">
-    <nc r="F4">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="118" sId="13">
-    <nc r="F7" t="inlineStr">
-      <is>
-        <t>Person("No Name")</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="119" sId="13">
-    <nc r="B4" t="inlineStr">
-      <is>
-        <t>num</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="120" sId="13">
-    <nc r="B7" t="inlineStr">
-      <is>
-        <t>person1</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="121" sId="13">
-    <oc r="B4" t="inlineStr">
-      <is>
-        <t>num</t>
-      </is>
-    </oc>
-    <nc r="B4"/>
-  </rcc>
-  <rcc rId="122" sId="13">
-    <oc r="F4">
-      <v>4</v>
-    </oc>
-    <nc r="F4"/>
-  </rcc>
-  <rcc rId="123" sId="13">
-    <oc r="B7" t="inlineStr">
-      <is>
-        <t>person1</t>
-      </is>
-    </oc>
-    <nc r="B7"/>
-  </rcc>
-  <rcc rId="124" sId="13">
-    <oc r="F7" t="inlineStr">
-      <is>
-        <t>Person("No Name")</t>
-      </is>
-    </oc>
-    <nc r="F7"/>
-  </rcc>
-  <rcc rId="125" sId="11">
-    <nc r="E45" t="inlineStr">
-      <is>
-        <t>Lambdas can be used only for Functional Interfaces</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="126" sId="11" eol="1" ref="A46:XFD46" action="insertRow"/>
-  <rcc rId="127" sId="11">
-    <nc r="E46" t="inlineStr">
-      <is>
-        <t>An interface with a single abstract method is a functional interface but it can have multiple default and static methods.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="128" sId="11" eol="1" ref="A47:XFD47" action="insertRow"/>
-  <rcc rId="129" sId="11">
-    <nc r="E47" t="inlineStr">
-      <is>
-        <r>
-          <t>It is advisable that a function interface is provided by an annotation</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> @FunctionalInterface </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>, but this is not mandatory.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="130" sId="11" eol="1" ref="A48:XFD48" action="insertRow"/>
-  <rcc rId="131" sId="11">
-    <nc r="E48" t="inlineStr">
-      <is>
-        <t>We need to write this annotation in the interface above the interface name.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="132" sId="11">
-    <nc r="E51" t="inlineStr">
-      <is>
-        <t>Definition:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" sqref="E51" start="0" length="2147483647">
+  <rfmt sheetId="17" sqref="E18" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="11" sqref="E51" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="133" sId="11" eol="1" ref="A52:XFD52" action="insertRow"/>
-  <rcc rId="134" sId="11">
-    <nc r="E52" t="inlineStr">
-      <is>
-        <t xml:space="preserve">A lambda expression is an expression that is an object , turns an anonymous nested class that implements a functional interface in a very compact way. </t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="135" sId="11">
-    <nc r="E55" t="inlineStr">
-      <is>
-        <t>The lambda expression consists of 3 parts:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="136" sId="11" eol="1" ref="A56:XFD56" action="insertRow"/>
-  <rcc rId="137" sId="11">
-    <nc r="D56">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="138" sId="11">
-    <nc r="E56" t="inlineStr">
-      <is>
-        <t>The formal parameters</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="139" sId="11" eol="1" ref="A57:XFD57" action="insertRow"/>
-  <rcc rId="140" sId="11">
-    <nc r="D57">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="141" sId="11">
-    <nc r="E57" t="inlineStr">
-      <is>
-        <t>The arrow</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="142" sId="11" eol="1" ref="A58:XFD58" action="insertRow"/>
-  <rcc rId="143" sId="11">
-    <nc r="D58">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="144" sId="11">
-    <nc r="E58" t="inlineStr">
-      <is>
-        <t>The content</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="145" sId="11">
-    <nc r="F56" t="inlineStr">
-      <is>
-        <t>List of parameters of the method.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="146" sId="13" eol="1" ref="A5:XFD5" action="insertRow"/>
-  <rcc rId="147" sId="13">
-    <nc r="E5" t="inlineStr">
-      <is>
-        <t>Introduced in JAVA 8, Stream API is used for collection of objects.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="148" sId="13" eol="1" ref="A6:XFD6" action="insertRow"/>
-  <rcc rId="149" sId="13">
-    <nc r="E6" t="inlineStr">
-      <is>
-        <t>A Stream is a sequence of objects that supports various methods which can be pipelined to produce the desired result.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="150" sId="13" xfDxf="1" dxf="1">
-    <nc r="E9" t="inlineStr">
-      <is>
-        <t>Different Operations On Streams-</t>
-      </is>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rfmt sheetId="13" sqref="E9" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E9" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="151" sId="13">
-    <nc r="E11" t="inlineStr">
-      <is>
-        <t>map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="152" sId="13" eol="1" ref="A12:XFD12" action="insertRow"/>
-  <rcc rId="153" sId="13">
-    <nc r="E12" t="inlineStr">
-      <is>
-        <t>filter</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="154" sId="13" eol="1" ref="A13:XFD13" action="insertRow"/>
-  <rcc rId="155" sId="13">
-    <nc r="E13" t="inlineStr">
-      <is>
-        <t>sort</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E13">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="156" sId="13">
-    <nc r="D11">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="157" sId="13">
-    <nc r="D12">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="158" sId="13">
-    <nc r="D13">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" xfDxf="1" sqref="E15" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rcc rId="159" sId="13" odxf="1" dxf="1">
-    <nc r="E15" t="inlineStr">
-      <is>
-        <t>Terminal Operations:</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="160" sId="13">
-    <nc r="E17" t="inlineStr">
-      <is>
-        <t>collect</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E17">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="161" sId="13" eol="1" ref="A18:XFD18" action="insertRow"/>
-  <rcc rId="162" sId="13">
-    <nc r="E18" t="inlineStr">
-      <is>
-        <t>foreach</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E18">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="163" sId="13" eol="1" ref="A19:XFD19" action="insertRow"/>
-  <rcc rId="164" sId="13">
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>reduce</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E19">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="165" sId="13">
-    <nc r="D17">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="166" sId="13">
-    <nc r="D18">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="167" sId="13">
-    <nc r="D19">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="168" sId="13">
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>source</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="169" sId="13">
-    <nc r="E25" t="inlineStr">
-      <is>
-        <t>iterator</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="170" sId="13">
-    <nc r="G25" t="inlineStr">
-      <is>
-        <t>stream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="171" sId="13" odxf="1" dxf="1">
-    <nc r="I25" t="inlineStr">
-      <is>
-        <t>intermediate
-Operation</t>
-      </is>
-    </nc>
-    <odxf>
-      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
-    </odxf>
-    <ndxf>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="172" sId="13">
-    <nc r="K25" t="inlineStr">
-      <is>
-        <t>stream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="173" sId="13">
-    <nc r="M25" t="inlineStr">
-      <is>
-        <t>terminal operation</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="F25">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="F25">
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="H25">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="J25">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="174" sId="13" odxf="1" dxf="1" quotePrefix="1">
-    <nc r="L25" t="inlineStr">
-      <is>
-        <t>--------&gt;</t>
-      </is>
-    </nc>
-    <odxf/>
-    <ndxf/>
-  </rcc>
-  <rfmt sheetId="13" sqref="L25">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="175" sId="13" odxf="1" dxf="1" quotePrefix="1">
-    <nc r="J25" t="inlineStr">
-      <is>
-        <t>--------&gt;</t>
-      </is>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="176" sId="13" odxf="1" dxf="1" quotePrefix="1">
-    <nc r="H25" t="inlineStr">
-      <is>
-        <t>--------&gt;</t>
-      </is>
-    </nc>
-    <ndxf/>
-  </rcc>
-  <rcc rId="177" sId="13" odxf="1" dxf="1" quotePrefix="1">
-    <nc r="F25" t="inlineStr">
-      <is>
-        <t>--------&gt;</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="13" sqref="E27" start="0" length="0">
-    <dxf/>
-  </rfmt>
-  <rcc rId="178" sId="13">
-    <nc r="E26" t="inlineStr">
-      <is>
-        <t>.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="179" sId="13" quotePrefix="1">
-    <nc r="E27" t="inlineStr">
-      <is>
-        <t>.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rm rId="180" sheetId="13" source="E28" destination="E29" sourceSheetId="13">
-    <rfmt sheetId="13" sqref="E29" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rm>
-  <rcc rId="181" sId="13">
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E28">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="182" sId="13">
-    <nc r="E32" t="inlineStr">
-      <is>
-        <t>Source of Streams</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E32">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E32" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E32" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="183" sId="13" eol="1" ref="A35:XFD35" action="insertRow"/>
-  <rcc rId="184" sId="13">
-    <nc r="E35" t="inlineStr">
-      <is>
-        <t>IntStream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="185" sId="13" eol="1" ref="A36:XFD36" action="insertRow"/>
-  <rcc rId="186" sId="13">
-    <nc r="E36" t="inlineStr">
-      <is>
-        <t>LongStream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E36">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="187" sId="13" eol="1" ref="A37:XFD37" action="insertRow"/>
-  <rcc rId="188" sId="13">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>DoubleStream</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E37">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="189" sId="13">
-    <nc r="E34" t="inlineStr">
-      <is>
-        <t>Stream&lt;T&gt;</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="190" sId="13">
-    <nc r="F34" t="inlineStr">
-      <is>
-        <t>generic version for objects of type T.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="191" sId="13">
-    <nc r="F35" t="inlineStr">
-      <is>
-        <t>stream of primitive integers.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="192" sId="13">
-    <nc r="F36" t="inlineStr">
-      <is>
-        <t>stream of primitive longs.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="193" sId="13">
-    <nc r="F37" t="inlineStr">
-      <is>
-        <t>stream of primitive doubles.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="F37">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="1" sheetId="11" name="[Notes.xlsx]LambdaExpressions" sheetPosition="8"/>
-  <rcc rId="2" sId="11">
-    <nc r="E6" t="inlineStr">
-      <is>
-        <r>
-          <t>Lamda expressions basically expresses the instances of</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> functional interfaces.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="3" sId="11">
-    <nc r="E8" t="inlineStr">
-      <is>
-        <t>Functional Interfaces:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" sqref="E8" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E8" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="4" sId="11" eol="1" ref="A9:XFD9" action="insertRow"/>
-  <rcc rId="5" sId="11">
-    <nc r="E9" t="inlineStr">
-      <is>
-        <t>An interfcae with single abstract method is called as a functional interface.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="6" sId="11" eol="1" ref="A10:XFD10" action="insertRow"/>
-  <rcc rId="7" sId="11">
-    <nc r="E10" t="inlineStr">
-      <is>
-        <t>Ex: java.lang.Runnable</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="8" sId="11">
-    <nc r="E12" t="inlineStr">
-      <is>
-        <t>Lambda expressions implement the only abstract fucntion and therefore implement fucntional interfaces.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="9" sId="11">
-    <nc r="E14" t="inlineStr">
-      <is>
-        <t>They are added in JAVA 8, and provide the below functionalities:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="10" sId="11" eol="1" ref="A15:XFD15" action="insertRow"/>
-  <rcc rId="11" sId="11">
-    <nc r="E15">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rm rId="12" sheetId="11" source="E15" destination="D15" sourceSheetId="11"/>
-  <rcc rId="13" sId="11">
-    <nc r="E15" t="inlineStr">
-      <is>
-        <t>Enable ti treat functionality as Method argument , or code as data.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="14" sId="11" eol="1" ref="A16:XFD16" action="insertRow"/>
-  <rcc rId="15" sId="11">
-    <nc r="D16">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="16" sId="11">
-    <nc r="E16" t="inlineStr">
-      <is>
-        <t>A function that can be treated without belonging to any class</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="17" sId="11" eol="1" ref="A17:XFD17" action="insertRow"/>
-  <rcc rId="18" sId="11">
-    <nc r="D17">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="19" sId="11">
-    <nc r="E17" t="inlineStr">
-      <is>
-        <t>A lambda expession can be passed aroundas if it was an object and executed on demand.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="194" sId="13">
-    <nc r="E39" t="inlineStr">
-      <is>
-        <t>However, the stream must be created based on a source of data, there are different possible sources for a stream:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E39">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="13" sqref="E41">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="195" sId="13" eol="1" ref="A42:XFD42" action="insertRow"/>
-  <rfmt sheetId="13" sqref="E42">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="196" sId="13" eol="1" ref="A43:XFD43" action="insertRow"/>
-  <rcc rId="197" sId="13">
-    <nc r="E43" t="inlineStr">
-      <is>
-        <t>An I/O channel that supplies the elements.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E43">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="198" sId="13">
-    <nc r="E42" t="inlineStr">
-      <is>
-        <t>A generator that delievers elements in one way or other.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="199" sId="13">
-    <nc r="E41" t="inlineStr">
-      <is>
-        <t>A collection of elements, this can be an array or collection of elements</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="13" sqref="E46">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="200" sId="13">
-    <nc r="E46" t="inlineStr">
-      <is>
-        <t>In our example, we have a collection of strings in the form of an array.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="201" sId="13" eol="1" ref="A47:XFD47" action="insertRow"/>
-  <rcc rId="202" sId="13">
-    <nc r="E47" t="inlineStr">
-      <is>
-        <t>We can transform this into a stream using the Stream.of() method.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E47">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="203" sId="13" eol="1" ref="A48:XFD48" action="insertRow"/>
-  <rfmt sheetId="13" sqref="E48">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="204" sId="13" eol="1" ref="A49:XFD49" action="insertRow"/>
-  <rcc rId="205" sId="13">
-    <nc r="E49" t="inlineStr">
-      <is>
-        <t>We can write this as follows:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E49">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="206" sId="13">
-    <nc r="E51" t="inlineStr">
-      <is>
-        <t>Stream&lt;String&gt; stream = Stream.of(words)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E51">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="207" sId="13">
-    <nc r="E48" t="inlineStr">
-      <is>
-        <t>This method provides an internal iterator that delivers the elements from the array one by one at the stream.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="208" sId="13">
-    <nc r="E53" t="inlineStr">
-      <is>
-        <t>Stream interface is a generic interface which is provided with a type parameter.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E53">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="209" sId="13" eol="1" ref="A54:XFD54" action="insertRow"/>
-  <rcc rId="210" sId="13">
-    <nc r="E54" t="inlineStr">
-      <is>
-        <t>In this case, we indicate that this stream contains only objects of the type String. The type is determjined by the type of the supplied array.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E54">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="211" sId="13">
-    <nc r="E56" t="inlineStr">
-      <is>
-        <t>The Stream interface has numerous methods for creating a stream.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E56">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rrc rId="212" sId="13" eol="1" ref="A57:XFD57" action="insertRow"/>
-  <rfmt sheetId="13" sqref="E57">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="213" sId="13">
-    <nc r="E57" t="inlineStr">
-      <is>
-        <r>
-          <t>The general way to produce a stream is to use the</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> generate()</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> method.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="214" sId="13" eol="1" ref="A58:XFD58" action="insertRow"/>
-  <rcc rId="215" sId="13">
-    <nc r="E58" t="inlineStr">
-      <is>
-        <t>This method has an object as an argument of the functional interface Supplier&lt;T&gt;,</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="13" sqref="E58">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="216" sheetId="14" name="[Notes.xlsx]Collections" sheetPosition="13"/>
-  <rcc rId="217" sId="14">
-    <nc r="F8" t="inlineStr">
-      <is>
-        <t>int x =10;</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="218" sId="14" eol="1" ref="A9:XFD9" action="insertRow"/>
-  <rcc rId="219" sId="14">
-    <nc r="F9" t="inlineStr">
-      <is>
-        <t>int y=15;</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="220" sId="14" eol="1" ref="A10:XFD10" action="insertRow"/>
-  <rcc rId="221" sId="14">
-    <nc r="F10" t="inlineStr">
-      <is>
-        <t>int z =20;</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="222" sId="14" eol="1" ref="A13:XFD13" action="insertRow"/>
-  <rcc rId="223" sId="14">
-    <nc r="F13" t="inlineStr">
-      <is>
-        <t>We can use these by Arrays,</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="224" sId="14">
-    <nc r="F12" t="inlineStr">
-      <is>
-        <t>Representing one value to one varaible is not a problem, but declaring a huge number of variables it is difficult to declare, due to data readability.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="225" sId="14">
-    <nc r="F15" t="inlineStr">
-      <is>
-        <t>Limitations of arrays:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="226" sId="14" eol="1" ref="A16:XFD16" action="insertRow"/>
-  <rcc rId="227" sId="14">
-    <nc r="F16">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rm rId="228" sheetId="14" source="F16" destination="E17" sourceSheetId="14"/>
-  <rrc rId="229" sId="14" eol="1" ref="A18:XFD18" action="insertRow"/>
-  <rcc rId="230" sId="14">
-    <nc r="E18">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="231" sId="14">
-    <nc r="F17" t="inlineStr">
-      <is>
-        <t>Ararys are fixed in size. Knowing the exact size in real time is not always possible.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="232" sId="14">
-    <nc r="F18" t="inlineStr">
-      <is>
-        <t>Arrays can hold only homogeneous data elements.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="233" sId="14">
-    <nc r="F20" t="inlineStr">
-      <is>
-        <t>We can solve this problem by using Object Type Arrays.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="234" sId="14" eol="1" ref="A21:XFD21" action="insertRow"/>
-  <rcc rId="235" sId="14">
-    <nc r="F21" t="inlineStr">
-      <is>
-        <t>Storing any type of array</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="236" sId="14">
-    <nc r="F23" t="inlineStr">
-      <is>
-        <t>Object [] a = n ew Object [];</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="237" sId="14" eol="1" ref="A24:XFD24" action="insertRow"/>
-  <rrc rId="238" sId="14" eol="1" ref="A25:XFD25" action="insertRow"/>
-  <rcc rId="239" sId="14">
-    <nc r="F25" t="inlineStr">
-      <is>
-        <t>a[1] = new Customer();</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="240" sId="14">
-    <nc r="F24" t="inlineStr">
-      <is>
-        <t>a[0] = new Student();</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="241" sId="14">
-    <nc r="E28">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="242" sId="14">
-    <nc r="F28" t="inlineStr">
-      <is>
-        <t>Arrays concept is not implemented is not based on one standard data structure.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="243" sId="14">
-    <oc r="F28" t="inlineStr">
-      <is>
-        <t>Arrays concept is not implemented is not based on one standard data structure.</t>
+  <rcc rId="642" sId="17">
+    <oc r="D20" t="inlineStr">
+      <is>
+        <t>Development Process</t>
       </is>
     </oc>
-    <nc r="F28" t="inlineStr">
-      <is>
-        <t>Arrays concept is not implemented based on one standard data structure.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="244" sId="14" eol="1" ref="A29:XFD29" action="insertRow"/>
-  <rcc rId="245" sId="14">
-    <nc r="F29" t="inlineStr">
-      <is>
-        <t>Readymade method  support is not available , we need to  write a program,</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="246" sId="14">
-    <nc r="F32" t="inlineStr">
-      <is>
-        <t>Collections are implemented based on a standard data structure and readymade method support is available for every requirement.</t>
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t xml:space="preserve">JDBC driverManager </t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="643" sId="17" eol="1" ref="A21:XFD21" action="insertRow"/>
+  <rcc rId="644" sId="17">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>This is another keyplayer</t>
       </is>
     </nc>
   </rcc>
@@ -9011,1469 +6197,59 @@
 
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="20" sId="11" xfDxf="1" dxf="1">
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>Syntax:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" xfDxf="1" sqref="E22" start="0" length="0"/>
-  <rcc rId="21" sId="11" xfDxf="1" dxf="1">
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t xml:space="preserve"> lambda operator -&gt; body</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="22" sId="11" xfDxf="1" dxf="1">
-    <nc r="E24" t="inlineStr">
-      <is>
-        <t>where lambda operator can be:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" xfDxf="1" sqref="E25" start="0" length="0"/>
-  <rcc rId="23" sId="11" xfDxf="1" dxf="1">
-    <nc r="E26" t="inlineStr">
-      <is>
-        <t>Zero parameter:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="24" sId="11" xfDxf="1" dxf="1">
-    <nc r="E27" t="inlineStr">
-      <is>
-        <t>() -&gt; System.out.println("Zero parameter lambda");</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="25" sId="11" xfDxf="1" dxf="1">
-    <nc r="E28" t="inlineStr">
-      <is>
-        <t>One parameter:–</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="26" sId="11" xfDxf="1" dxf="1">
-    <nc r="E29" t="inlineStr">
-      <is>
-        <t>(p) -&gt; System.out.println("One parameter: " + p);</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="27" sId="11" xfDxf="1" dxf="1">
-    <nc r="E30" t="inlineStr">
-      <is>
-        <t>It is not mandatory to use parentheses, if the type of that variable can be inferred from the context</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" sqref="E21" start="0" length="2147483647">
+  <rrc rId="645" sId="17" eol="1" ref="A22:XFD22" action="insertRow"/>
+  <rcc rId="646" sId="17">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t>DM helps to connect an app to the DB based on the DB connection string.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" sqref="D20" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="11" sqref="E26" start="0" length="2147483647">
+  <rfmt sheetId="17" sqref="D14" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="11" sqref="E26 E28" start="0" length="2147483647">
+  <rfmt sheetId="17" sqref="D13" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="11" sqref="E21:E30" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N21" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E30:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N30">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:E30" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N21" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E30:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N30">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:E30" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N21" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E30:N30" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="28" sId="11" xfDxf="1" dxf="1">
-    <nc r="E31" t="inlineStr">
-      <is>
-        <t>Multiple parameters :</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="29" sId="11" xfDxf="1" dxf="1">
-    <nc r="E32" t="inlineStr">
-      <is>
-        <t>(p1, p2) -&gt; System.out.println("Multiple parameters: " + p1 + ", " + p2);</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" sqref="E21:N32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:E32" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E32:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:E32" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N21" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E32:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:E32" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E21:N21" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="N21:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E32:N32" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E31" start="0" length="2147483647">
+  <rfmt sheetId="17" sqref="D8" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rcc rId="30" sId="11">
-    <nc r="E34" t="inlineStr">
-      <is>
-        <t>Please note: Lambda expressions are just like functions and they accept parameters just like functions.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="11" sqref="E34">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E34" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="247" sId="14">
-    <nc r="J17" t="inlineStr">
-      <is>
-        <t>Collections are growable in nature.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="248" sId="14">
-    <nc r="J18" t="inlineStr">
-      <is>
-        <t>Collections can hold both homogeneous and heterogeneous objects.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F1:F1048576">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="14" sqref="J1:J1048576">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rm rId="249" sheetId="14" source="F32" destination="J28" sourceSheetId="14">
-    <rfmt sheetId="14" sqref="J28" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rcc rId="250" sId="14">
-    <oc r="J28" t="inlineStr">
-      <is>
-        <t>Collections are implemented based on a standard data structure and readymade method support is available for every requirement.</t>
-      </is>
-    </oc>
-    <nc r="J28" t="inlineStr">
-      <is>
-        <t>Collections are implemented based on a standard data structure.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="251" sId="14">
-    <nc r="J29" t="inlineStr">
-      <is>
-        <t>Readymade method support is available for every requirement.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog31.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="252" sId="14" odxf="1" dxf="1">
-    <nc r="J15" t="inlineStr">
-      <is>
-        <t>Collections Advantages over Arrays:</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog32.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="253" sId="14">
-    <oc r="J17" t="inlineStr">
-      <is>
-        <t>Collections are growable in nature.</t>
-      </is>
-    </oc>
-    <nc r="J17" t="inlineStr">
-      <is>
-        <t>Collections are growable in nature.
-(We need to scarifice the performance if we want to increase the size.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog33.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="254" sId="14">
-    <oc r="F17" t="inlineStr">
-      <is>
-        <t>Ararys are fixed in size. Knowing the exact size in real time is not always possible.</t>
-      </is>
-    </oc>
-    <nc r="F17" t="inlineStr">
-      <is>
-        <r>
-          <t xml:space="preserve">Ararys are </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>fixed in size</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>. Knowing the exact size in real time is not always possible.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="255" sId="14">
-    <oc r="J17" t="inlineStr">
-      <is>
-        <t>Collections are growable in nature.
-(We need to scarifice the performance if we want to increase the size.</t>
-      </is>
-    </oc>
-    <nc r="J17" t="inlineStr">
-      <is>
-        <r>
-          <t xml:space="preserve">Collections are </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>growable in nature.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-(We need to scarifice the performance if we want to increase the size.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="256" sId="14">
-    <nc r="E31">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="257" sId="14">
-    <nc r="F31" t="inlineStr">
-      <is>
-        <t>With respect to memory arrays are not recommended to use.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="258" sId="14">
-    <nc r="J31" t="inlineStr">
-      <is>
-        <t>With respect to memory collections are  recommended to use.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="259" sId="14">
-    <nc r="F33" t="inlineStr">
-      <is>
-        <t>With respect to performance  arrays are  recommended to use.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="260" sId="14">
-    <nc r="J33" t="inlineStr">
-      <is>
-        <t>With respect to performance  collections  are not recommended to use.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog34.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="261" sId="14">
-    <nc r="E33">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="262" sId="14">
-    <nc r="E35">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="263" sId="14">
-    <nc r="F35" t="inlineStr">
-      <is>
-        <t>We can create both int[] and Integer[], meand primitive arrays and Object arrays.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="264" sId="14">
-    <nc r="J35" t="inlineStr">
-      <is>
-        <t>Collections can hold only Objects but not primitives</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="265" sId="14" ref="A14:XFD14" action="insertRow"/>
-  <rrc rId="266" sId="14" ref="A14:XFD14" action="insertRow"/>
-  <rcc rId="267" sId="14">
-    <nc r="F15" t="inlineStr">
-      <is>
-        <t>Differences</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
+  <rfmt sheetId="17" sqref="D6" start="0" length="2147483647">
     <dxf>
       <font>
         <b/>
       </font>
     </dxf>
   </rfmt>
-  <rfmt sheetId="14" sqref="F15" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="268" sId="14">
-    <oc r="F17" t="inlineStr">
-      <is>
-        <t>Limitations of arrays:</t>
-      </is>
-    </oc>
-    <nc r="F17" t="inlineStr">
-      <is>
-        <t>Arrays</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="269" sId="14">
-    <oc r="J17" t="inlineStr">
-      <is>
-        <t>Collections Advantages over Arrays:</t>
-      </is>
-    </oc>
-    <nc r="J17" t="inlineStr">
-      <is>
-        <t>Collections</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="270" sId="14">
-    <nc r="F40" t="inlineStr">
-      <is>
-        <t>Collection andCollection Framework</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F40" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="14" sqref="F40" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="271" sId="14">
-    <nc r="F42" t="inlineStr">
-      <is>
-        <t>Collection is a group of individual objects as a single entity.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog35.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="272" sId="14" xfDxf="1" dxf="1">
-    <nc r="F45" t="inlineStr">
-      <is>
-        <t>Collection Framework</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rrc rId="273" sId="14" eol="1" ref="A46:XFD46" action="insertRow"/>
-  <rcc rId="274" sId="14">
-    <oc r="F42" t="inlineStr">
-      <is>
-        <t>Collection is a group of individual objects as a single entity.</t>
-      </is>
-    </oc>
-    <nc r="F42" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="275" sId="14">
-    <nc r="F46" t="inlineStr">
-      <is>
-        <t>Defines several classes an d interfaces which are required by group of objects as a single entity</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog36.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="276" sId="14">
-    <nc r="F49" t="inlineStr">
-      <is>
-        <t>9 key interfaces of Collection Framework:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F49" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="14" sqref="F49" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog37.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="277" sId="14">
-    <nc r="E51">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="278" sId="14">
-    <nc r="F51" t="inlineStr">
-      <is>
-        <t>Collection</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="279" sId="14" odxf="1" dxf="1">
-    <nc r="G51" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
-      </is>
-    </nc>
-    <odxf>
-      <alignment vertical="bottom" wrapText="0" readingOrder="0"/>
-    </odxf>
-    <ndxf>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rrc rId="280" sId="14" eol="1" ref="A52:XFD52" action="insertRow"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog38.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="281" sId="14" eol="1" ref="A52:XFD52" action="insertRow"/>
-  <rcc rId="282" sId="14">
-    <nc r="G52" t="inlineStr">
-      <is>
-        <t>The most common methods are in Collection interface.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog39.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="283" sId="14" eol="1" ref="A53:XFD53" action="insertRow"/>
-  <rcc rId="284" sId="14">
-    <nc r="G53" t="inlineStr">
-      <is>
-        <t>Like Array List, Link List</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="285" sId="14">
-    <oc r="G52" t="inlineStr">
-      <is>
-        <t>The most common methods are in Collection interface.</t>
-      </is>
-    </oc>
-    <nc r="G52" t="inlineStr">
-      <is>
-        <t>The most common methods are in Collection interface which are applicable for any collection object</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="G1:G1048576">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rrc rId="286" sId="14" eol="1" ref="A54:XFD54" action="insertRow"/>
-  <rcc rId="287" sId="14">
-    <nc r="G54" t="inlineStr">
-      <is>
-        <t>It is considered as root interface of collection framework.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
 </revisions>
 </file>
 
 <file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="31" sId="11">
-    <nc r="E37" t="inlineStr">
-      <is>
-        <t>Important Points:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="32" sId="11" eol="1" ref="A38:XFD38" action="insertRow"/>
-  <rfmt sheetId="11" sqref="E37" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="11" sqref="E37" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="33" sId="11" eol="1" ref="A39:XFD39" action="insertRow"/>
-  <rcc rId="34" sId="11">
-    <nc r="D39">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="35" sId="11">
-    <nc r="E39" t="inlineStr">
-      <is>
-        <t>The body of lambda expression can contain zero, one or more statements.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="36" sId="11" eol="1" ref="A40:XFD40" action="insertRow"/>
-  <rcc rId="37" sId="11">
-    <nc r="D40">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="38" sId="11">
-    <nc r="E40" t="inlineStr">
-      <is>
-        <t>When there is a single statement curly brackets are not mandatory and the return type of the anonymous function is the same as that of the body expression.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="39" sId="11" eol="1" ref="A41:XFD41" action="insertRow"/>
-  <rcc rId="40" sId="11">
-    <nc r="D41">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="41" sId="11">
-    <nc r="E41" t="inlineStr">
-      <is>
-        <t>When there are more than one statements , then these may be enclosed in curly brackets(a code block) and the return type of the anonymous function is the same as the type of the value returned within the code blockm or void if nothing is returned.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog40.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="288" sId="14">
-    <oc r="G51" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects as a single entity, should use Collections</t>
-      </is>
-    </oc>
-    <nc r="G51" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects as a single entity, should use Collection.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="289" sId="14">
-    <nc r="F56" t="inlineStr">
-      <is>
-        <t>Collection is a utility class which defines several utility methids for collection object.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog41.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="290" sId="14">
-    <oc r="F56" t="inlineStr">
-      <is>
-        <t>Collection is a utility class which defines several utility methids for collection object.</t>
-      </is>
-    </oc>
-    <nc r="F56" t="inlineStr">
-      <is>
-        <t>Collections is a utility class which defines several utility methods for collection object.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="291" sId="14">
-    <nc r="E58">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F51" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="14" sqref="F58" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="292" sId="14">
-    <oc r="F51" t="inlineStr">
-      <is>
-        <t>Collection</t>
-      </is>
-    </oc>
-    <nc r="F51" t="inlineStr">
-      <is>
-        <t>Collection Interface</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="293" sId="14">
-    <nc r="F58" t="inlineStr">
-      <is>
-        <t>List Interface</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="294" sId="14">
-    <nc r="G58" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are allowed and should be preserved in the same order, then List should be used.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="295" sId="14" eol="1" ref="A59:XFD59" action="insertRow"/>
-  <rcc rId="296" sId="14">
-    <nc r="G59" t="inlineStr">
-      <is>
-        <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. Array List
-2. Linked List
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog42.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="297" sId="14">
-    <nc r="E61">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="298" sId="14">
-    <nc r="F61" t="inlineStr">
-      <is>
-        <t>Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F61" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="299" sId="14">
-    <oc r="G58" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are allowed and should be preserved in the same order, then List should be used.</t>
-      </is>
-    </oc>
-    <nc r="G58" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the same order, then List should be used.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="300" sId="14">
-    <nc r="G61" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates should not be allowed and not preserved in the same order, then Set should be used.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="301" sId="14" eol="1" ref="A62:XFD62" action="insertRow"/>
-  <rcc rId="302" sId="14">
-    <nc r="G62" t="inlineStr">
-      <is>
-        <t>Set is the child interface of Collection.
-Implementation classes from the List are:
-1. Hash Set (1.2v)
-2. Linked Hash Set (1.4v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="303" sId="14">
-    <oc r="G59" t="inlineStr">
-      <is>
-        <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. Array List
-2. Linked List
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-      </is>
-    </oc>
-    <nc r="G59" t="inlineStr">
-      <is>
-        <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. Array List(1.2v)
-2. Linked List (1.2v)
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog43.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="304" sId="14">
-    <oc r="F51" t="inlineStr">
-      <is>
-        <t>Collection Interface</t>
-      </is>
-    </oc>
-    <nc r="F51" t="inlineStr">
-      <is>
-        <t>Collection Interface(1.2v)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog44.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rm rId="305" sheetId="14" source="J17:J37" destination="G17:G37" sourceSheetId="14">
-    <rfmt sheetId="14" sqref="G17" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G18" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G19" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G20" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G21" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G22" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G23" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G24" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G25" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G26" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G27" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G28" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G29" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G30" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G31" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G32" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G33" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G34" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G35" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G36" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-    <rfmt sheetId="14" sqref="G37" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rm>
-  <rcc rId="306" sId="14">
-    <nc r="J57" t="inlineStr">
-      <is>
-        <t>Differences between List &amp; Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="J57" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="307" sId="14">
-    <nc r="J58" t="inlineStr">
-      <is>
-        <t>List</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="308" sId="14">
-    <nc r="K58" t="inlineStr">
-      <is>
-        <t>Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="309" sId="14">
-    <nc r="J59" t="inlineStr">
-      <is>
-        <t>Duplicates are allowed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="310" sId="14">
-    <nc r="K59" t="inlineStr">
-      <is>
-        <t>Duplicates are not allowed</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="J58:K58" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="311" sId="14">
-    <nc r="J60" t="inlineStr">
-      <is>
-        <t>Insertion Order is preserved</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="312" sId="14">
-    <nc r="K60" t="inlineStr">
-      <is>
-        <t>InsertionOrder is not preserved</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="313" sId="14">
-    <nc r="E64">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="314" sId="14">
-    <nc r="F64" t="inlineStr">
-      <is>
-        <t>Sorted Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F64" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog45.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="315" sId="14" eol="1" ref="A65:XFD65" action="insertRow"/>
-  <rcc rId="316" sId="14">
-    <nc r="G65" t="inlineStr">
-      <is>
-        <t>It is the child interface of the Set interface</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="317" sId="14">
-    <oc r="G58" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the same order, then List should be used.</t>
-      </is>
-    </oc>
-    <nc r="G58" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are allowed and preserved in the insertion order, then List should be used.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="318" sId="14">
-    <nc r="G64" t="inlineStr">
-      <is>
-        <t>If you want to represent a group of individual objects where duplicates are not allowed and preserved in the insertion order, then Sorted set should be used.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog46.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="319" sId="14">
-    <oc r="F64" t="inlineStr">
-      <is>
-        <t>Sorted Set</t>
-      </is>
-    </oc>
-    <nc r="F64" t="inlineStr">
-      <is>
-        <t>Sorted Set(1.2v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="320" sId="14">
-    <oc r="F61" t="inlineStr">
-      <is>
-        <t>Set</t>
-      </is>
-    </oc>
-    <nc r="F61" t="inlineStr">
-      <is>
-        <t>Set(1.2v)\</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog47.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="321" sId="14">
-    <oc r="F61" t="inlineStr">
-      <is>
-        <t>Set(1.2v)\</t>
-      </is>
-    </oc>
-    <nc r="F61" t="inlineStr">
-      <is>
-        <t>Set(1.2v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="322" sId="14">
-    <nc r="E67">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="323" sId="14">
-    <nc r="F67" t="inlineStr">
-      <is>
-        <t>Navigable Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F67" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="324" sId="14" eol="1" ref="A68:XFD68" action="insertRow"/>
-  <rcc rId="325" sId="14">
-    <nc r="G68" t="inlineStr">
-      <is>
-        <t>It is the child interface of Sorted Set</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="326" sId="14" eol="1" ref="A69:XFD69" action="insertRow"/>
-  <rcc rId="327" sId="14">
-    <nc r="G69" t="inlineStr">
-      <is>
-        <t>It idefines several methods for navigation purpose</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog48.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="328" sId="14">
-    <oc r="F67" t="inlineStr">
-      <is>
-        <t>Navigable Set</t>
-      </is>
-    </oc>
-    <nc r="F67" t="inlineStr">
-      <is>
-        <t>Navigable Set(1.6v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="329" sId="14" eol="1" ref="A70:XFD70" action="insertRow"/>
-  <rcc rId="330" sId="14">
-    <nc r="G70" t="inlineStr">
-      <is>
-        <t>Tree Set is the implementation Class(1.2v)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog49.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="331" sId="14">
-    <nc r="E72">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F72" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="332" sId="14" eol="1" ref="A73:XFD73" action="insertRow"/>
-  <rcc rId="333" sId="14">
-    <nc r="G72" t="inlineStr">
-      <is>
-        <t>If you want ot represent a group of individual objects  prior to processing , you must use Queue.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="334" sId="14" eol="1" ref="A74:XFD74" action="insertRow"/>
-  <rcc rId="335" sId="14">
-    <nc r="F72" t="inlineStr">
-      <is>
-        <t>Queue(1.5v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="336" sId="14">
-    <nc r="G73" t="inlineStr">
-      <is>
-        <t>It is the child interface of Collection</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="337" sId="14">
-    <nc r="G74" t="inlineStr">
-      <is>
-        <t>Implementation classes from Queue are:
-1. Priority Queue (1.5v)
-2.Blocking Queue(1.5)
-…..1. Linked Blocking Queue
-…..2. Priority Blocking Queue</t>
+  <rrc rId="647" sId="17" eol="1" ref="A23:XFD23" action="insertRow"/>
+  <rcc rId="648" sId="17">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>The current version of JDBC is 4.0 with this latest version,the Driver manager wioll automatically load drivers that are in the application class path.</t>
       </is>
     </nc>
   </rcc>
@@ -10482,206 +6258,22 @@
 
 <file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="42" sheetId="12" name="[Notes.xlsx]Sheet2" sheetPosition="11"/>
-  <rcc rId="43" sId="12">
-    <nc r="D6" t="inlineStr">
-      <is>
-        <t>Generics</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog50.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="338" sId="14">
-    <nc r="G77" t="inlineStr">
-      <is>
-        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog51.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="339" sId="14" ref="A76:XFD76" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A76:XFD76" start="0" length="0"/>
-  </rrc>
-  <rcc rId="340" sId="14">
-    <nc r="E76">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="341" sId="14">
-    <nc r="F76" t="inlineStr">
-      <is>
-        <t>Map</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="F76" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rrc rId="342" sId="14" eol="1" ref="A77:XFD77" action="insertRow"/>
-  <rcc rId="343" sId="14">
-    <nc r="G77" t="inlineStr">
-      <is>
-        <t>It is not the child interface of collection</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="14" sqref="G77" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="344" sId="14">
-    <oc r="G76" t="inlineStr">
-      <is>
-        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface.</t>
-      </is>
-    </oc>
-    <nc r="G76" t="inlineStr">
-      <is>
-        <t>If we want to represent a group of individual objects as key value pairs, we need to use Map interface. Where key is an object and value is also an object.
-Duplicate keys are not allowed but duplicate values are allowed.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog52.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="345" sId="14">
-    <oc r="G62" t="inlineStr">
-      <is>
-        <t>Set is the child interface of Collection.
-Implementation classes from the List are:
-1. Hash Set (1.2v)
-2. Linked Hash Set (1.4v)</t>
-      </is>
-    </oc>
-    <nc r="G62" t="inlineStr">
-      <is>
-        <t>Set is the child interface of Collection.
-Implementation classes from the Set are:
-1. Hash Set (1.2v)
-2. Linked Hash Set (1.4v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="346" sId="14" eol="1" ref="A78:XFD78" action="insertRow"/>
-  <rcc rId="347" sId="14">
-    <oc r="F76" t="inlineStr">
-      <is>
-        <t>Map</t>
-      </is>
-    </oc>
-    <nc r="F76" t="inlineStr">
-      <is>
-        <t>Map(1.2v)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="348" sId="14">
-    <nc r="G78" t="inlineStr">
-      <is>
-        <t>Implementation classes from the Map are:
-1. Hash Map (1.2v)
-2. Linked Hash Map (1.4v)
-3. Weak Hash Map(1.2v)
-4. Identity Hash Map(1.4v)
-5. Hash Table(1.0)- it is the child of dictionary(1.0) which is abstract class
-6. Properties(1.0)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog53.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="349" sId="14">
-    <nc r="E80">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="350" sId="14">
-    <nc r="F80" t="inlineStr">
-      <is>
-        <t>Sorted Map</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog54.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="14" sqref="F80" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog55.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="351" sId="14" ref="A1:XFD1" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
-  </rrc>
-  <rrc rId="352" sId="14" ref="A1:XFD1" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
-  </rrc>
-  <rrc rId="353" sId="14" ref="A1:XFD1" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
-  </rrc>
-  <rrc rId="354" sId="14" ref="A1:XFD1" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
-  </rrc>
-  <rrc rId="355" sId="14" ref="A1:XFD1" action="deleteRow">
-    <rfmt sheetId="14" xfDxf="1" sqref="A1:XFD1" start="0" length="0"/>
-  </rrc>
-  <rcc rId="356" sId="14">
-    <oc r="G54" t="inlineStr">
-      <is>
-        <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. Array List(1.2v)
-2. Linked List (1.2v)
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-      </is>
-    </oc>
-    <nc r="G54" t="inlineStr">
-      <is>
-        <t>List is the child interface of Collection.
-Implementation classes from the List are:
-1. ArrayList(1.2v)
-2. LinkedList (1.2v)
-3. Vector &amp; Stack.(Legacy classes-the classes coming from old generation 1.0 version)</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog56.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
-  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+  <rrc rId="649" sId="17" eol="1" ref="A24:XFD24" action="insertRow"/>
+  <rcc rId="650" sId="17">
+    <nc r="D24" t="inlineStr">
+      <is>
+        <t>so there is no additional work required to load the driver.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="651" sId="17" eol="1" ref="A25:XFD25" action="insertRow"/>
+  <rcc rId="652" sId="17">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>however legacy JDBC3.0 should be explicity loaded with the Class.forName</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -10742,56 +6334,62 @@
 
 <file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="44" sId="12" xfDxf="1" dxf="1">
-    <nc r="D7" t="inlineStr">
-      <is>
-        <t>The most commonly used type parameter names are:</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="12" xfDxf="1" sqref="D8" start="0" length="0"/>
-  <rcc rId="45" sId="12" xfDxf="1" dxf="1">
-    <nc r="D9" t="inlineStr">
-      <is>
-        <t>E - Element (used extensively by the Java Collections Framework)</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="46" sId="12" xfDxf="1" dxf="1">
-    <nc r="D10" t="inlineStr">
-      <is>
-        <t>K - Key</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="47" sId="12" xfDxf="1" dxf="1">
-    <nc r="D11" t="inlineStr">
-      <is>
-        <t>N - Number</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="48" sId="12" xfDxf="1" dxf="1">
-    <nc r="D12" t="inlineStr">
-      <is>
-        <t>T - Type</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="49" sId="12" xfDxf="1" dxf="1">
-    <nc r="D13" t="inlineStr">
-      <is>
-        <t>V - Value</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="50" sId="12" xfDxf="1" dxf="1">
-    <nc r="D14" t="inlineStr">
-      <is>
-        <t>S,U,V etc. - 2nd, 3rd, 4th types</t>
-      </is>
-    </nc>
-  </rcc>
+  <rcc rId="653" sId="17">
+    <oc r="D25" t="inlineStr">
+      <is>
+        <t>however legacy JDBC3.0 should be explicity loaded with the Class.forName</t>
+      </is>
+    </oc>
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>however legacy JDBC3.0 should be explicity loaded with the Class.forName(DriverName)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" sqref="E1:E1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rm rId="654" sheetId="17" source="D21:D25" destination="E21:E25" sourceSheetId="17">
+    <rfmt sheetId="17" sqref="E21" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="17" sqref="E22" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="17" sqref="E23" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="17" sqref="E24" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+    <rfmt sheetId="17" sqref="E25" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1" readingOrder="0"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rfmt sheetId="17" sqref="E1:E1048576">
+    <dxf>
+      <alignment wrapText="0" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="17" sqref="E1:E1048576">
+    <dxf>
+      <alignment wrapText="1" readingOrder="0"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
 </revisions>
 </file>
 
@@ -11186,32 +6784,9 @@
 
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="51" sId="12" xfDxf="1" dxf="1">
-    <nc r="D18" t="inlineStr">
-      <is>
-        <t>Java Generic methods and generic classes enable programmers to specify, with a single method declaration, a set of related methods, or with a single class declaration, a set of related types, respectively.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="52" sId="12" xfDxf="1" dxf="1">
-    <nc r="D19" t="inlineStr">
-      <is>
-        <t>Generics also provide compile-time type safety that allows programmers to catch invalid types at compile time.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="53" sId="12" xfDxf="1" dxf="1">
-    <nc r="D20" t="inlineStr">
-      <is>
-        <t>Using Java Generic concept, we might write a generic method for sorting an array of objects, then invoke the generic method with Integer arrays, Double arrays, String arrays and so on, to sort the array elements.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="12" sqref="D1:D1048576">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
+  <ris rId="655" sheetId="18" name="[Notes.xlsx]Strings" sheetPosition="1"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
+  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
 </revisions>
 </file>
 
@@ -11678,168 +7253,13 @@
 
 <file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="54" sId="12">
-    <oc r="D6" t="inlineStr">
-      <is>
-        <t>Generics</t>
-      </is>
-    </oc>
-    <nc r="D6"/>
-  </rcc>
-  <rcc rId="55" sId="12">
-    <oc r="D7" t="inlineStr">
-      <is>
-        <t>The most commonly used type parameter names are:</t>
-      </is>
-    </oc>
-    <nc r="D7"/>
-  </rcc>
-  <rcc rId="56" sId="12">
-    <oc r="D9" t="inlineStr">
-      <is>
-        <t>E - Element (used extensively by the Java Collections Framework)</t>
-      </is>
-    </oc>
-    <nc r="D9"/>
-  </rcc>
-  <rcc rId="57" sId="12">
-    <oc r="D10" t="inlineStr">
-      <is>
-        <t>K - Key</t>
-      </is>
-    </oc>
-    <nc r="D10"/>
-  </rcc>
-  <rcc rId="58" sId="12">
-    <oc r="D11" t="inlineStr">
-      <is>
-        <t>N - Number</t>
-      </is>
-    </oc>
-    <nc r="D11"/>
-  </rcc>
-  <rcc rId="59" sId="12">
-    <oc r="D12" t="inlineStr">
-      <is>
-        <t>T - Type</t>
-      </is>
-    </oc>
-    <nc r="D12"/>
-  </rcc>
-  <rcc rId="60" sId="12">
-    <oc r="D13" t="inlineStr">
-      <is>
-        <t>V - Value</t>
-      </is>
-    </oc>
-    <nc r="D13"/>
-  </rcc>
-  <rcc rId="61" sId="12">
-    <oc r="D14" t="inlineStr">
-      <is>
-        <t>S,U,V etc. - 2nd, 3rd, 4th types</t>
-      </is>
-    </oc>
-    <nc r="D14"/>
-  </rcc>
-  <rrc rId="62" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="63" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="64" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="65" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="66" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="67" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="68" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="69" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="70" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-    <rfmt sheetId="12" sqref="D6" start="0" length="0">
-      <dxf>
-        <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      </dxf>
-    </rfmt>
-  </rrc>
-  <rrc rId="71" sId="12" ref="A6:XFD6" action="deleteRow">
-    <rfmt sheetId="12" xfDxf="1" sqref="A6:XFD6" start="0" length="0"/>
-  </rrc>
-  <rcc rId="72" sId="12">
-    <nc r="D4" t="inlineStr">
-      <is>
-        <t>Introduction</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="12" sqref="D4" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D4" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
+  <rcc rId="656" sId="18">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>String is a non primitive type</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -15286,491 +10706,67 @@
 
 <file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="73" sId="12" xfDxf="1" dxf="1">
-    <nc r="D14" t="inlineStr">
-      <is>
-        <t>Java Generics - Classes</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" sqref="D14" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D14" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="74" sId="12" xfDxf="1" dxf="1">
-    <nc r="D15" t="inlineStr">
-      <is>
-        <t>A generic class declaration looks like a non-generic class declaration, except that the class name is followed by a type parameter section.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="75" sId="12" xfDxf="1" dxf="1">
-    <nc r="D16" t="inlineStr">
-      <is>
-        <t>The type parameter section of a generic class can have one or more type parameters separated by commas. These classes are known as parameterized classes or parameterized types because they accept one or more parameters</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="76" sId="12" xfDxf="1" dxf="1">
-    <nc r="D18" t="inlineStr">
-      <is>
-        <t>Syntax</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" xfDxf="1" sqref="D19" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="77" sId="12" xfDxf="1" dxf="1">
-    <nc r="D20" t="inlineStr">
-      <is>
-        <t>public class Box&lt;T&gt; {</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="78" sId="12" xfDxf="1" dxf="1">
-    <nc r="D21" t="inlineStr">
-      <is>
-        <t xml:space="preserve">   private T t;</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="79" sId="12" xfDxf="1" dxf="1">
-    <nc r="D22" t="inlineStr">
-      <is>
-        <t>}</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" sqref="D18" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D22" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:D22">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:D22" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:D22" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D22" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <u/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="E18" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E19" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E20" start="0" length="0"/>
-  <rfmt sheetId="12" xfDxf="1" sqref="E21" start="0" length="0"/>
-  <rcc rId="80" sId="12" odxf="1" dxf="1">
-    <nc r="E18" t="inlineStr">
-      <is>
-        <t>Where</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="81" sId="12" odxf="1" dxf="1">
-    <nc r="E19" t="inlineStr">
-      <is>
-        <t>Box − Box is a generic class.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="82" sId="12" odxf="1" dxf="1">
-    <nc r="E20" t="inlineStr">
-      <is>
-        <t>T − The generic type parameter passed to generic class. It can take any Object.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </ndxf>
-  </rcc>
-  <rcc rId="83" sId="12" odxf="1" dxf="1">
-    <nc r="E21" t="inlineStr">
-      <is>
-        <t>t − Instance of generic type T.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="12" sqref="E22" start="0" length="0">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="top" wrapText="1" readingOrder="0"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:D22" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:E18" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="E18:E22" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D22:E22" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D18:E22">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <vertical/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D17:D23" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D17:E17" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="E17:E23" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" sqref="D23:E23" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="84" sId="12">
-    <nc r="E23" t="inlineStr">
-      <is>
-        <t>The T is a type parameter passed to the generic class Box and should be passed when a Box object is created</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="12" sqref="E23">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="12" xfDxf="1" sqref="D29" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="85" sId="12" odxf="1" dxf="1">
-    <nc r="D29" t="inlineStr">
-      <is>
-        <t>Type Parameter Naming Conventions</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rcc rId="86" sId="12" xfDxf="1" dxf="1">
-    <nc r="D31" t="inlineStr">
-      <is>
-        <t>By convention, type parameter names are named as single, uppercase letters so that a type parameter can be distinguished easily with an ordinary class or interface name. Following is the list of commonly used type parameter names </t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="87" sId="12" xfDxf="1" dxf="1">
-    <nc r="D33" t="inlineStr">
-      <is>
-        <t>E − Element, and is mainly used by Java Collections framework.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="88" sId="12" xfDxf="1" dxf="1">
-    <nc r="D34" t="inlineStr">
-      <is>
-        <t>K − Key, and is mainly used to represent parameter type of key of a map.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="89" sId="12" xfDxf="1" dxf="1">
-    <nc r="D35" t="inlineStr">
-      <is>
-        <t>V − Value, and is mainly used to represent parameter type of value of a map.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="90" sId="12" xfDxf="1" dxf="1">
-    <nc r="D36" t="inlineStr">
-      <is>
-        <t>N − Number, and is mainly used to represent numbers.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="91" sId="12" xfDxf="1" dxf="1">
-    <nc r="D37" t="inlineStr">
-      <is>
-        <t>T − Type, and is mainly used to represent first generic type parameter.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="92" sId="12" xfDxf="1" dxf="1">
-    <nc r="D38" t="inlineStr">
-      <is>
-        <t>S − Type, and is mainly used to represent second generic type parameter.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="93" sId="12" xfDxf="1" dxf="1">
-    <nc r="D39" t="inlineStr">
-      <is>
-        <t>U − Type, and is mainly used to represent third generic type parameter.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="94" sId="12" xfDxf="1" dxf="1">
-    <nc r="D40" t="inlineStr">
-      <is>
-        <t>V − Type, and is mainly used to represent fourth generic type parameter.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
+  <rrc rId="657" sId="18" eol="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="658" sId="18">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>String is a class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="659" sId="18" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="660" sId="18">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>String is a type of Object that can hold texts.</t>
+      </is>
+    </nc>
   </rcc>
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="614" sId="16">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>Maven is an automation and management tool developed by Apache Software Foundation.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="615" sId="16" xfDxf="1" dxf="1">
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>Maven is a powerful project management tool that is based on POM (project object model).</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="16" xfDxf="1" sqref="D9" start="0" length="0"/>
+  <rcc rId="616" sId="16">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>It is used for projects build, dependency and documentation.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="617" sId="16" xfDxf="1" dxf="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>It simplifies the build process like ANT.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="618" sId="16" xfDxf="1" dxf="1">
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>In short terms we can tell maven is a tool that can be used for building and managing any Java-based project.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -16097,12 +11093,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C12" sqref="C12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -16111,6 +11107,623 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:F122"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
+    <col min="5" max="5" width="84.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D6" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D11" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D19" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>169</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D73" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F76" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>194</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>166</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>201</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>202</v>
+      </c>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>204</v>
+      </c>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>156</v>
+      </c>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>157</v>
+      </c>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>206</v>
+      </c>
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>157</v>
+      </c>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98" s="14"/>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="5"/>
+      <c r="F99" s="14"/>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="5"/>
+      <c r="F100" s="14"/>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>209</v>
+      </c>
+      <c r="E103" t="s">
+        <v>218</v>
+      </c>
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>213</v>
+      </c>
+      <c r="E108" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>214</v>
+      </c>
+      <c r="E109" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F116" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E119" s="12"/>
+      <c r="F119" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F122" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
+      <selection activeCell="D119" sqref="D119"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+      <selection activeCell="D119" sqref="D119"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:J49"/>
   <sheetViews>
@@ -16235,11 +11848,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -16249,11 +11862,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -16589,25 +12202,25 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -16929,13 +12542,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -16945,12 +12558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D5:M60"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17200,14 +12813,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
+      <selection activeCell="R73" sqref="R73"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B16" sqref="B16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
-      <selection activeCell="E42" sqref="E42"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17215,12 +12828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17326,7 +12939,7 @@
       <c r="G25" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J25" s="72" t="s">
+      <c r="J25" s="73" t="s">
         <v>620</v>
       </c>
       <c r="K25" s="21"/>
@@ -17341,7 +12954,7 @@
       <c r="G26" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="73" t="s">
+      <c r="J26" s="74" t="s">
         <v>621</v>
       </c>
       <c r="K26" s="27"/>
@@ -17350,7 +12963,7 @@
       <c r="N26" s="28"/>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="74" t="s">
+      <c r="J27" s="75" t="s">
         <v>622</v>
       </c>
       <c r="K27" s="21"/>
@@ -17368,7 +12981,7 @@
       <c r="G28" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="J28" s="75" t="s">
+      <c r="J28" s="76" t="s">
         <v>623</v>
       </c>
       <c r="K28" s="19"/>
@@ -17377,7 +12990,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J29" s="76" t="s">
+      <c r="J29" s="75" t="s">
         <v>624</v>
       </c>
       <c r="K29" s="19"/>
@@ -17395,7 +13008,7 @@
       <c r="G30" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J30" s="75" t="s">
         <v>625</v>
       </c>
       <c r="K30" s="19"/>
@@ -17404,7 +13017,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J31" s="77"/>
+      <c r="J31" s="72"/>
       <c r="K31" s="27"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27"/>
@@ -17420,7 +13033,7 @@
       <c r="G32" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J32" s="78" t="s">
+      <c r="J32" s="76" t="s">
         <v>626</v>
       </c>
       <c r="K32" s="21"/>
@@ -17429,7 +13042,7 @@
       <c r="N32" s="22"/>
     </row>
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J33" s="76" t="s">
+      <c r="J33" s="75" t="s">
         <v>627</v>
       </c>
       <c r="K33" s="19"/>
@@ -17438,7 +13051,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J34" s="76" t="s">
+      <c r="J34" s="75" t="s">
         <v>628</v>
       </c>
       <c r="K34" s="19"/>
@@ -17450,14 +13063,14 @@
       <c r="F35" s="18" t="s">
         <v>400</v>
       </c>
-      <c r="J35" s="77"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
       <c r="M35" s="27"/>
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="76" t="s">
         <v>629</v>
       </c>
       <c r="K36" s="19"/>
@@ -17469,7 +13082,7 @@
       <c r="F37" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="J37" s="76" t="s">
+      <c r="J37" s="75" t="s">
         <v>630</v>
       </c>
       <c r="K37" s="19"/>
@@ -17478,14 +13091,14 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J38" s="77"/>
+      <c r="J38" s="72"/>
       <c r="K38" s="27"/>
       <c r="L38" s="27"/>
       <c r="M38" s="27"/>
       <c r="N38" s="28"/>
     </row>
     <row r="39" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J39" s="75" t="s">
+      <c r="J39" s="76" t="s">
         <v>631</v>
       </c>
       <c r="K39" s="19"/>
@@ -17497,7 +13110,7 @@
       <c r="F40" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="J40" s="76" t="s">
+      <c r="J40" s="75" t="s">
         <v>632</v>
       </c>
       <c r="K40" s="19"/>
@@ -17509,14 +13122,14 @@
       <c r="F41" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J41" s="77"/>
+      <c r="J41" s="72"/>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
       <c r="M41" s="27"/>
       <c r="N41" s="28"/>
     </row>
     <row r="42" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J42" s="75" t="s">
+      <c r="J42" s="76" t="s">
         <v>633</v>
       </c>
       <c r="K42" s="19"/>
@@ -17525,7 +13138,7 @@
       <c r="N42" s="24"/>
     </row>
     <row r="43" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="75" t="s">
         <v>634</v>
       </c>
       <c r="K43" s="19"/>
@@ -17537,7 +13150,7 @@
       <c r="F44" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="J44" s="76" t="s">
+      <c r="J44" s="75" t="s">
         <v>635</v>
       </c>
       <c r="K44" s="19"/>
@@ -17546,7 +13159,7 @@
       <c r="N44" s="24"/>
     </row>
     <row r="45" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J45" s="77"/>
+      <c r="J45" s="72"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
       <c r="M45" s="27"/>
@@ -17562,7 +13175,7 @@
       <c r="G46" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="J46" s="76" t="s">
+      <c r="J46" s="75" t="s">
         <v>636</v>
       </c>
       <c r="K46" s="19"/>
@@ -17574,7 +13187,7 @@
       <c r="G47" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J47" s="73" t="s">
+      <c r="J47" s="74" t="s">
         <v>637</v>
       </c>
       <c r="K47" s="27"/>
@@ -17780,13 +13393,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -17796,12 +13409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F214"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18690,8 +14303,8 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A79">
-      <selection activeCell="A104" sqref="A104"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
@@ -18701,14 +14314,203 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D7:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="107.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="5" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="5" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="5" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="E22" sqref="E22"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
   <customSheetViews>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18718,24 +14520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F42"/>
   <sheetViews>
@@ -18907,12 +14692,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -18926,7 +14711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
@@ -18943,11 +14728,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -18956,7 +14741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H28"/>
   <sheetViews>
@@ -19109,11 +14894,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -19123,12 +14908,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19176,12 +14961,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19192,7 +14977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:D8"/>
   <sheetViews>
@@ -19234,11 +15019,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -19247,11 +15032,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -19438,12 +15223,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19457,7 +15242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O46"/>
   <sheetViews>
@@ -19702,636 +15487,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F122"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="68.7109375" customWidth="1"/>
-    <col min="5" max="5" width="84.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F5" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33" t="s">
-        <v>160</v>
-      </c>
-      <c r="E33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>161</v>
-      </c>
-      <c r="E34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D73" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" t="s">
-        <v>196</v>
-      </c>
-      <c r="F75" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="76" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F76" s="12" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>200</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D87" t="s">
-        <v>201</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="14"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D90" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D91" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D93" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93" s="14"/>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D94" t="s">
-        <v>206</v>
-      </c>
-      <c r="F94" s="14"/>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
-        <v>174</v>
-      </c>
-      <c r="F95" s="14"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>157</v>
-      </c>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F97" s="14"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="5"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="14"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F101" s="14"/>
-    </row>
-    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F102" s="14"/>
-    </row>
-    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>209</v>
-      </c>
-      <c r="E103" t="s">
-        <v>218</v>
-      </c>
-      <c r="F103" s="14"/>
-    </row>
-    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D108" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D109" t="s">
-        <v>214</v>
-      </c>
-      <c r="E109" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D110" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D113" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D114" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F116" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="E119" s="12"/>
-      <c r="F119" s="12" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="F122" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
-      <selection activeCell="D119" sqref="D119"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B1">
-      <selection activeCell="D119" sqref="D119"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-    </customSheetView>
-  </customSheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="5" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,8 @@
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +56,7 @@
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E37" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
+    <comment ref="E41" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D46" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
+    <comment ref="D50" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="687">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -4173,6 +4173,109 @@
   </si>
   <si>
     <t>String is a type of Object that can hold texts.</t>
+  </si>
+  <si>
+    <t>Static variables are called class variables</t>
+  </si>
+  <si>
+    <t>Static methods can access static data because both belong to the class.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static methods cant access instance variables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instance methods can access the static data </t>
+  </si>
+  <si>
+    <t>Performing basic JDBC operations</t>
+  </si>
+  <si>
+    <t>Submitting SQL Queries</t>
+  </si>
+  <si>
+    <t>Development Process</t>
+  </si>
+  <si>
+    <t>Process Result Set</t>
+  </si>
+  <si>
+    <t>Inserting data into DB with JDBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get a connection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a statement </t>
+  </si>
+  <si>
+    <t>dburl, user, pw are strings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Execute SQL  insert   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myStmt.executeUpdate("insert into employees"+"(last_name,first_name, email,department,salary)"+"values"+"('Wright','Eric','ericweright@gmail.com','HR', 33000.00)");</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get a connection to the DB   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myConn = DriverManager.getConnection(dbUrl, username,pw)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Create a statement object  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myStmt = myConn .createStatement();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Execute SQL  query  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>myRs = myStmt.executeQuery("select*from employees");</t>
+    </r>
+  </si>
+  <si>
+    <t>Update data</t>
   </si>
 </sst>
 </file>
@@ -4182,7 +4285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4411,6 +4514,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4786,7 +4897,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2628900</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2078</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4847,8 +4958,8 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2590800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1485900</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4908,7 +5019,7 @@
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3438525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>520700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4969,8 +5080,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5029,13 +5140,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>2343150</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5073,13 +5184,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4457701</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>65344</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5166,440 +5277,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{DB89652D-01E9-4ECD-9321-4628965A13E2}" lastGuid="{6BB0854D-C15D-4DCE-BC56-3E9E33CA2391}" diskRevisions="1" revisionId="660" version="33">
-  <header guid="{5D38786E-C7F6-4975-B210-F9CE71B2571E}" dateTime="2020-01-20T09:19:18" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId57" minRId="357" maxRId="359">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D672103A-D6C1-4278-9204-2FB00287DBFD}" dateTime="2020-01-20T09:28:27" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId58" minRId="360" maxRId="362">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D51C6AAE-0BCE-4C70-966F-5B88C4F249F2}" dateTime="2020-01-20T09:31:55" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId59" minRId="363" maxRId="364">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{23EB6EE6-DF98-4C09-AAF9-1F947B4CD4FB}" dateTime="2020-01-20T09:32:14" maxSheetId="15" userName="SIRISHA AYYAGARI" r:id="rId60" minRId="365" maxRId="366">
-    <sheetIdMap count="14">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C934B96F-7183-47E6-9895-B94CAE1A0EDC}" dateTime="2020-01-20T09:53:57" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId61" minRId="367" maxRId="368">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E61088C8-E29A-4C62-B3F6-F62EB5DFA665}" dateTime="2020-01-20T09:57:04" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId62" minRId="369" maxRId="372">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{F3D6DD9D-96B3-4637-A0B3-61B2C5A4000D}" dateTime="2020-01-20T10:03:36" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId63" minRId="373" maxRId="374">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{EAEF3449-BB01-4E73-9D9E-0F491C05443B}" dateTime="2020-01-20T10:09:09" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId64" minRId="375" maxRId="378">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{12830BFB-792D-4FF6-B3AF-16C0E872E13C}" dateTime="2020-01-20T10:11:49" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId65" minRId="379" maxRId="381">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{783A259D-F1C5-40E4-B944-E2C9569BF83B}" dateTime="2020-01-20T10:15:45" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId66" minRId="382" maxRId="396">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{1D9EC272-AA7A-4706-BC1C-9BB4430436F0}" dateTime="2020-01-20T10:17:14" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId67" minRId="397" maxRId="402">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3551D06F-4684-4CF0-92EC-A08CE357AD2A}" dateTime="2020-01-20T10:17:20" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId68">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{3212106A-76A5-4921-981F-B6B82B741C9B}" dateTime="2020-01-20T10:23:50" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId69" minRId="403">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{BE4D8F1E-1F0C-4F5C-B44D-BA98157ED21F}" dateTime="2020-01-20T10:26:13" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId70" minRId="404" maxRId="408">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{B567659B-6D34-4289-9CC8-33FC784D52DE}" dateTime="2020-01-20T10:30:22" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId71" minRId="409" maxRId="415">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{CD392C11-FF13-4F55-8C9A-34F9BA10AD1D}" dateTime="2020-01-20T10:30:44" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId72" minRId="416">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{8649CA3F-9DBF-4A92-BB20-FF5ED3D5932F}" dateTime="2020-01-20T10:33:20" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId73" minRId="417" maxRId="419">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{E31037AA-0C96-4590-B774-F3DB72D25121}" dateTime="2020-01-20T10:39:54" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId74" minRId="420" maxRId="422">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7FC13229-663C-48C4-8106-D63D25793997}" dateTime="2020-01-20T10:53:25" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId75" minRId="423" maxRId="427">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{AB2E190E-02C0-44EC-9353-50BBAAE35EF9}" dateTime="2020-01-20T11:33:37" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId76" minRId="428" maxRId="429">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{C8CA0CD1-EDBB-47A6-B86C-24D4EE9E7BF5}" dateTime="2020-01-21T14:21:24" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId77" minRId="430" maxRId="437">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{053494EF-D893-4FDB-9BA6-00B0F4D6F8DC}" dateTime="2020-01-21T14:32:52" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId78" minRId="438" maxRId="439">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{7077FDCA-FAD9-42CC-BD89-6AF53321BB06}" dateTime="2020-01-21T14:33:11" maxSheetId="16" userName="SIRISHA AYYAGARI" r:id="rId79" minRId="440">
-    <sheetIdMap count="15">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D1CA5EF9-ECC3-411F-88FD-D47BFB5D8C8E}" lastGuid="{024B8CAB-FC45-4009-8A34-D48A49F45967}" diskRevisions="1" revisionId="849" version="35">
   <header guid="{267EAB5A-0784-4FFD-927C-D58BF2C55C37}" dateTime="2020-01-23T12:03:09" maxSheetId="17" userName="SIRISHA AYYAGARI" r:id="rId80" minRId="441">
     <sheetIdMap count="16">
       <sheetId val="1"/>
@@ -6022,6 +5700,138 @@
       <sheetId val="17"/>
     </sheetIdMap>
   </header>
+  <header guid="{24FA0F2C-8B09-4AE1-81FE-FF55610C4096}" dateTime="2020-02-20T10:06:22" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId100" minRId="661" maxRId="732">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FD4AD30B-ABF1-4A99-957A-68BD18F37F53}" dateTime="2020-02-20T10:09:00" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId101" minRId="733" maxRId="822">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3E36C878-B4CF-4A34-A08D-48B6EE421655}" dateTime="2020-02-20T10:54:00" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId102" minRId="823" maxRId="836">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{DD7E9D41-370A-48A7-8382-6DEA7A01CE6F}" dateTime="2020-02-20T11:10:25" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId103" minRId="837" maxRId="844">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{024B8CAB-FC45-4009-8A34-D48A49F45967}" dateTime="2020-02-20T11:11:23" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId104" minRId="845" maxRId="848">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D1CA5EF9-ECC3-411F-88FD-D47BFB5D8C8E}" dateTime="2020-02-20T11:28:01" maxSheetId="19" userName="SIRISHA AYYAGARI" r:id="rId105" minRId="849">
+    <sheetIdMap count="18">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -6106,6 +5916,1169 @@
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
   <rsnm rId="635" sheetId="17" oldName="[Notes.xlsx]Sheet1 (2)" newName="[Notes.xlsx]DBMS"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="661" sId="3" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="662" sId="17" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="663" sId="16" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="664" sId="15" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="665" sId="14" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="666" sId="13" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="667" sId="11" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="668" sId="12" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="669" sId="10" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="670" sId="9" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="671" sId="8" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="672" sId="7" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="673" sId="6" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="674" sId="5" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="675" sId="4" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="676" sId="2" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="677" sId="18" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rrc rId="678" sId="1" eol="1" ref="A6:XFD6" action="insertRow"/>
+  <rcc rId="679" sId="3">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="680" sId="17">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="681" sId="16">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="682" sId="15">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="683" sId="14">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="684" sId="13">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="685" sId="11">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="686" sId="12">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="687" sId="10">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="688" sId="9">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="689" sId="8">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="690" sId="7">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="691" sId="6">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="692" sId="5">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="693" sId="4">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="694" sId="2">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="695" sId="18">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="696" sId="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Static variables are called class variables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="697" sId="3" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="698" sId="17" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="699" sId="16" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="700" sId="15" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="701" sId="14" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="702" sId="13" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="703" sId="11" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="704" sId="12" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="705" sId="10" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="706" sId="9" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="707" sId="8" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="708" sId="7" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="709" sId="6" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="710" sId="5" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="711" sId="4" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="712" sId="2" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="713" sId="18" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rrc rId="714" sId="1" eol="1" ref="A7:XFD7" action="insertRow"/>
+  <rcc rId="715" sId="3">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="716" sId="17">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="717" sId="16">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="718" sId="15">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="719" sId="14">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="720" sId="13">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="721" sId="11">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="722" sId="12">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="723" sId="10">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="724" sId="9">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="725" sId="8">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="726" sId="7">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="727" sId="6">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="728" sId="5">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="729" sId="4">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="730" sId="2">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="731" sId="18">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="732" sId="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="733" sId="3" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="734" sId="17" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="735" sId="16" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="736" sId="15" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="737" sId="14" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="738" sId="13" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="739" sId="11" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="740" sId="12" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="741" sId="10" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="742" sId="9" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="743" sId="8" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="744" sId="7" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="745" sId="6" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="746" sId="5" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="747" sId="4" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="748" sId="2" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="749" sId="18" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rrc rId="750" sId="1" eol="1" ref="A8:XFD8" action="insertRow"/>
+  <rcc rId="751" sId="3">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="752" sId="17">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="753" sId="16">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="754" sId="15">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="755" sId="14">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="756" sId="13">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="757" sId="11">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="758" sId="12">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="759" sId="10">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="760" sId="9">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="761" sId="8">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="762" sId="7">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="763" sId="6">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="764" sId="5">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="765" sId="4">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="766" sId="2">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="767" sId="18">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="768" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods cant access static data because both belong to the class.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Static methods can access static data because both belong to the class.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="769" sId="3">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="770" sId="17">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="771" sId="16">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="772" sId="15">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="773" sId="14">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="774" sId="13">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="775" sId="11">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="776" sId="12">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="777" sId="10">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="778" sId="9">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="779" sId="8">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="780" sId="7">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="781" sId="6">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="782" sId="5">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="783" sId="4">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="784" sId="2">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="785" sId="18">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="786" sId="1">
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Static methods cant access instance variables </t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="787" sId="3" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="788" sId="17" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="789" sId="16" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="790" sId="15" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="791" sId="14" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="792" sId="13" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="793" sId="11" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="794" sId="12" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="795" sId="10" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="796" sId="9" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="797" sId="8" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="798" sId="7" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="799" sId="6" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="800" sId="5" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="801" sId="4" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="802" sId="2" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="803" sId="18" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rrc rId="804" sId="1" eol="1" ref="A9:XFD9" action="insertRow"/>
+  <rcc rId="805" sId="3">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="806" sId="17">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="807" sId="16">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="808" sId="15">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="809" sId="14">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="810" sId="13">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="811" sId="11">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="812" sId="12">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="813" sId="10">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="814" sId="9">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="815" sId="8">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="816" sId="7">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="817" sId="6">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="818" sId="5">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="819" sId="4">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="820" sId="2">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="821" sId="18">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="822" sId="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Instance methods can access the static data </t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="823" sId="17">
+    <nc r="D33" t="inlineStr">
+      <is>
+        <t>Performing basic JDBC operations</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" sqref="D33" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="824" sId="17" eol="1" ref="A34:XFD34" action="insertRow"/>
+  <rcc rId="825" sId="17">
+    <nc r="D34" t="inlineStr">
+      <is>
+        <t>Submitting SQL Queries</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="826" sId="17" eol="1" ref="A35:XFD35" action="insertRow"/>
+  <rcc rId="827" sId="17">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>Development Process</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" sqref="E35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="828" sId="17" eol="1" ref="A36:XFD36" action="insertRow"/>
+  <rcc rId="829" sId="17">
+    <nc r="E36" t="inlineStr">
+      <is>
+        <t>Get a connection to the DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="830" sId="17" eol="1" ref="A37:XFD37" action="insertRow"/>
+  <rcc rId="831" sId="17">
+    <nc r="E37" t="inlineStr">
+      <is>
+        <t>Create a statement object</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="832" sId="17" eol="1" ref="A38:XFD38" action="insertRow"/>
+  <rcc rId="833" sId="17">
+    <nc r="E38" t="inlineStr">
+      <is>
+        <t>Execute SQL  query</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="834" sId="17" eol="1" ref="A39:XFD39" action="insertRow"/>
+  <rcc rId="835" sId="17">
+    <nc r="E39" t="inlineStr">
+      <is>
+        <t>Process Result Set</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="17" sqref="D34" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="836" sId="17">
+    <nc r="D41" t="inlineStr">
+      <is>
+        <t>Inserting data into DB with JDBC</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="837" sId="17" odxf="1" dxf="1">
+    <nc r="E42" t="inlineStr">
+      <is>
+        <t>Development Process</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <b val="0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </odxf>
+    <ndxf>
+      <font>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="838" sId="17">
+    <nc r="E43" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Get a connection </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="839" sId="17">
+    <nc r="E44" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Create a statement </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="840" sId="17">
+    <oc r="E36" t="inlineStr">
+      <is>
+        <t>Get a connection to the DB</t>
+      </is>
+    </oc>
+    <nc r="E36" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Get a connection to the DB   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myConn = DriverManager.getConnection(dbUrl, username,pw)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="841" sId="17">
+    <nc r="F36" t="inlineStr">
+      <is>
+        <t>dburl, user, pw are strings</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="842" sId="17">
+    <oc r="E37" t="inlineStr">
+      <is>
+        <t>Create a statement object</t>
+      </is>
+    </oc>
+    <nc r="E37" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Create a statement object  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt = myConn .createStatement();</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="843" sId="17">
+    <oc r="E38" t="inlineStr">
+      <is>
+        <t>Execute SQL  query</t>
+      </is>
+    </oc>
+    <nc r="E38" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Execute SQL  query  myRs = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt.executeQuery("select*from employees");</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="844" sId="17">
+    <nc r="E45" t="inlineStr">
+      <is>
+        <t>Execute SQL  insert   myStmt.executeUpdate("insert into employees"+"(last_name,first_name, email,department,salary)"+"values"+"('Wright','Eric','ericweright@gmail.com','HR', 33000.00)");</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="845" sId="17">
+    <oc r="E45" t="inlineStr">
+      <is>
+        <t>Execute SQL  insert   myStmt.executeUpdate("insert into employees"+"(last_name,first_name, email,department,salary)"+"values"+"('Wright','Eric','ericweright@gmail.com','HR', 33000.00)");</t>
+      </is>
+    </oc>
+    <nc r="E45" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Execute SQL  insert   </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt.executeUpdate("insert into employees"+"(last_name,first_name, email,department,salary)"+"values"+"('Wright','Eric','ericweright@gmail.com','HR', 33000.00)");</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="846" sId="17">
+    <oc r="E36" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Get a connection to the DB   </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myConn = DriverManager.getConnection(dbUrl, username,pw)</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E36" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Get a connection to the DB   </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myConn = DriverManager.getConnection(dbUrl, username,pw)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="847" sId="17">
+    <oc r="E37" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Create a statement object  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt = myConn .createStatement();</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E37" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Create a statement object  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt = myConn .createStatement();</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="848" sId="17">
+    <oc r="E38" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Execute SQL  query  myRs = </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myStmt.executeQuery("select*from employees");</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="E38" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Execute SQL  query  </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color rgb="FF0070C0"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>myRs = myStmt.executeQuery("select*from employees");</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="849" sId="17">
+    <nc r="D48" t="inlineStr">
+      <is>
+        <t>Update data</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -6272,61 +7245,6 @@
       <is>
         <t>however legacy JDBC3.0 should be explicity loaded with the Class.forName</t>
       </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog57.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="357" sId="8" eol="1" ref="A43:XFD43" action="insertRow"/>
-  <rcc rId="358" sId="8">
-    <nc r="B43">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="359" sId="8">
-    <nc r="C43" t="inlineStr">
-      <is>
-        <t>Interfaces cannot have constructors.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog58.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="360" sId="8" eol="1" ref="A44:XFD44" action="insertRow"/>
-  <rcc rId="361" sId="8">
-    <nc r="B44">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="362" sId="8">
-    <nc r="C44" t="inlineStr">
-      <is>
-        <t>Like classes in JAVA, interfaces don’t extend Object class by default.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog59.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="363" sId="8" xfDxf="1" dxf="1">
-    <nc r="C45" t="inlineStr">
-      <is>
-        <t>Interfaces can’t be local members of a method.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="364" sId="8">
-    <nc r="B45">
-      <v>9</v>
     </nc>
   </rcc>
 </revisions>
@@ -6393,861 +7311,11 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/revisionLog60.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="365" sId="8" xfDxf="1" dxf="1">
-    <nc r="C46" t="inlineStr">
-      <is>
-        <t>interfaces can be declared as ‘abstract’. But, there is no need to declare like that because interfaces are ‘abstract’ by default.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="366" sId="8">
-    <nc r="B46">
-      <v>10</v>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog61.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="367" sheetId="15" name="[Notes.xlsx]Important points" sheetPosition="8"/>
-  <rcc rId="368" sId="15">
-    <nc r="C3" t="inlineStr">
-      <is>
-        <t>Abstract classes may or  may not have abstract methods.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog62.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="369" sId="15" eol="1" ref="A4:XFD4" action="insertRow"/>
-  <rcc rId="370" sId="15">
-    <nc r="C4" t="inlineStr">
-      <is>
-        <t>Abstract classes must not have a body.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rrc rId="371" sId="15" eol="1" ref="A5:XFD5" action="insertRow"/>
-  <rcc rId="372" sId="15">
-    <nc r="C5" t="inlineStr">
-      <is>
-        <t>When you are extending abstract super class, you need to either specify the class as abstract or inherit the abstract methods from the super class to the sub class.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog63.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="373" sId="15" xfDxf="1" dxf="1">
-    <nc r="C6" t="inlineStr">
-      <is>
-        <t>abstract classes can have any number of constructors.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="374" sId="15" xfDxf="1" dxf="1">
-    <nc r="C7" t="inlineStr">
-      <is>
-        <t>abstract methods can’t be private.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog64.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="15" xfDxf="1" sqref="C8" start="0" length="0"/>
-  <rcc rId="375" sId="15">
-    <nc r="C8" t="inlineStr">
-      <is>
-        <t>Abstract methods can’t be static.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="376" sId="15">
-    <oc r="C7" t="inlineStr">
-      <is>
-        <t>abstract methods can’t be private.</t>
-      </is>
-    </oc>
-    <nc r="C7" t="inlineStr">
-      <is>
-        <t>Abstract methods can’t be private.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="377" sId="15">
-    <oc r="C6" t="inlineStr">
-      <is>
-        <t>abstract classes can have any number of constructors.</t>
-      </is>
-    </oc>
-    <nc r="C6" t="inlineStr">
-      <is>
-        <t>Abstract classes can have any number of constructors.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="378" sId="15" xfDxf="1" dxf="1">
-    <nc r="C9" t="inlineStr">
-      <is>
-        <t>Abstract classes can have static initialization blocks as well as instance initialization blocks.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog65.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="379" sId="15" xfDxf="1" dxf="1">
-    <nc r="C10" t="inlineStr">
-      <is>
-        <t>Constructors can’t be abstract.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="380" sId="15" xfDxf="1" dxf="1">
-    <nc r="C11" t="inlineStr">
-      <is>
-        <t>Abstract methods can’t be final.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="381" sId="15" xfDxf="1" dxf="1">
-    <nc r="C12" t="inlineStr">
-      <is>
-        <t>Local inner classes can be abstract.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog66.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="382" sId="15" ref="A2:XFD2" action="insertRow"/>
-  <rrc rId="383" sId="15" ref="A2:XFD2" action="insertRow"/>
-  <rrc rId="384" sId="15" ref="A2:XFD2" action="insertRow"/>
-  <rrc rId="385" sId="15" ref="A2:XFD2" action="insertRow"/>
-  <rcc rId="386" sId="15">
-    <nc r="C5" t="inlineStr">
-      <is>
-        <t xml:space="preserve">Abstract </t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="15" sqref="C5" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C5" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="387" sId="15">
-    <nc r="B7">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="388" sId="15">
-    <nc r="B8">
-      <v>2</v>
-    </nc>
-  </rcc>
-  <rcc rId="389" sId="15">
-    <nc r="B9">
-      <v>3</v>
-    </nc>
-  </rcc>
-  <rcc rId="390" sId="15">
-    <nc r="B10">
-      <v>4</v>
-    </nc>
-  </rcc>
-  <rcc rId="391" sId="15">
-    <nc r="B11">
-      <v>5</v>
-    </nc>
-  </rcc>
-  <rcc rId="392" sId="15">
-    <nc r="B12">
-      <v>6</v>
-    </nc>
-  </rcc>
-  <rcc rId="393" sId="15">
-    <nc r="B13">
-      <v>7</v>
-    </nc>
-  </rcc>
-  <rcc rId="394" sId="15">
-    <nc r="B14">
-      <v>8</v>
-    </nc>
-  </rcc>
-  <rcc rId="395" sId="15">
-    <nc r="B15">
-      <v>9</v>
-    </nc>
-  </rcc>
-  <rcc rId="396" sId="15">
-    <nc r="B16">
-      <v>10</v>
-    </nc>
-  </rcc>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
-  <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog67.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="397" sId="15">
-    <nc r="C20" t="inlineStr">
-      <is>
-        <t xml:space="preserve">String </t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="15" sqref="C20" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C20" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="398" sId="15" xfDxf="1" dxf="1">
-    <nc r="C22" t="inlineStr">
-      <is>
-        <t>String is not a keyword in java. String is a final class in java.lang package which is used to represent the set of characters in java.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="399" sId="15">
-    <nc r="B22">
-      <v>1</v>
-    </nc>
-  </rcc>
-  <rcc rId="400" sId="15" xfDxf="1" dxf="1">
-    <nc r="C23" t="inlineStr">
-      <is>
-        <t>String is a derived type.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="15" xfDxf="1" sqref="C24" start="0" length="0"/>
-  <rfmt sheetId="15" sqref="C1:C1048576">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="401" sId="15">
-    <nc r="C24" t="inlineStr">
-      <is>
-        <r>
-          <t>There are two ways to create string objects in java. One is using</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t> new operator</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> and another one is using</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> string literal</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>s. The objects created using new operator are stored in the heap memory and objects created using string literals are stored in string constant pool.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="15" xfDxf="1" sqref="C25" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" xfDxf="1" sqref="C26" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" xfDxf="1" sqref="C27" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C25:C27">
-    <dxf>
-      <alignment wrapText="0" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C25:C27">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="402" sId="15">
-    <nc r="C25" t="inlineStr">
-      <is>
-        <t>String s1 = new String("abc");          //Creating string object using new operator
-String s2 = "abc";        //Creating string object using string literal</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog68.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="15" sqref="C25" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C25" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog69.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="403" sId="15" xfDxf="1" dxf="1">
-    <nc r="C27" t="inlineStr">
-      <is>
-        <t>String Constant Pool is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
 <file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <ris rId="655" sheetId="18" name="[Notes.xlsx]Strings" sheetPosition="1"/>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="delete"/>
   <rcv guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog70.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="404" sId="15">
-    <oc r="C27" t="inlineStr">
-      <is>
-        <t>String Constant Pool is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
-      </is>
-    </oc>
-    <nc r="C27" t="inlineStr">
-      <is>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">String Constant Pool </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>is one such arrangement. String Constant Pool is the memory space in heap memory specially allocated to store the string objects created using string literals. In String Constant Pool, there will be no two string objects having the same content.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="405" sId="15" xfDxf="1" dxf="1">
-    <nc r="C29" t="inlineStr">
-      <is>
-        <t>One special thing about string objects is that you can create string objects without using new operator i.e using string literals. This is not possible with other derived types (except wrapper classes).</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="406" sId="15" xfDxf="1" dxf="1">
-    <nc r="C30" t="inlineStr">
-      <is>
-        <t> One more special thing about strings is that you can concatenate two string objects using ‘+’. </t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="407" sId="15" xfDxf="1" dxf="1">
-    <nc r="C32" t="inlineStr">
-      <is>
-        <t>Immutable objects are like constants. You can’t modify them once they are created. They are final in nature. Where as mutable objects are concerned, you can perform modifications to them.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="408" sId="15" xfDxf="1" dxf="1">
-    <nc r="C34" t="inlineStr">
-      <is>
-        <t>The objects of String class are immutable in nature. i.e you can’t modify them once they are created. If you try to modify them, a new object will be created with modified content. This may cause memory and performance issues if you are performing lots of string modifications in your code. To overcome these issues, StingBuffer and StringBuilder classes are introduced in java.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog71.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="409" sId="15" xfDxf="1" dxf="1">
-    <nc r="C36" t="inlineStr">
-      <is>
-        <t>String object in the string constant pool is called as String Intern. You can create an exact copy of heap memory string object in string constant pool. This process of creating an exact copy of heap memory string object in the string constant pool is called interning. intern() method is used for interning.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="410" sId="15" xfDxf="1" dxf="1">
-    <nc r="C38" t="inlineStr">
-      <is>
-        <t>a) Immutable strings increase security. As they can’t be modified once they are created, so we can use them to store sensitive data like username, password etc.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="15" xfDxf="1" sqref="C39" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="411" sId="15" xfDxf="1" dxf="1">
-    <nc r="C40" t="inlineStr">
-      <is>
-        <t>b) Immutable strings are thread safe. So, we can use them in a multi threaded code without synchronization.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="15" xfDxf="1" sqref="C41" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="412" sId="15" xfDxf="1" dxf="1">
-    <nc r="C42" t="inlineStr">
-      <is>
-        <t>c) String objects are used in class loading. If strings are mutable, it is possible that wrong class is being loaded as mutable objects are modifiable.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="15" sqref="C38:C42" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="413" sId="15" xfDxf="1" dxf="1">
-    <nc r="C28" t="inlineStr">
-      <is>
-        <t>String constant pool increases the reusability of existing string objects</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rrc rId="414" sId="15" ref="A29:XFD29" action="insertRow"/>
-  <rcc rId="415" sId="15" xfDxf="1" dxf="1">
-    <nc r="C45" t="inlineStr">
-      <is>
-        <t>The main similarity between String and StringBuffer class is that both are thread safe. The main difference between them is that String objects are immutable where as StringBuffer objects are mutable.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog72.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="416" sId="15" xfDxf="1" dxf="1">
-    <nc r="C47" t="inlineStr">
-      <is>
-        <t>The main similarity between StringBuffer and StringBuilder class is that both produces mutable string objects. The main difference between them is that StringBuffer class is thread safe where as StringBuilder class is not thread safe.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="15" sqref="C45:C47" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog73.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="417" sId="15">
-    <nc r="C51" t="inlineStr">
-      <is>
-        <t>Enums</t>
-      </is>
-    </nc>
-  </rcc>
-  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C51" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="418" sId="15" xfDxf="1" dxf="1">
-    <nc r="C53" t="inlineStr">
-      <is>
-        <t>Enum types can’t have duplicate constants.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="419" sId="15">
-    <oc r="B22">
-      <v>1</v>
-    </oc>
-    <nc r="B22"/>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog74.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="420" sId="15" xfDxf="1" dxf="1">
-    <nc r="C54" t="inlineStr">
-      <is>
-        <t>Enum types can’t extend a class.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="421" sId="15" xfDxf="1" dxf="1">
-    <nc r="C55" t="inlineStr">
-      <is>
-        <t>You can’t declare enum constants with any modifiers. They are public, static and final by default.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="422" sId="15" xfDxf="1" dxf="1">
-    <nc r="C56" t="inlineStr">
-      <is>
-        <t> Enum types can have only private constructors.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog75.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="15" xfDxf="1" sqref="C57" start="0" length="0">
-    <dxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </dxf>
-  </rfmt>
-  <rcc rId="423" sId="15">
-    <nc r="C57" t="inlineStr">
-      <is>
-        <t>Enum types can implement any number of interfaces.</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="424" sId="15">
-    <nc r="C60" t="inlineStr">
-      <is>
-        <t>Inheritance</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="425" sId="15" xfDxf="1" dxf="1">
-    <nc r="C62" t="inlineStr">
-      <is>
-        <t>In Java, a class can not extend more than one class.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="15" sqref="C60" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="426" sId="15" xfDxf="1" dxf="1">
-    <nc r="C63" t="inlineStr">
-      <is>
-        <t>A class can not extend itself.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-  <rcc rId="427" sId="15" xfDxf="1" dxf="1">
-    <nc r="C64" t="inlineStr">
-      <is>
-        <t>Private members are not inherited to sub class.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <alignment wrapText="1" readingOrder="0"/>
-    </ndxf>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog76.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="428" sId="15" xfDxf="1" dxf="1">
-    <nc r="F3" t="inlineStr">
-      <is>
-        <t>hyperskill.org</t>
-      </is>
-    </nc>
-  </rcc>
-  <rcc rId="429" sId="15" xfDxf="1" dxf="1">
-    <nc r="F5" t="inlineStr">
-      <is>
-        <t>https://www.mooc.fi/</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog77.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="430" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rrc rId="431" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rrc rId="432" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rrc rId="433" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rrc rId="434" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rrc rId="435" sId="14" ref="A59:XFD59" action="insertRow"/>
-  <rcc rId="436" sId="14" odxf="1" dxf="1">
-    <nc r="G59" t="inlineStr">
-      <is>
-        <t>Hash Set"- Representing a group of individual objects where duplicates are not allowed and not preserved in the insertion order.</t>
-      </is>
-    </nc>
-    <ndxf>
-      <font>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </ndxf>
-  </rcc>
-  <rfmt sheetId="14" sqref="G61" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rcc rId="437" sId="14">
-    <nc r="G61" t="inlineStr">
-      <is>
-        <t>Linked Hash Set" - Representing a group of individual objects where duplicates are not allowed but preserved in the insertion order.</t>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog78.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rrc rId="438" sId="14" ref="A72:XFD74" action="insertRow"/>
-  <rcc rId="439" sId="14">
-    <oc r="G59" t="inlineStr">
-      <is>
-        <t>Hash Set"- Representing a group of individual objects where duplicates are not allowed and not preserved in the insertion order.</t>
-      </is>
-    </oc>
-    <nc r="G59" t="inlineStr">
-      <is>
-        <r>
-          <t xml:space="preserve">Hash Set"- Representing a group of individual objects where </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">duplicates are not allowed </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>and</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="11"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> not preserved in the insertion order.</t>
-        </r>
-      </is>
-    </nc>
-  </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog79.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcc rId="440" sId="14">
-    <nc r="G73" t="inlineStr">
-      <is>
-        <t>ordered and sorted</t>
-      </is>
-    </nc>
-  </rcc>
 </revisions>
 </file>
 
@@ -10766,7 +10834,7 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
@@ -11033,10 +11101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C11"/>
+  <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11059,25 +11127,23 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>83</v>
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>84</v>
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -11085,20 +11151,42 @@
     </row>
     <row r="11" spans="2:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -11108,10 +11196,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F122"/>
+  <dimension ref="B5:F126"/>
   <sheetViews>
     <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11121,596 +11209,616 @@
     <col min="6" max="6" width="68" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F5" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D10" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D11" s="10" t="s">
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D15" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D16" t="s">
         <v>144</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D17" t="s">
         <v>145</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D18" t="s">
         <v>146</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E18" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D19" t="s">
         <v>147</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D19" s="10" t="s">
+    <row r="23" spans="3:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D23" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="5" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36">
         <v>1</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>159</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" t="s">
         <v>160</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E37" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D38" t="s">
         <v>161</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E38" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="9" t="s">
+    <row r="41" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E42" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>169</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>181</v>
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>170</v>
+        <v>167</v>
+      </c>
+      <c r="E44" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>172</v>
+      <c r="E46" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D52" s="5" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54">
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D58" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D63" t="s">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D65" t="s">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71">
         <v>5</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D71" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73">
         <v>6</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D73" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D73" s="10" t="s">
+    <row r="77" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D77" s="10" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C75">
+    <row r="79" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D79" t="s">
         <v>196</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F79" s="12" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="76" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F76" s="12" t="s">
+    <row r="80" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F80" s="12" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s">
-        <v>194</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F80" s="12" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>194</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85">
         <v>4</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D85" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="6" t="s">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="83" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D83" t="s">
-        <v>166</v>
-      </c>
-      <c r="F83" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
-        <v>198</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="D85" t="s">
-        <v>199</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>200</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="87" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>202</v>
-      </c>
-      <c r="F88" s="14"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" ht="45" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>203</v>
-      </c>
-      <c r="F89" s="14"/>
+        <v>199</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="90" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>204</v>
-      </c>
-      <c r="F90" s="14"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" ht="30" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>205</v>
-      </c>
-      <c r="F91" s="14"/>
+        <v>201</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="92" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="F92" s="14"/>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="F93" s="14"/>
     </row>
     <row r="94" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F94" s="14"/>
     </row>
     <row r="95" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="F95" s="14"/>
     </row>
     <row r="96" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
+        <v>156</v>
+      </c>
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>157</v>
       </c>
-      <c r="F96" s="14"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F97" s="14"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="11" t="s">
-        <v>207</v>
+      <c r="D98" t="s">
+        <v>206</v>
       </c>
       <c r="F98" s="14"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="5"/>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
       <c r="F99" s="14"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E100" s="5"/>
+      <c r="D100" t="s">
+        <v>157</v>
+      </c>
       <c r="F100" s="14"/>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F101" s="14"/>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="F102" s="14"/>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" t="s">
-        <v>209</v>
-      </c>
-      <c r="E103" t="s">
-        <v>218</v>
-      </c>
+      <c r="E103" s="5"/>
       <c r="F103" s="14"/>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>210</v>
-      </c>
+      <c r="D104" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>217</v>
-      </c>
-      <c r="E105" t="s">
-        <v>219</v>
-      </c>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D106" t="s">
-        <v>211</v>
-      </c>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>212</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="E107" t="s">
+        <v>218</v>
+      </c>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E109" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>157</v>
+        <v>213</v>
+      </c>
+      <c r="E112" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="113" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>216</v>
+        <v>214</v>
+      </c>
+      <c r="E113" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="F116" s="12" t="s">
+    <row r="117" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F120" s="12" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F118" s="6" t="s">
+    <row r="122" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="4:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="E119" s="12"/>
-      <c r="F119" s="12" t="s">
+    <row r="123" spans="4:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="E123" s="12"/>
+      <c r="F123" s="12" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="122" spans="4:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="F122" s="12" t="s">
+    <row r="126" spans="4:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="F126" s="12" t="s">
         <v>237</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -11725,10 +11833,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:J49"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11742,117 +11850,137 @@
     <col min="11" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="D2" s="17" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="24" spans="4:10" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D24" s="18" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D28" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="J28" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="4:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="D26" s="15" t="s">
+    <row r="30" spans="4:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="D30" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H30" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J30" s="15" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="4:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="D28" s="15" t="s">
+    <row r="32" spans="4:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="D32" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H32" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="30" spans="4:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="D30" s="15" t="s">
+    <row r="34" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D34" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H34" s="15" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="4:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="D32" s="15" t="s">
+    <row r="36" spans="4:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="D36" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H36" s="15" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="3:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="D34" s="15" t="s">
+    <row r="38" spans="4:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="D38" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H38" s="15" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="36" spans="3:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="D36" s="15" t="s">
+    <row r="40" spans="4:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="D40" s="15" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="11"/>
-    </row>
-    <row r="44" spans="3:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="D44" s="15" t="s">
+    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="48" spans="4:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="D48" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="D46" s="16" t="s">
+    <row r="50" spans="3:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="D50" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="3:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C47" s="11">
+    <row r="51" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="11">
         <v>1</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="D51" s="15" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="11">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="11">
         <v>2</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C49" s="11">
+    <row r="53" spans="3:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="11">
         <v>3</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>243</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -11864,10 +11992,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K79"/>
+  <dimension ref="B4:K83"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11878,312 +12006,320 @@
     <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="D4" s="18" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="4:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="4:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="4:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D10" s="1" t="s">
+    <row r="14" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="4:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D14" s="18" t="s">
+    <row r="18" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D18" s="18" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="15" spans="4:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+    <row r="19" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="4:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+    <row r="20" spans="4:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="32" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E22" s="33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="34"/>
-      <c r="E19" s="35" t="s">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="34"/>
+      <c r="E23" s="35" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="34" t="s">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E24" s="35" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="34" t="s">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="34" t="s">
         <v>292</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E25" s="35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D22" s="34" t="s">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="D23" s="36"/>
-      <c r="E23" s="37" t="s">
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="36"/>
+      <c r="E27" s="37" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D29" s="18" t="s">
+    <row r="33" spans="4:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D33" s="18" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="D31" s="1" t="s">
+    <row r="35" spans="4:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="1" t="s">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="1" t="s">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="1" t="s">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="1" t="s">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="1" t="s">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="1" t="s">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="1" t="s">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" s="1" t="s">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D44" s="18" t="s">
+    <row r="48" spans="4:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D48" s="18" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="47" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D47" s="1" t="s">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="51" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F48" s="42"/>
-    </row>
-    <row r="49" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="D49" s="1" t="s">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="42"/>
+    </row>
+    <row r="53" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F49" s="38"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="43"/>
-    </row>
-    <row r="51" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="18" t="s">
+      <c r="F53" s="38"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="F51" s="44"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="39"/>
-    </row>
-    <row r="53" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F53" s="44"/>
-      <c r="H53" s="7"/>
-      <c r="J53" s="7"/>
-    </row>
-    <row r="54" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F54" s="45"/>
-      <c r="H54" s="7"/>
-      <c r="J54" s="7"/>
-    </row>
-    <row r="55" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C55">
-        <v>3</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F55" s="45"/>
-      <c r="H55" s="7"/>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="F56" s="45"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
+      <c r="F55" s="44"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F57" s="45"/>
+        <v>320</v>
+      </c>
+      <c r="F57" s="44"/>
       <c r="H57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" ht="30" x14ac:dyDescent="0.25">
       <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F58" s="45"/>
+      <c r="H58" s="7"/>
+      <c r="J58" s="7"/>
+    </row>
+    <row r="59" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F59" s="45"/>
+      <c r="H59" s="7"/>
+      <c r="J59" s="7"/>
+    </row>
+    <row r="60" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C60">
         <v>4</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F58" s="39"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C59">
+      <c r="F60" s="45"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C61">
         <v>5</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F60" s="45"/>
-    </row>
-    <row r="61" spans="3:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D61" s="46" t="s">
-        <v>316</v>
-      </c>
-      <c r="F61" s="39"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="F62" s="44"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="F61" s="45"/>
+      <c r="H61" s="7"/>
+      <c r="J61" s="7"/>
+    </row>
+    <row r="62" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F62" s="39"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>5</v>
+      </c>
       <c r="D63" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F63" s="45"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="F64" s="45"/>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="1" t="s">
+    <row r="65" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D65" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" s="39"/>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F65" s="39"/>
-    </row>
-    <row r="66" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D66" s="46" t="s">
+      <c r="F67" s="45"/>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="45"/>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D70" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="F66" s="45"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F67" s="45"/>
-    </row>
-    <row r="68" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D68" s="1" t="s">
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="45"/>
+    </row>
+    <row r="72" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F68" s="39"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F69" s="44"/>
-    </row>
-    <row r="70" spans="4:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="D70" s="1" t="s">
+      <c r="F72" s="39"/>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="44"/>
+    </row>
+    <row r="74" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F70" s="45"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F71" s="39"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F72" s="44"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F73" s="45"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F74" s="39"/>
+      <c r="F74" s="45"/>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.25">
       <c r="F75" s="39"/>
@@ -12195,21 +12331,33 @@
       <c r="F77" s="45"/>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F78" s="40"/>
+      <c r="F78" s="39"/>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F79" s="41"/>
+      <c r="F79" s="39"/>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="44"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="45"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="40"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="41"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12218,138 +12366,104 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:N58"/>
+  <dimension ref="B6:N62"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E8" s="10" t="s">
+    <row r="12" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E12" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D15">
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E19" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D16">
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D17">
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="20" t="s">
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E25" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="23"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="24"/>
-    </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="24"/>
-    </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="24"/>
-    </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="23"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="24"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="25" t="s">
-        <v>273</v>
-      </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -12362,7 +12476,7 @@
     </row>
     <row r="27" spans="4:14" x14ac:dyDescent="0.25">
       <c r="E27" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -12375,8 +12489,8 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E28" s="25" t="s">
-        <v>277</v>
+      <c r="E28" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -12389,9 +12503,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="23" t="s">
-        <v>275</v>
-      </c>
+      <c r="E29" s="23"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
@@ -12403,8 +12515,8 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="23" t="s">
-        <v>276</v>
+      <c r="E30" s="25" t="s">
+        <v>273</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -12417,8 +12529,8 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="25" t="s">
-        <v>278</v>
+      <c r="E31" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
@@ -12431,124 +12543,180 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E35" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E36" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="28"/>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="29" t="s">
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="28"/>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="E38" s="29" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E37" s="10" t="s">
+    <row r="41" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" s="10" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D39">
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D40">
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44">
         <v>2</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D41">
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E46" t="s">
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E47" t="s">
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E51" s="10" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E55" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E55" t="s">
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D56">
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E60" t="s">
         <v>328</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F60" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D57">
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E61" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D58">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E62" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -12560,10 +12728,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:M60"/>
+  <dimension ref="B5:M64"/>
   <sheetViews>
     <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12577,250 +12745,270 @@
     <col min="14" max="16384" width="9.140625" style="47"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E5" s="47" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="47" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="47" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E9" s="48" t="s">
+    <row r="13" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E13" s="48" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D11" s="47">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="47">
         <v>1</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E15" s="47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D12" s="47">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="47">
         <v>2</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E16" s="47" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="47">
-        <v>3</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="4:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E15" s="48" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="47">
+        <v>3</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E19" s="48" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="47">
         <v>1</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E21" s="49" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="47">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="47">
         <v>2</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E22" s="49" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="47">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="47">
         <v>3</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E23" s="49" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="25" spans="4:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="E25" s="47" t="s">
+    <row r="29" spans="4:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="F25" s="51" t="s">
+      <c r="F29" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G29" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="51" t="s">
+      <c r="H29" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I29" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="J25" s="51" t="s">
+      <c r="J29" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="K25" s="47" t="s">
+      <c r="K29" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="L25" s="51" t="s">
+      <c r="L29" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="M25" s="47" t="s">
+      <c r="M29" s="47" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E26" s="47" t="s">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="47" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E27" s="51" t="s">
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="51" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E28" s="49" t="s">
+    <row r="32" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E32" s="49" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="E29" s="47" t="s">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="47" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="32" spans="4:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E32" s="52" t="s">
+    <row r="36" spans="5:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E36" s="52" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="47" t="s">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="F34" s="47" t="s">
+      <c r="F38" s="47" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="47" t="s">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="47" t="s">
         <v>350</v>
       </c>
-      <c r="F35" s="47" t="s">
+      <c r="F39" s="47" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="49" t="s">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="F36" s="47" t="s">
+      <c r="F40" s="47" t="s">
         <v>356</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="F37" s="49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="49" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="49" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="49" t="s">
-        <v>360</v>
+        <v>352</v>
+      </c>
+      <c r="F41" s="49" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="49" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="49" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="49" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="49" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="49" t="s">
-        <v>364</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="49" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="49" t="s">
-        <v>365</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="49" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="49" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="49" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="49" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="49" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="49" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="49" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="49" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E61" s="49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E62" s="49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E63" s="49" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="49" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="R73" sqref="R73"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12830,10 +13018,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:N88"/>
+  <dimension ref="B3:N92"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12844,225 +13032,199 @@
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="5:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F10" s="18" t="s">
+    <row r="14" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F14" s="18" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="12" spans="5:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F12" s="18" t="s">
+    <row r="16" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F16" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="14" spans="5:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="E14">
+    <row r="18" spans="5:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E15">
+    <row r="19" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="5:14" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="E25">
+    <row r="29" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29">
         <v>3</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="J25" s="73" t="s">
+      <c r="J29" s="73" t="s">
         <v>620</v>
       </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="s">
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="74" t="s">
+      <c r="J30" s="74" t="s">
         <v>621</v>
       </c>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J27" s="75" t="s">
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="75" t="s">
         <v>622</v>
       </c>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="E28">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>623</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="24"/>
-    </row>
-    <row r="29" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J29" s="75" t="s">
-        <v>624</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="24"/>
-    </row>
-    <row r="30" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="J30" s="75" t="s">
-        <v>625</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="24"/>
-    </row>
-    <row r="31" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J31" s="72"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="E32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>626</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="5:14" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="J33" s="75" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="19"/>
       <c r="M33" s="19"/>
       <c r="N33" s="24"/>
     </row>
-    <row r="34" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="J34" s="75" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="19"/>
       <c r="M34" s="19"/>
       <c r="N34" s="24"/>
     </row>
-    <row r="35" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F35" s="18" t="s">
-        <v>400</v>
-      </c>
+    <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J35" s="72"/>
       <c r="K35" s="27"/>
       <c r="L35" s="27"/>
@@ -13070,20 +13232,26 @@
       <c r="N35" s="28"/>
     </row>
     <row r="36" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="J36" s="76" t="s">
-        <v>629</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="24"/>
-    </row>
-    <row r="37" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F37" s="1" t="s">
-        <v>402</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="J37" s="75" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
@@ -13091,27 +13259,27 @@
       <c r="N37" s="24"/>
     </row>
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J38" s="72"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="28"/>
-    </row>
-    <row r="39" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J39" s="76" t="s">
-        <v>631</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="24"/>
-    </row>
-    <row r="40" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="F40" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="J40" s="75" t="s">
-        <v>632</v>
+      <c r="J38" s="75" t="s">
+        <v>628</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F39" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="J39" s="72"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="28"/>
+    </row>
+    <row r="40" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J40" s="76" t="s">
+        <v>629</v>
       </c>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
@@ -13120,45 +13288,48 @@
     </row>
     <row r="41" spans="5:14" ht="30" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="J41" s="72"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="28"/>
-    </row>
-    <row r="42" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="J42" s="76" t="s">
-        <v>633</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="24"/>
-    </row>
-    <row r="43" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="75" t="s">
-        <v>634</v>
+        <v>402</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>630</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J42" s="72"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="28"/>
+    </row>
+    <row r="43" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="J43" s="76" t="s">
+        <v>631</v>
       </c>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="24"/>
     </row>
-    <row r="44" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="F44" s="18" t="s">
-        <v>404</v>
+    <row r="44" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="J44" s="75" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="K44" s="19"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="24"/>
     </row>
-    <row r="45" spans="5:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="J45" s="72"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
@@ -13166,240 +13337,277 @@
       <c r="N45" s="28"/>
     </row>
     <row r="46" spans="5:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="J46" s="75" t="s">
-        <v>636</v>
+      <c r="J46" s="76" t="s">
+        <v>633</v>
       </c>
       <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="24"/>
     </row>
-    <row r="47" spans="5:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="G47" s="1" t="s">
+    <row r="47" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J47" s="75" t="s">
+        <v>634</v>
+      </c>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="5:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F48" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="J48" s="75" t="s">
+        <v>635</v>
+      </c>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J49" s="72"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="28"/>
+    </row>
+    <row r="50" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" s="75" t="s">
+        <v>636</v>
+      </c>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="24"/>
+    </row>
+    <row r="51" spans="5:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G51" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J47" s="74" t="s">
+      <c r="J51" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="28"/>
-    </row>
-    <row r="48" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="G48" s="1" t="s">
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="28"/>
+    </row>
+    <row r="52" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G49" s="1" t="s">
+    <row r="53" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G53" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="51" spans="5:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F51" s="1" t="s">
+    <row r="55" spans="5:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J52" s="2" t="s">
+    <row r="56" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J56" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="53" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E53">
+    <row r="57" spans="5:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="E57">
         <v>2</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K57" s="5" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="54" spans="5:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
+    <row r="58" spans="5:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="G58" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J58" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K58" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="J55" s="1" t="s">
+    <row r="59" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K59" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="56" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="E56">
+    <row r="60" spans="5:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="57" spans="5:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="G57" s="1" t="s">
+    <row r="61" spans="5:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="G61" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="59" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="G59" s="2" t="s">
+    <row r="63" spans="5:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="G63" s="2" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="5:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="G61" s="2" t="s">
+    <row r="65" spans="5:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G65" s="2" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="65" spans="5:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="E65">
+    <row r="69" spans="5:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E69">
         <v>4</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F69" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>422</v>
-      </c>
-    </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G66" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68">
-        <v>5</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G69" s="1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="70" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G70" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G71" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>5</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G73" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="E76">
-        <v>6</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.25">
       <c r="G77" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>6</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G81" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="5:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="G78" s="1" t="s">
+    <row r="82" spans="5:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="G82" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="80" spans="5:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="E80">
+    <row r="84" spans="5:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="E84">
         <v>7</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="G81" s="12" t="s">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="G85" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="82" spans="5:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="G82" s="1" t="s">
+    <row r="86" spans="5:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="G86" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E84">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88">
         <v>8</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="85" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J85" s="18" t="s">
+    <row r="89" spans="5:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="J89" s="18" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="86" spans="5:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="J86" s="1" t="s">
+    <row r="90" spans="5:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="J90" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="87" spans="5:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="J87" s="1" t="s">
+    <row r="91" spans="5:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="88" spans="5:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="J88" s="1" t="s">
+    <row r="92" spans="5:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="J92" s="1" t="s">
         <v>640</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -13411,10 +13619,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F214"/>
+  <dimension ref="B3:F218"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13425,879 +13633,899 @@
     <col min="6" max="6" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C3" s="65" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="1" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C16" s="65" t="s">
+    <row r="20" spans="3:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C20" s="65" t="s">
         <v>499</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>501</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D20" s="56" t="s">
-        <v>503</v>
-      </c>
-      <c r="E20" s="57" t="s">
-        <v>504</v>
-      </c>
-      <c r="F20" s="57" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="56" t="s">
-        <v>506</v>
-      </c>
-      <c r="E21" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>509</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="F22" s="57" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>514</v>
+        <v>497</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>501</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F24" s="57" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D25" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>512</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>513</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>510</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="56" t="s">
         <v>517</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E29" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F29" s="57" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="1" t="s">
+    <row r="30" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D30" s="56" t="s">
         <v>519</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E30" s="57" t="s">
         <v>520</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F30" s="57" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D27" s="56" t="s">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E31" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F31" s="57" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
+    <row r="32" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="58" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="58" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="59"/>
-    </row>
-    <row r="33" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="60" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="59"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="59" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" s="59"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="59" t="s">
-        <v>532</v>
+    <row r="37" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="60" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="59" t="s">
-        <v>533</v>
-      </c>
+      <c r="C38" s="59"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="59"/>
+      <c r="C39" s="59" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" s="59"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="59"/>
+      <c r="C41" s="59" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="60" t="s">
-        <v>534</v>
+      <c r="C42" s="59" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" s="59"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="59" t="s">
-        <v>531</v>
-      </c>
+      <c r="C44" s="59"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" s="59"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="59" t="s">
-        <v>535</v>
+      <c r="C46" s="60" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47" s="59" t="s">
-        <v>536</v>
-      </c>
+      <c r="C47" s="59"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" s="59" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="59"/>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="59" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="59" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="59" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="61" t="s">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="61" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="58" t="s">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" s="58" t="s">
         <v>539</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53" s="59"/>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54" s="59" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55" s="59"/>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56" s="62" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57" s="59"/>
     </row>
-    <row r="58" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C58" s="63" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="59" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C59" s="63" t="s">
-        <v>543</v>
-      </c>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" s="59" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" s="59"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60" s="63" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="61" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C61" s="63" t="s">
-        <v>545</v>
-      </c>
+      <c r="C60" s="62" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" s="59"/>
     </row>
     <row r="62" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C62" s="63" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C63" s="63" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C65" s="63" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C66" s="63" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63" s="63"/>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64" s="64" t="s">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="63"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="64" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="67" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C67" s="65" t="s">
+    <row r="71" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C71" s="65" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71" s="1" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76" s="1" t="s">
-        <v>554</v>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="80" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C80" s="65" t="s">
+    <row r="84" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C84" s="65" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="1" t="s">
+    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="1" t="s">
+    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D83" s="66" t="s">
+      <c r="D87" s="66" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="1" t="s">
+    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="D84" s="66" t="s">
+      <c r="D88" s="66" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="1" t="s">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D85" s="66" t="s">
+      <c r="D89" s="66" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="1" t="s">
+    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D86" s="66" t="s">
+      <c r="D90" s="66" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="1" t="s">
+    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="89" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="65" t="s">
+    <row r="93" spans="3:4" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C93" s="65" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="1" t="s">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D95" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="1" t="s">
+    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="1" t="s">
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="1" t="s">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D98" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="95" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C95" s="1" t="s">
+    <row r="99" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="58" t="s">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" s="58" t="s">
         <v>588</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D100" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="E96" s="68" t="s">
+      <c r="E100" s="68" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="59" t="s">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" s="59" t="s">
         <v>589</v>
       </c>
-      <c r="D97" s="70" t="s">
+      <c r="D101" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="E97" s="24" t="s">
+      <c r="E101" s="24" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="59" t="s">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C102" s="59" t="s">
         <v>592</v>
       </c>
-      <c r="D98" s="70" t="s">
+      <c r="D102" s="70" t="s">
         <v>593</v>
       </c>
-      <c r="E98" s="24" t="s">
+      <c r="E102" s="24" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="61" t="s">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C103" s="61" t="s">
         <v>595</v>
       </c>
-      <c r="D99" s="71" t="s">
+      <c r="D103" s="71" t="s">
         <v>596</v>
       </c>
-      <c r="E99" s="28" t="s">
+      <c r="E103" s="28" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="1" t="s">
+    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C102" s="64" t="s">
+    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C106" s="64" t="s">
         <v>568</v>
       </c>
-      <c r="D102" s="67" t="s">
+      <c r="D106" s="67" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C103" s="59" t="s">
+    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C107" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D107" s="24" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C104" s="59" t="s">
+    <row r="108" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="59" t="s">
         <v>572</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D108" s="24" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="105" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="59" t="s">
+    <row r="109" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C109" s="59" t="s">
         <v>574</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D109" s="24" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="106" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="59" t="s">
+    <row r="110" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C110" s="59" t="s">
         <v>576</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D110" s="24" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="107" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="61" t="s">
+    <row r="111" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C111" s="61" t="s">
         <v>578</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D111" s="28" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="110" spans="3:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C110" s="65" t="s">
+    <row r="114" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C114" s="65" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="112" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C112" s="1" t="s">
+    <row r="116" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C116" s="1" t="s">
         <v>601</v>
-      </c>
-    </row>
-    <row r="114" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C114" s="13" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="118" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C118" s="13" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C120" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C122" s="13" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C124" s="1" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="126" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C126" s="13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C128" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="130" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C130" s="13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C132" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C134" s="13" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="134" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C134" s="65" t="s">
+    <row r="138" spans="3:3" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C138" s="65" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="136" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C136" s="1" t="s">
+    <row r="140" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C140" s="1" t="s">
         <v>613</v>
-      </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139" s="1" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140" s="1" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C142" s="1" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C146" s="1" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144" s="2" t="s">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C148" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="1" t="s">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C150" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F153" t="s">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F157" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C155" s="18" t="s">
+    <row r="159" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C159" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F159" t="s">
         <v>482</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157">
-        <v>1</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158">
-        <v>2</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B159">
-        <v>3</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160">
-        <v>4</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B161">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B162">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B163">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B164">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B165">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>7</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>8</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>9</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170">
         <v>10</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="170" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C170" s="18" t="s">
+    <row r="174" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C174" s="18" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="172" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C172" s="1" t="s">
+    <row r="176" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C176" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C173" s="1" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="174" spans="2:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C174" s="1" t="s">
+    <row r="178" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C178" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="175" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C175" s="6" t="s">
+    <row r="179" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C179" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="177" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C177" s="1" t="s">
+    <row r="181" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C181" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="1" t="s">
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="180" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C180" s="1" t="s">
+    <row r="184" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C184" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="1" t="s">
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C183" s="1" t="s">
+    <row r="187" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C187" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="3:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="C185" s="1" t="s">
+    <row r="189" spans="3:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="C189" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="187" spans="3:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="C187" s="1" t="s">
+    <row r="191" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C191" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="189" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C189" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="12"/>
-    </row>
-    <row r="191" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C191" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192" s="12"/>
     </row>
     <row r="193" spans="3:3" ht="30" x14ac:dyDescent="0.25">
       <c r="C193" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="12"/>
+    </row>
+    <row r="195" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C195" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="12"/>
+    </row>
+    <row r="197" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C197" s="12" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="195" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C195" s="53" t="s">
+    <row r="199" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C199" s="53" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196" s="53"/>
-    </row>
-    <row r="197" spans="3:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="C197" s="53" t="s">
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="53"/>
+    </row>
+    <row r="201" spans="3:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="C201" s="53" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="201" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C201" s="18" t="s">
+    <row r="205" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C205" s="18" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="205" spans="3:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="C205" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206" s="1" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C207" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C209" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="210" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C210" s="18" t="s">
+    <row r="214" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C214" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212" s="1" t="s">
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213" s="1" t="s">
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214" s="1" t="s">
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="1" t="s">
         <v>480</v>
       </c>
     </row>
@@ -14316,36 +14544,56 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:D11"/>
+  <dimension ref="B6:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>646</v>
       </c>
     </row>
@@ -14362,10 +14610,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:E25"/>
+  <dimension ref="B6:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14374,102 +14622,190 @@
     <col min="5" max="5" width="107.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="1" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D8" s="5" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="1" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="1" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="1" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="5" t="s">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E15" s="1" t="s">
+    <row r="19" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="1" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E23" s="1" t="s">
-        <v>664</v>
+      <c r="E22" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="1" t="s">
-        <v>665</v>
+      <c r="D24" s="5" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E25" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1" t="s">
         <v>666</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F36" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E45" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -14487,10 +14823,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14507,6 +14843,36 @@
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>669</v>
       </c>
     </row>
@@ -14522,10 +14888,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F42"/>
+  <dimension ref="B4:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14552,159 +14918,179 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>670</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="s">
+    <row r="15" spans="2:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="s">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="s">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="48" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="21" spans="2:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="F18" s="1" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="F22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="34" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+    <row r="36" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
+    <row r="41" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="1" t="s">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
+    <hyperlink ref="F19" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -14713,10 +15099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5"/>
+  <dimension ref="B5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14726,13 +15112,33 @@
         <v>88</v>
       </c>
     </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14743,10 +15149,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H28"/>
+  <dimension ref="B4:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14762,143 +15168,163 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="2" t="s">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="1" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="H16" s="1" t="s">
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="H20" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="H18" s="6" t="s">
+    <row r="22" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="1" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+    <row r="25" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+    <row r="27" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+    <row r="28" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C24"/>
-      <c r="E24" s="1" t="s">
+      <c r="C28"/>
+      <c r="E28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+    <row r="29" spans="2:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="E26" s="6" t="s">
+    <row r="30" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E28"/>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E32"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14910,10 +15336,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:D10"/>
+  <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14922,52 +15348,72 @@
     <col min="4" max="4" width="80.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -14979,10 +15425,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:D8"/>
+  <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14991,39 +15437,59 @@
     <col min="4" max="4" width="53.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="11" spans="2:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="12" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15034,10 +15500,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:D43"/>
+  <dimension ref="B4:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15048,194 +15514,214 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>97</v>
-      </c>
+      <c r="D16" s="5"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C35" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>3</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>1</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
+    <hyperlink ref="C13" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -15244,10 +15730,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O46"/>
+  <dimension ref="B4:O50"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15266,234 +15752,254 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="B6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C19" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26">
+    <row r="30" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O27" s="8"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="O28" s="7"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="8"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="75" x14ac:dyDescent="0.25">
-      <c r="B31">
+    <row r="35" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32">
+    <row r="36" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J32">
+      <c r="J36">
         <f>14*25%</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="5" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C39" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>4</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>5</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>6</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>7</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>8</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>10</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>443</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -15505,11 +16011,11 @@
 
 <file path=xl/worksheets/wsSortMap1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheetSortMap xmlns="http://schemas.microsoft.com/office/excel/2006/main">
-  <rowSortMap ref="A19:XFD22" count="4">
-    <row newVal="18" oldVal="20"/>
-    <row newVal="19" oldVal="21"/>
-    <row newVal="20" oldVal="19"/>
-    <row newVal="21" oldVal="18"/>
+  <rowSortMap ref="A23:XFD26" count="4">
+    <row newVal="22" oldVal="24"/>
+    <row newVal="23" oldVal="25"/>
+    <row newVal="24" oldVal="23"/>
+    <row newVal="25" oldVal="22"/>
   </rowSortMap>
 </worksheetSortMap>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\JavaFundamental\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AE0C2EEA-610D-432E-AE7A-478D0AE445B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="5" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -30,10 +31,13 @@
     <sheet name="Important points" sheetId="15" r:id="rId16"/>
     <sheet name="Maven" sheetId="16" r:id="rId17"/>
     <sheet name="DBMS" sheetId="17" r:id="rId18"/>
+    <sheet name="SQL &amp; DataBase" sheetId="19" r:id="rId19"/>
+    <sheet name="SQL" sheetId="20" r:id="rId20"/>
+    <sheet name="File IO" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <customWorkbookViews>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="11"/>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="20"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
   </customWorkbookViews>
   <extLst>
@@ -51,12 +55,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E41" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
+    <comment ref="E41" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
+    <comment ref="D50" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="837">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -4277,13 +4281,463 @@
   <si>
     <t>Update data</t>
   </si>
+  <si>
+    <t>Data modeling is the process of creating a data model for the data to be stored in a Database.</t>
+  </si>
+  <si>
+    <t>This Data model is a conceptual representation of data objects, the associations between different data objects and rules,</t>
+  </si>
+  <si>
+    <t>Data modelling helps in the visual representation of data, and enforces business rules, regulatory compliances and govt policies on the data.</t>
+  </si>
+  <si>
+    <t>Data Modelling:</t>
+  </si>
+  <si>
+    <t>The two types of Data Models techniques are</t>
+  </si>
+  <si>
+    <t>1. Entity Relationship (E-R) Model</t>
+  </si>
+  <si>
+    <t>2. UML (Unified Modelling Language)</t>
+  </si>
+  <si>
+    <t>Data Consistency:</t>
+  </si>
+  <si>
+    <t>Data should be consistent across the database or the application that is using the database.</t>
+  </si>
+  <si>
+    <t>The data type once defined should not be changed.</t>
+  </si>
+  <si>
+    <t>Database scalability is the ability of a database to handle changing demands by adding/removing resources.</t>
+  </si>
+  <si>
+    <t>Database scalability.</t>
+  </si>
+  <si>
+    <t>There are 2 types</t>
+  </si>
+  <si>
+    <t>Scale up</t>
+  </si>
+  <si>
+    <t>Scale out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scale up-  the ability of a database to increase the resources in the same instance </t>
+  </si>
+  <si>
+    <t>Scale out - the ability of a data base to expand the resources in many instances</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Data can be the facts related to any object in consideration</t>
+  </si>
+  <si>
+    <t>PL SQL is an extention to SQL</t>
+  </si>
+  <si>
+    <t>SQL is an interface between client and database</t>
+  </si>
+  <si>
+    <t>PL SQL is collection of programms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a collection of predefined commands, concepts, clauses,operators and SQL objects </t>
+  </si>
+  <si>
+    <t>Some programmes can be called as stored procedures</t>
+  </si>
+  <si>
+    <t>Some programmes can be called as triggers</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>DDL,DML,DCL,TCL</t>
+  </si>
+  <si>
+    <t>Some of them are packages</t>
+  </si>
+  <si>
+    <t>concepts</t>
+  </si>
+  <si>
+    <t>Joins,Subqueries, queries</t>
+  </si>
+  <si>
+    <t>It is a collection of</t>
+  </si>
+  <si>
+    <t>clauses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distinct, Order By, where, Group By,Having </t>
+  </si>
+  <si>
+    <t>---programming statements</t>
+  </si>
+  <si>
+    <t>operators</t>
+  </si>
+  <si>
+    <t>Arithmetic, Relational,Special, Relational Negation Operators and Logical Operators</t>
+  </si>
+  <si>
+    <t>---concepts</t>
+  </si>
+  <si>
+    <t>Conditional Statements, loops, branching statements</t>
+  </si>
+  <si>
+    <t>SQL Objects</t>
+  </si>
+  <si>
+    <t>Tables, views, indexes,sequences, synonyms,clusters and so on. In addition, we have predefined functions</t>
+  </si>
+  <si>
+    <t>---objects</t>
+  </si>
+  <si>
+    <t>every object is user defined</t>
+  </si>
+  <si>
+    <t>every object is predefined</t>
+  </si>
+  <si>
+    <t>stored procedures</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>triggers</t>
+  </si>
+  <si>
+    <t>packages</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>nested tables</t>
+  </si>
+  <si>
+    <t>SQL is a client tool to interact with any DB</t>
+  </si>
+  <si>
+    <t>It is to be installed in the system whenever we have installed DB software</t>
+  </si>
+  <si>
+    <t>Client requests to be submitted in the form of queries</t>
+  </si>
+  <si>
+    <t>Queries are executed by SQL STMT Executor(DB engine)</t>
+  </si>
+  <si>
+    <t>Features of SQL</t>
+  </si>
+  <si>
+    <t>At a time only one query is allowed to execute.</t>
+  </si>
+  <si>
+    <t>SQL queries are not case sensitive.</t>
+  </si>
+  <si>
+    <t>Each query is terminated with;</t>
+  </si>
+  <si>
+    <t>SQL is ANSI Standard(American National Standard Institute)</t>
+  </si>
+  <si>
+    <t>SQL Commands</t>
+  </si>
+  <si>
+    <t>Types of SQL Commands</t>
+  </si>
+  <si>
+    <t>DDL</t>
+  </si>
+  <si>
+    <t>Data Definition language</t>
+  </si>
+  <si>
+    <t>Used to create/change or delete any data based objects</t>
+  </si>
+  <si>
+    <t>Create / Alter/Drop</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>Data Manipulation Language</t>
+  </si>
+  <si>
+    <t>Used to fetch data or enter new data / change existing data/ deleting data from the table.</t>
+  </si>
+  <si>
+    <t>Insert/Update/Delete/truncate/select</t>
+  </si>
+  <si>
+    <t>DCL</t>
+  </si>
+  <si>
+    <t>Data Control Language</t>
+  </si>
+  <si>
+    <t>Used to control the access of data base objects</t>
+  </si>
+  <si>
+    <t>These commands are used only by DBA</t>
+  </si>
+  <si>
+    <t>Grant/Revoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCL </t>
+  </si>
+  <si>
+    <t>Transaction Control Language</t>
+  </si>
+  <si>
+    <t>Used to save or cancel the actions made on table data.</t>
+  </si>
+  <si>
+    <t>Naming Conventions</t>
+  </si>
+  <si>
+    <t>Rules for specifying oracle Name(column Name, object Names, variable Names)</t>
+  </si>
+  <si>
+    <t>Each name should begin with alphabet</t>
+  </si>
+  <si>
+    <t>valid char set is</t>
+  </si>
+  <si>
+    <t>a-z,A-Z,0-9,@$#_</t>
+  </si>
+  <si>
+    <t>Names are not case sensitive</t>
+  </si>
+  <si>
+    <t>Already existing names are not allowed</t>
+  </si>
+  <si>
+    <t>Predefined keywords are not allowed</t>
+  </si>
+  <si>
+    <t>Blanks/spaces within a name are not allowed</t>
+  </si>
+  <si>
+    <t>DATA Types</t>
+  </si>
+  <si>
+    <t>Data Types refer to the type of data that should be entered into the column and DB engine can assign memory for the value entered into the column</t>
+  </si>
+  <si>
+    <t>CHAR(size)</t>
+  </si>
+  <si>
+    <t>used to store fixed length character strings</t>
+  </si>
+  <si>
+    <t>by default size is 1 character and maximum is 2000 chars or bytes</t>
+  </si>
+  <si>
+    <t>VARCHAR(size)</t>
+  </si>
+  <si>
+    <t>used to store variable length character strings.</t>
+  </si>
+  <si>
+    <t>No default size</t>
+  </si>
+  <si>
+    <t>We must specify size and max is 4000 characters or bytes.</t>
+  </si>
+  <si>
+    <t>Number(Precision,[Scale])</t>
+  </si>
+  <si>
+    <t>Used to store number type data with or without decimal point</t>
+  </si>
+  <si>
+    <t>Precision represents total number of digits in the value</t>
+  </si>
+  <si>
+    <t>Scale represents max number of digits after decimal point</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>used to store date type data.</t>
+  </si>
+  <si>
+    <t>predefined format is</t>
+  </si>
+  <si>
+    <t>DD-MON-YY</t>
+  </si>
+  <si>
+    <t>RAW(size)</t>
+  </si>
+  <si>
+    <t>Used to store binary data like images, thumb impressions , logos</t>
+  </si>
+  <si>
+    <t>max size is less than 2000 kb</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>used to store varialble length char data and max size is 2gb</t>
+  </si>
+  <si>
+    <t>only one long is allowed per table</t>
+  </si>
+  <si>
+    <t>LONG RAW</t>
+  </si>
+  <si>
+    <t>Similar to RAW but max size is 2 gb</t>
+  </si>
+  <si>
+    <t>Only one long raw column is allowed per table</t>
+  </si>
+  <si>
+    <t>LOB-large objects</t>
+  </si>
+  <si>
+    <t>used to store large volumes of data, max size is 4 gb</t>
+  </si>
+  <si>
+    <t>LOB types-3</t>
+  </si>
+  <si>
+    <t>CLOB</t>
+  </si>
+  <si>
+    <t>CHAR LOB</t>
+  </si>
+  <si>
+    <t>used to store char data</t>
+  </si>
+  <si>
+    <t>BLOB</t>
+  </si>
+  <si>
+    <t>Binary LOB</t>
+  </si>
+  <si>
+    <t>used to store binary data</t>
+  </si>
+  <si>
+    <t>NCLOB</t>
+  </si>
+  <si>
+    <t>Fixed length  multi char large objects</t>
+  </si>
+  <si>
+    <t>used to store both binary and char data</t>
+  </si>
+  <si>
+    <t>Procedural Language</t>
+  </si>
+  <si>
+    <t>Structured Query Language</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>FileWriter</t>
+  </si>
+  <si>
+    <t>FileReader</t>
+  </si>
+  <si>
+    <t>BufferedWriter</t>
+  </si>
+  <si>
+    <t>BufferedReader</t>
+  </si>
+  <si>
+    <t>PrintWriter</t>
+  </si>
+  <si>
+    <t>In earlier days of JAVA, FILE IO is very important concept in order to store the data, as the data base concepts are not much popular</t>
+  </si>
+  <si>
+    <t>In later stages, this was not given much importance</t>
+  </si>
+  <si>
+    <t>If we want to store huge volumes of data we can store them in data base</t>
+  </si>
+  <si>
+    <t>But if you have very less amount of data, it is good to use FILE IO instead of DB</t>
+  </si>
+  <si>
+    <t>1st Run</t>
+  </si>
+  <si>
+    <t>2nd Run</t>
+  </si>
+  <si>
+    <t>File f=  new File("abc.txt")</t>
+  </si>
+  <si>
+    <t>s.out(f.exists())</t>
+  </si>
+  <si>
+    <t>to check if the physical file exists or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f.createNewFile() </t>
+  </si>
+  <si>
+    <t>If you want to create the physical file, you can use this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If JVM executes this line, itc hecks whether there is any physical file with the same name, if so, f refers to that file. </t>
+  </si>
+  <si>
+    <t>If no such file exists, it doesn’t create any physical file but I creates a java file object with name f</t>
+  </si>
+  <si>
+    <t>We are not creating any file.</t>
+  </si>
+  <si>
+    <t>JAVA File IO is implemented based on Unix Operating Statement</t>
+  </si>
+  <si>
+    <t>It is used to represent Directories also</t>
+  </si>
+  <si>
+    <t>f.mkdir()</t>
+  </si>
+  <si>
+    <t>Can u please make a directory</t>
+  </si>
+  <si>
+    <t>Constructors in File Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -4699,9 +5153,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4867,6 +5321,14 @@
     <xf numFmtId="0" fontId="31" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5277,27 +5739,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D1CA5EF9-ECC3-411F-88FD-D47BFB5D8C8E}" lastGuid="{024B8CAB-FC45-4009-8A34-D48A49F45967}" diskRevisions="1" revisionId="849" version="35">
-  <header guid="{267EAB5A-0784-4FFD-927C-D58BF2C55C37}" dateTime="2020-01-23T12:03:09" maxSheetId="17" userName="SIRISHA AYYAGARI" r:id="rId80" minRId="441">
-    <sheetIdMap count="16">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-      <sheetId val="4"/>
-      <sheetId val="5"/>
-      <sheetId val="6"/>
-      <sheetId val="7"/>
-      <sheetId val="8"/>
-      <sheetId val="9"/>
-      <sheetId val="10"/>
-      <sheetId val="12"/>
-      <sheetId val="11"/>
-      <sheetId val="13"/>
-      <sheetId val="14"/>
-      <sheetId val="15"/>
-      <sheetId val="16"/>
-    </sheetIdMap>
-  </header>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{160D7978-7907-4E89-8A2D-A01D7BE7A139}" diskRevisions="1" revisionId="1041" version="44">
   <header guid="{4E5BEA1C-670B-461C-B13D-48FC784813E1}" dateTime="2020-01-28T10:58:52" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId81" minRId="442" maxRId="454">
     <sheetIdMap count="17">
       <sheetId val="1"/>
@@ -5832,6 +6274,216 @@
       <sheetId val="17"/>
     </sheetIdMap>
   </header>
+  <header guid="{88E60697-B96F-4A14-A948-42A1AF01AE4E}" dateTime="2020-02-23T10:32:02" maxSheetId="20" userName="kalyan chavali" r:id="rId106" minRId="850">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{63DC0953-8A2E-4CFD-87AC-C0ED7DA7314E}" dateTime="2020-02-23T10:36:31" maxSheetId="20" userName="kalyan chavali" r:id="rId107" minRId="851" maxRId="855">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E6BFEDF3-032F-448C-8F57-A8EFEC85557C}" dateTime="2020-02-23T10:50:59" maxSheetId="20" userName="kalyan chavali" r:id="rId108" minRId="856" maxRId="864">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{AE0ADD39-1B6A-4F96-B662-350446B3CD17}" dateTime="2020-02-23T10:57:56" maxSheetId="20" userName="kalyan chavali" r:id="rId109" minRId="865" maxRId="877">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{1AEB26A0-3AD1-4509-8B8F-A7AFAB42CC5B}" dateTime="2020-02-23T11:08:06" maxSheetId="20" userName="kalyan chavali" r:id="rId110" minRId="878" maxRId="880">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{4DA4B634-6060-436B-8399-E4565919BFA6}" dateTime="2020-02-23T11:09:15" maxSheetId="20" userName="kalyan chavali" r:id="rId111">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9B871488-78BB-487C-9CB0-4E6928B2FC36}" dateTime="2020-02-24T20:35:13" maxSheetId="20" userName="kalyan chavali" r:id="rId112">
+    <sheetIdMap count="19">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{47FEAA05-821A-4050-B172-28BA323C468E}" dateTime="2020-02-24T20:38:15" maxSheetId="21" userName="kalyan chavali" r:id="rId113" minRId="881" maxRId="1009">
+    <sheetIdMap count="20">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{160D7978-7907-4E89-8A2D-A01D7BE7A139}" dateTime="2020-02-24T20:38:41" maxSheetId="22" userName="kalyan chavali" r:id="rId114" minRId="1010" maxRId="1041">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -7082,6 +7734,255 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="850" sheetId="19" name="[Notes.xlsx]SQL &amp; DataBase" sheetPosition="18"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="19" xfDxf="1" sqref="D3" start="0" length="0"/>
+  <rfmt sheetId="19" sqref="A1:XFD1048576">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="19" sqref="A1:XFD1048576">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="19" sqref="A1:XFD1048576">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="851" sId="19">
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Data modeling is the process of creating a data model for the data to be stored in a Database.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="852" sId="19" eol="1" ref="A4:XFD4" action="insertRow"/>
+  <rcc rId="853" sId="19">
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>This Data model is a conceptual representation of data objects, the associations between different data objects and rules,</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="854" sId="19" eol="1" ref="A5:XFD5" action="insertRow"/>
+  <rcc rId="855" sId="19">
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>Data modelling helps in the visual representation of data, and enforces business rules, regulatory compliances and govt policies on the data.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="856" sId="19">
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Data Modelling:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="19" sqref="D2" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="857" sId="19" xfDxf="1" dxf="1">
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>The two types of Data Models techniques are</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="19" xfDxf="1" sqref="D8" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="858" sId="19" xfDxf="1" dxf="1">
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>1. Entity Relationship (E-R) Model</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="859" sId="19" xfDxf="1" dxf="1">
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>2. UML (Unified Modelling Language)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rcc rId="860" sId="19">
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>Data Consistency:</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="19" sqref="D13" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rrc rId="861" sId="19" eol="1" ref="A14:XFD14" action="insertRow"/>
+  <rcc rId="862" sId="19">
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>Data should be consistent across the database or the application that is using the database.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="863" sId="19" eol="1" ref="A15:XFD15" action="insertRow"/>
+  <rcc rId="864" sId="19">
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>The data type once defined should not be changed.</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="865" sId="19" xfDxf="1" dxf="1">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>Database scalability is the ability of a database to handle changing demands by adding/removing resources.</t>
+      </is>
+    </nc>
+    <ndxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </ndxf>
+  </rcc>
+  <rrc rId="866" sId="19" ref="A16:XFD16" action="insertRow"/>
+  <rfmt sheetId="19" xfDxf="1" sqref="D17" start="0" length="0">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="19" sqref="D17" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="867" sId="19">
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>Database scalability.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="868" sId="19" eol="1" ref="A19:XFD19" action="insertRow"/>
+  <rcc rId="869" sId="19">
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>There are 2 types</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="870" sId="19" eol="1" ref="A20:XFD20" action="insertRow"/>
+  <rcc rId="871" sId="19">
+    <nc r="D20" t="inlineStr">
+      <is>
+        <t>Scale up</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="872" sId="19" eol="1" ref="A21:XFD21" action="insertRow"/>
+  <rcc rId="873" sId="19">
+    <nc r="D21" t="inlineStr">
+      <is>
+        <t>Scale out</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="874" sId="19" eol="1" ref="A22:XFD22" action="insertRow"/>
+  <rcc rId="875" sId="19">
+    <nc r="D22" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Scale up-  the ability of a database to increase the resources in the same instance </t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="876" sId="19" eol="1" ref="A23:XFD23" action="insertRow"/>
+  <rcc rId="877" sId="19">
+    <nc r="D23" t="inlineStr">
+      <is>
+        <t>Scale out - the ability of a data base to expand the resources in many instances</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="636" sId="17">
@@ -7165,6 +8066,2565 @@
       </is>
     </nc>
   </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="878" sId="19">
+    <nc r="D25" t="inlineStr">
+      <is>
+        <t>Data</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="879" sId="19" eol="1" ref="A26:XFD26" action="insertRow"/>
+  <rcc rId="880" sId="19">
+    <nc r="D26" t="inlineStr">
+      <is>
+        <t>Data can be the facts related to any object in consideration</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="19" sqref="D25" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="881" sheetId="20" name="[Notes.xlsx]SQL" sheetPosition="19"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M1" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M2" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M3" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E4" start="0" length="0">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="20" xfDxf="1" sqref="F4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M4" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M5" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M6" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M7" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J8" start="0" length="0"/>
+  <rcc rId="882" sId="20" xfDxf="1" dxf="1">
+    <nc r="K8" t="inlineStr">
+      <is>
+        <t>PL SQL is an extention to SQL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="L8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M8" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M9" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M10" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M11" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M12" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A13" start="0" length="0"/>
+  <rcc rId="883" sId="20" xfDxf="1" dxf="1">
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>SQL is an interface between client and database</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K13" start="0" length="0"/>
+  <rcc rId="884" sId="20" xfDxf="1" dxf="1">
+    <nc r="L13" t="inlineStr">
+      <is>
+        <t>PL SQL is collection of programms</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M13" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A14" start="0" length="0"/>
+  <rcc rId="885" sId="20" xfDxf="1" dxf="1">
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t xml:space="preserve">It is a collection of predefined commands, concepts, clauses,operators and SQL objects </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K14" start="0" length="0"/>
+  <rcc rId="886" sId="20" xfDxf="1" dxf="1">
+    <nc r="L14" t="inlineStr">
+      <is>
+        <t>Some programmes can be called as stored procedures</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M14" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K15" start="0" length="0"/>
+  <rcc rId="887" sId="20" xfDxf="1" dxf="1">
+    <nc r="L15" t="inlineStr">
+      <is>
+        <t>Some programmes can be called as triggers</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M15" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A16" start="0" length="0"/>
+  <rcc rId="888" sId="20" xfDxf="1" dxf="1">
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>commands</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="889" sId="20" xfDxf="1" dxf="1">
+    <nc r="C16" t="inlineStr">
+      <is>
+        <t>DDL,DML,DCL,TCL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K16" start="0" length="0"/>
+  <rcc rId="890" sId="20" xfDxf="1" dxf="1">
+    <nc r="L16" t="inlineStr">
+      <is>
+        <t>Some of them are packages</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M16" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A17" start="0" length="0"/>
+  <rcc rId="891" sId="20" xfDxf="1" dxf="1">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>concepts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="892" sId="20" xfDxf="1" dxf="1">
+    <nc r="C17" t="inlineStr">
+      <is>
+        <t>Joins,Subqueries, queries</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K17" start="0" length="0"/>
+  <rcc rId="893" sId="20" xfDxf="1" dxf="1">
+    <nc r="L17" t="inlineStr">
+      <is>
+        <t>It is a collection of</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M17" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A18" start="0" length="0"/>
+  <rcc rId="894" sId="20" xfDxf="1" dxf="1">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>clauses</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="895" sId="20" xfDxf="1" dxf="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Distinct, Order By, where, Group By,Having </t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K18" start="0" length="0"/>
+  <rcc rId="896" sId="20" xfDxf="1" dxf="1" quotePrefix="1">
+    <nc r="L18" t="inlineStr">
+      <is>
+        <t>---programming statements</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="M18" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A19" start="0" length="0"/>
+  <rcc rId="897" sId="20" xfDxf="1" dxf="1">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t>operators</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="898" sId="20" xfDxf="1" dxf="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>Arithmetic, Relational,Special, Relational Negation Operators and Logical Operators</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J19" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K19" start="0" length="0"/>
+  <rcc rId="899" sId="20" xfDxf="1" dxf="1" quotePrefix="1">
+    <nc r="L19" t="inlineStr">
+      <is>
+        <t>---concepts</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="900" sId="20" xfDxf="1" dxf="1">
+    <nc r="M19" t="inlineStr">
+      <is>
+        <t>Conditional Statements, loops, branching statements</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A20" start="0" length="0"/>
+  <rcc rId="901" sId="20" xfDxf="1" dxf="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>SQL Objects</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="902" sId="20" xfDxf="1" dxf="1">
+    <nc r="C20" t="inlineStr">
+      <is>
+        <t>Tables, views, indexes,sequences, synonyms,clusters and so on. In addition, we have predefined functions</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J20" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K20" start="0" length="0"/>
+  <rcc rId="903" sId="20" xfDxf="1" dxf="1" quotePrefix="1">
+    <nc r="L20" t="inlineStr">
+      <is>
+        <t>---objects</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="904" sId="20" xfDxf="1" dxf="1">
+    <nc r="M20" t="inlineStr">
+      <is>
+        <t>every object is user defined</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B21" start="0" length="0"/>
+  <rcc rId="905" sId="20" xfDxf="1" dxf="1">
+    <nc r="C21" t="inlineStr">
+      <is>
+        <t>every object is predefined</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K21" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L21" start="0" length="0"/>
+  <rcc rId="906" sId="20" xfDxf="1" dxf="1">
+    <nc r="M21" t="inlineStr">
+      <is>
+        <t>stored procedures</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K22" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L22" start="0" length="0"/>
+  <rcc rId="907" sId="20" xfDxf="1" dxf="1">
+    <nc r="M22" t="inlineStr">
+      <is>
+        <t>functions</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K23" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L23" start="0" length="0"/>
+  <rcc rId="908" sId="20" xfDxf="1" dxf="1">
+    <nc r="M23" t="inlineStr">
+      <is>
+        <t>triggers</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K24" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L24" start="0" length="0"/>
+  <rcc rId="909" sId="20" xfDxf="1" dxf="1">
+    <nc r="M24" t="inlineStr">
+      <is>
+        <t>packages</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K25" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L25" start="0" length="0"/>
+  <rcc rId="910" sId="20" xfDxf="1" dxf="1">
+    <nc r="M25" t="inlineStr">
+      <is>
+        <t>types</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K26" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L26" start="0" length="0"/>
+  <rcc rId="911" sId="20" xfDxf="1" dxf="1">
+    <nc r="M26" t="inlineStr">
+      <is>
+        <t>nested tables</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="A27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M27" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A28" start="0" length="0"/>
+  <rcc rId="912" sId="20" xfDxf="1" dxf="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>SQL is a client tool to interact with any DB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M28" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A29" start="0" length="0"/>
+  <rcc rId="913" sId="20" xfDxf="1" dxf="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>It is to be installed in the system whenever we have installed DB software</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M29" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A30" start="0" length="0"/>
+  <rcc rId="914" sId="20" xfDxf="1" dxf="1">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>Client requests to be submitted in the form of queries</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M30" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A31" start="0" length="0"/>
+  <rcc rId="915" sId="20" xfDxf="1" dxf="1">
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>Queries are executed by SQL STMT Executor(DB engine)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M31" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M32" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A33" start="0" length="0"/>
+  <rcc rId="916" sId="20" xfDxf="1" dxf="1">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>Features of SQL</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M33" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L34" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M34" start="0" length="0"/>
+  <rcc rId="917" sId="20" xfDxf="1" dxf="1">
+    <nc r="A35">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="918" sId="20" xfDxf="1" dxf="1">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>At a time only one query is allowed to execute.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L35" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M35" start="0" length="0"/>
+  <rcc rId="919" sId="20" xfDxf="1" dxf="1">
+    <nc r="A36">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="920" sId="20" xfDxf="1" dxf="1">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t>SQL queries are not case sensitive.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L36" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M36" start="0" length="0"/>
+  <rcc rId="921" sId="20" xfDxf="1" dxf="1">
+    <nc r="A37">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="922" sId="20" xfDxf="1" dxf="1">
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>Each query is terminated with;</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L37" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M37" start="0" length="0"/>
+  <rcc rId="923" sId="20" xfDxf="1" dxf="1">
+    <nc r="A38">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="924" sId="20" xfDxf="1" dxf="1">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>SQL is ANSI Standard(American National Standard Institute)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M38" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M39" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A40" start="0" length="0"/>
+  <rcc rId="925" sId="20" xfDxf="1" dxf="1">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>SQL Commands</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M40" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A41" start="0" length="0"/>
+  <rcc rId="926" sId="20" xfDxf="1" dxf="1">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>Types of SQL Commands</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M41" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L42" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M42" start="0" length="0"/>
+  <rcc rId="927" sId="20" xfDxf="1" dxf="1">
+    <nc r="A43">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="928" sId="20" xfDxf="1" dxf="1">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>DDL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="929" sId="20" xfDxf="1" dxf="1">
+    <nc r="C43" t="inlineStr">
+      <is>
+        <t>Data Definition language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M43" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A44" start="0" length="0"/>
+  <rcc rId="930" sId="20" xfDxf="1" dxf="1">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>Used to create/change or delete any data based objects</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M44" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A45" start="0" length="0"/>
+  <rcc rId="931" sId="20" xfDxf="1" dxf="1">
+    <nc r="B45" t="inlineStr">
+      <is>
+        <t>Create / Alter/Drop</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M45" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L46" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M46" start="0" length="0"/>
+  <rcc rId="932" sId="20" xfDxf="1" dxf="1">
+    <nc r="A47">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="933" sId="20" xfDxf="1" dxf="1">
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>DML</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="934" sId="20" xfDxf="1" dxf="1">
+    <nc r="C47" t="inlineStr">
+      <is>
+        <t>Data Manipulation Language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M47" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A48" start="0" length="0"/>
+  <rcc rId="935" sId="20" xfDxf="1" dxf="1">
+    <nc r="B48" t="inlineStr">
+      <is>
+        <t>Used to fetch data or enter new data / change existing data/ deleting data from the table.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M48" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A49" start="0" length="0"/>
+  <rcc rId="936" sId="20" xfDxf="1" dxf="1">
+    <nc r="B49" t="inlineStr">
+      <is>
+        <t>Insert/Update/Delete/truncate/select</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M49" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L50" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M50" start="0" length="0"/>
+  <rcc rId="937" sId="20" xfDxf="1" dxf="1">
+    <nc r="A51">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="938" sId="20" xfDxf="1" dxf="1">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>DCL</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="939" sId="20" xfDxf="1" dxf="1">
+    <nc r="C51" t="inlineStr">
+      <is>
+        <t>Data Control Language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M51" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A52" start="0" length="0"/>
+  <rcc rId="940" sId="20" xfDxf="1" dxf="1">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>Used to control the access of data base objects</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M52" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A53" start="0" length="0"/>
+  <rcc rId="941" sId="20" xfDxf="1" dxf="1">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>These commands are used only by DBA</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M53" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A54" start="0" length="0"/>
+  <rcc rId="942" sId="20" xfDxf="1" dxf="1">
+    <nc r="B54" t="inlineStr">
+      <is>
+        <t>Grant/Revoke</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M54" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L55" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M55" start="0" length="0"/>
+  <rcc rId="943" sId="20" xfDxf="1" dxf="1">
+    <nc r="A56">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="944" sId="20" xfDxf="1" dxf="1">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t xml:space="preserve">TCL </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="945" sId="20" xfDxf="1" dxf="1">
+    <nc r="C56" t="inlineStr">
+      <is>
+        <t>Transaction Control Language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="D56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M56" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A57" start="0" length="0"/>
+  <rcc rId="946" sId="20" xfDxf="1" dxf="1">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>Used to save or cancel the actions made on table data.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M57" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M58" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M59" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A60" start="0" length="0"/>
+  <rcc rId="947" sId="20" xfDxf="1" dxf="1">
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>Naming Conventions</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M60" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M61" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A62" start="0" length="0"/>
+  <rcc rId="948" sId="20" xfDxf="1" dxf="1">
+    <nc r="B62" t="inlineStr">
+      <is>
+        <t>Rules for specifying oracle Name(column Name, object Names, variable Names)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M62" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L63" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M63" start="0" length="0"/>
+  <rcc rId="949" sId="20" xfDxf="1" dxf="1">
+    <nc r="A64">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="950" sId="20" xfDxf="1" dxf="1">
+    <nc r="B64" t="inlineStr">
+      <is>
+        <t>Each name should begin with alphabet</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L64" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M64" start="0" length="0"/>
+  <rcc rId="951" sId="20" xfDxf="1" dxf="1">
+    <nc r="A65">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="952" sId="20" xfDxf="1" dxf="1">
+    <nc r="B65" t="inlineStr">
+      <is>
+        <t>valid char set is</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M65" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A66" start="0" length="0"/>
+  <rcc rId="953" sId="20" xfDxf="1" dxf="1">
+    <nc r="B66" t="inlineStr">
+      <is>
+        <t>a-z,A-Z,0-9,@$#_</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L66" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M66" start="0" length="0"/>
+  <rcc rId="954" sId="20" xfDxf="1" dxf="1">
+    <nc r="A67">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="955" sId="20" xfDxf="1" dxf="1">
+    <nc r="B67" t="inlineStr">
+      <is>
+        <t>Names are not case sensitive</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L67" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M67" start="0" length="0"/>
+  <rcc rId="956" sId="20" xfDxf="1" dxf="1">
+    <nc r="A68">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="957" sId="20" xfDxf="1" dxf="1">
+    <nc r="B68" t="inlineStr">
+      <is>
+        <t>Already existing names are not allowed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L68" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M68" start="0" length="0"/>
+  <rcc rId="958" sId="20" xfDxf="1" dxf="1">
+    <nc r="A69">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="959" sId="20" xfDxf="1" dxf="1">
+    <nc r="B69" t="inlineStr">
+      <is>
+        <t>Predefined keywords are not allowed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L69" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M69" start="0" length="0"/>
+  <rcc rId="960" sId="20" xfDxf="1" dxf="1">
+    <nc r="A70">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="961" sId="20" xfDxf="1" dxf="1">
+    <nc r="B70" t="inlineStr">
+      <is>
+        <t>Blanks/spaces within a name are not allowed</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M70" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M71" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M72" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A73" start="0" length="0"/>
+  <rcc rId="962" sId="20" xfDxf="1" dxf="1">
+    <nc r="B73" t="inlineStr">
+      <is>
+        <t>DATA Types</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M73" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A74" start="0" length="0"/>
+  <rcc rId="963" sId="20" xfDxf="1" dxf="1">
+    <nc r="B74" t="inlineStr">
+      <is>
+        <t>Data Types refer to the type of data that should be entered into the column and DB engine can assign memory for the value entered into the column</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M74" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L75" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M75" start="0" length="0"/>
+  <rcc rId="964" sId="20" xfDxf="1" dxf="1">
+    <nc r="A76">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="965" sId="20" xfDxf="1" dxf="1">
+    <nc r="B76" t="inlineStr">
+      <is>
+        <t>CHAR(size)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M76" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A77" start="0" length="0"/>
+  <rcc rId="966" sId="20" xfDxf="1" dxf="1">
+    <nc r="B77" t="inlineStr">
+      <is>
+        <t>used to store fixed length character strings</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M77" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A78" start="0" length="0"/>
+  <rcc rId="967" sId="20" xfDxf="1" dxf="1">
+    <nc r="B78" t="inlineStr">
+      <is>
+        <t>by default size is 1 character and maximum is 2000 chars or bytes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M78" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L79" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M79" start="0" length="0"/>
+  <rcc rId="968" sId="20" xfDxf="1" dxf="1">
+    <nc r="A80">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="969" sId="20" xfDxf="1" dxf="1">
+    <nc r="B80" t="inlineStr">
+      <is>
+        <t>VARCHAR(size)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M80" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A81" start="0" length="0"/>
+  <rcc rId="970" sId="20" xfDxf="1" dxf="1">
+    <nc r="B81" t="inlineStr">
+      <is>
+        <t>used to store variable length character strings.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M81" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A82" start="0" length="0"/>
+  <rcc rId="971" sId="20" xfDxf="1" dxf="1">
+    <nc r="B82" t="inlineStr">
+      <is>
+        <t>No default size</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M82" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A83" start="0" length="0"/>
+  <rcc rId="972" sId="20" xfDxf="1" dxf="1">
+    <nc r="B83" t="inlineStr">
+      <is>
+        <t>We must specify size and max is 4000 characters or bytes.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M83" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L84" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M84" start="0" length="0"/>
+  <rcc rId="973" sId="20" xfDxf="1" dxf="1">
+    <nc r="A85">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rcc rId="974" sId="20" xfDxf="1" dxf="1">
+    <nc r="B85" t="inlineStr">
+      <is>
+        <t>Number(Precision,[Scale])</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M85" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A86" start="0" length="0"/>
+  <rcc rId="975" sId="20" xfDxf="1" dxf="1">
+    <nc r="B86" t="inlineStr">
+      <is>
+        <t>Used to store number type data with or without decimal point</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M86" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A87" start="0" length="0"/>
+  <rcc rId="976" sId="20" xfDxf="1" dxf="1">
+    <nc r="B87" t="inlineStr">
+      <is>
+        <t>Precision represents total number of digits in the value</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M87" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A88" start="0" length="0"/>
+  <rcc rId="977" sId="20" xfDxf="1" dxf="1">
+    <nc r="B88" t="inlineStr">
+      <is>
+        <t>Scale represents max number of digits after decimal point</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M88" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L89" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M89" start="0" length="0"/>
+  <rcc rId="978" sId="20" xfDxf="1" dxf="1">
+    <nc r="A90">
+      <v>4</v>
+    </nc>
+  </rcc>
+  <rcc rId="979" sId="20" xfDxf="1" dxf="1">
+    <nc r="B90" t="inlineStr">
+      <is>
+        <t>Date</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M90" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A91" start="0" length="0"/>
+  <rcc rId="980" sId="20" xfDxf="1" dxf="1">
+    <nc r="B91" t="inlineStr">
+      <is>
+        <t>used to store date type data.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M91" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A92" start="0" length="0"/>
+  <rcc rId="981" sId="20" xfDxf="1" dxf="1">
+    <nc r="B92" t="inlineStr">
+      <is>
+        <t>predefined format is</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M92" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A93" start="0" length="0"/>
+  <rcc rId="982" sId="20" xfDxf="1" dxf="1">
+    <nc r="B93" t="inlineStr">
+      <is>
+        <t>DD-MON-YY</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M93" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L94" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M94" start="0" length="0"/>
+  <rcc rId="983" sId="20" xfDxf="1" dxf="1">
+    <nc r="A95">
+      <v>5</v>
+    </nc>
+  </rcc>
+  <rcc rId="984" sId="20" xfDxf="1" dxf="1">
+    <nc r="B95" t="inlineStr">
+      <is>
+        <t>RAW(size)</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M95" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A96" start="0" length="0"/>
+  <rcc rId="985" sId="20" xfDxf="1" dxf="1">
+    <nc r="B96" t="inlineStr">
+      <is>
+        <t>Used to store binary data like images, thumb impressions , logos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M96" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A97" start="0" length="0"/>
+  <rcc rId="986" sId="20" xfDxf="1" dxf="1">
+    <nc r="B97" t="inlineStr">
+      <is>
+        <t>max size is less than 2000 kb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M97" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L98" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M98" start="0" length="0"/>
+  <rcc rId="987" sId="20" xfDxf="1" dxf="1">
+    <nc r="A99">
+      <v>6</v>
+    </nc>
+  </rcc>
+  <rcc rId="988" sId="20" xfDxf="1" dxf="1">
+    <nc r="B99" t="inlineStr">
+      <is>
+        <t>LONG</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M99" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A100" start="0" length="0"/>
+  <rcc rId="989" sId="20" xfDxf="1" dxf="1">
+    <nc r="B100" t="inlineStr">
+      <is>
+        <t>used to store varialble length char data and max size is 2gb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M100" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A101" start="0" length="0"/>
+  <rcc rId="990" sId="20" xfDxf="1" dxf="1">
+    <nc r="B101" t="inlineStr">
+      <is>
+        <t>only one long is allowed per table</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M101" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L102" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M102" start="0" length="0"/>
+  <rcc rId="991" sId="20" xfDxf="1" dxf="1">
+    <nc r="A103">
+      <v>7</v>
+    </nc>
+  </rcc>
+  <rcc rId="992" sId="20" xfDxf="1" dxf="1">
+    <nc r="B103" t="inlineStr">
+      <is>
+        <t>LONG RAW</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M103" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A104" start="0" length="0"/>
+  <rcc rId="993" sId="20" xfDxf="1" dxf="1">
+    <nc r="B104" t="inlineStr">
+      <is>
+        <t>Similar to RAW but max size is 2 gb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M104" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A105" start="0" length="0"/>
+  <rcc rId="994" sId="20" xfDxf="1" dxf="1">
+    <nc r="B105" t="inlineStr">
+      <is>
+        <t>Only one long raw column is allowed per table</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M105" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L106" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M106" start="0" length="0"/>
+  <rcc rId="995" sId="20" xfDxf="1" dxf="1">
+    <nc r="A107">
+      <v>8</v>
+    </nc>
+  </rcc>
+  <rcc rId="996" sId="20" xfDxf="1" dxf="1">
+    <nc r="B107" t="inlineStr">
+      <is>
+        <t>LOB-large objects</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M107" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A108" start="0" length="0"/>
+  <rcc rId="997" sId="20" xfDxf="1" dxf="1">
+    <nc r="B108" t="inlineStr">
+      <is>
+        <t>used to store large volumes of data, max size is 4 gb</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M108" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="B109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="C109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M109" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A110" start="0" length="0"/>
+  <rcc rId="998" sId="20" xfDxf="1" dxf="1">
+    <nc r="B110" t="inlineStr">
+      <is>
+        <t>LOB types-3</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <b/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="C110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="D110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="E110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M110" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A111" start="0" length="0"/>
+  <rcc rId="999" sId="20" xfDxf="1" dxf="1">
+    <nc r="B111" t="inlineStr">
+      <is>
+        <t>CLOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1000" sId="20" xfDxf="1" dxf="1">
+    <nc r="C111" t="inlineStr">
+      <is>
+        <t>CHAR LOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1001" sId="20" xfDxf="1" dxf="1">
+    <nc r="D111" t="inlineStr">
+      <is>
+        <t>used to store char data</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="E111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M111" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A112" start="0" length="0"/>
+  <rcc rId="1002" sId="20" xfDxf="1" dxf="1">
+    <nc r="B112" t="inlineStr">
+      <is>
+        <t>BLOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1003" sId="20" xfDxf="1" dxf="1">
+    <nc r="C112" t="inlineStr">
+      <is>
+        <t>Binary LOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1004" sId="20" xfDxf="1" dxf="1">
+    <nc r="D112" t="inlineStr">
+      <is>
+        <t>used to store binary data</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="E112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M112" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="A113" start="0" length="0"/>
+  <rcc rId="1005" sId="20" xfDxf="1" dxf="1">
+    <nc r="B113" t="inlineStr">
+      <is>
+        <t>NCLOB</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1006" sId="20" xfDxf="1" dxf="1">
+    <nc r="C113" t="inlineStr">
+      <is>
+        <t>Fixed length  multi char large objects</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1007" sId="20" xfDxf="1" dxf="1">
+    <nc r="D113" t="inlineStr">
+      <is>
+        <t>used to store both binary and char data</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="20" xfDxf="1" sqref="E113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="F113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="G113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="H113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="I113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="J113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="K113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="L113" start="0" length="0"/>
+  <rfmt sheetId="20" xfDxf="1" sqref="M113" start="0" length="0"/>
+  <rcc rId="1008" sId="20">
+    <nc r="K7" t="inlineStr">
+      <is>
+        <t>Procedural Language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1009" sId="20">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Structured Query Language</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1010" sheetId="21" name="[Notes.xlsx]File IO" sheetPosition="20"/>
+  <rcc rId="1011" sId="21" odxf="1">
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>File</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1012" sId="21" odxf="1">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>FileWriter</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1013" sId="21" odxf="1">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>FileReader</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1014" sId="21" odxf="1">
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>BufferedWriter</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1015" sId="21" odxf="1">
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>BufferedReader</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1016" sId="21" odxf="1">
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>PrintWriter</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1017" sId="21" odxf="1">
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>In earlier days of JAVA, FILE IO is very important concept in order to store the data, as the data base concepts are not much popular</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1018" sId="21" odxf="1">
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>In later stages, this was not given much importance</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1019" sId="21" odxf="1">
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>If we want to store huge volumes of data we can store them in data base</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1020" sId="21" odxf="1">
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>But if you have very less amount of data, it is good to use FILE IO instead of DB</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1021" sId="21" odxf="1">
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>File</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1022" sId="21" odxf="1">
+    <nc r="I16" t="inlineStr">
+      <is>
+        <t>1st Run</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1023" sId="21" odxf="1">
+    <nc r="J16" t="inlineStr">
+      <is>
+        <t>2nd Run</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1024" sId="21" odxf="1">
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>File f=  new File("abc.txt")</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1025" sId="21" odxf="1">
+    <nc r="B18" t="inlineStr">
+      <is>
+        <t>s.out(f.exists())</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1026" sId="21" odxf="1">
+    <nc r="C18" t="inlineStr">
+      <is>
+        <t>to check if the physical file exists or not</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1027" sId="21" odxf="1">
+    <nc r="I18" t="b">
+      <v>0</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1028" sId="21" odxf="1">
+    <nc r="J18" t="b">
+      <v>1</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1029" sId="21" odxf="1">
+    <nc r="B19" t="inlineStr">
+      <is>
+        <t xml:space="preserve">f.createNewFile() </t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1030" sId="21" odxf="1">
+    <nc r="C19" t="inlineStr">
+      <is>
+        <t>If you want to create the physical file, you can use this</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1031" sId="21" odxf="1">
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>s.out(f.exists())</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1032" sId="21" odxf="1">
+    <nc r="I20" t="b">
+      <v>1</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1033" sId="21" odxf="1">
+    <nc r="J20" t="b">
+      <v>1</v>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1034" sId="21" odxf="1">
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t xml:space="preserve">If JVM executes this line, itc hecks whether there is any physical file with the same name, if so, f refers to that file. </t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1035" sId="21" odxf="1">
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>If no such file exists, it doesn’t create any physical file but I creates a java file object with name f</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1036" sId="21" odxf="1">
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>We are not creating any file.</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1037" sId="21" odxf="1">
+    <nc r="B28" t="inlineStr">
+      <is>
+        <t>JAVA File IO is implemented based on Unix Operating Statement</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1038" sId="21" odxf="1">
+    <nc r="B29" t="inlineStr">
+      <is>
+        <t>It is used to represent Directories also</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1039" sId="21" odxf="1">
+    <nc r="B30" t="inlineStr">
+      <is>
+        <t>f.mkdir()</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1040" sId="21" odxf="1">
+    <nc r="C30" t="inlineStr">
+      <is>
+        <t>Can u please make a directory</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="1041" sId="21" odxf="1">
+    <nc r="B33" t="inlineStr">
+      <is>
+        <t>Constructors in File Class</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
+  <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
 </revisions>
 </file>
 
@@ -7328,12 +10788,6 @@
       </is>
     </nc>
   </rcc>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="441" sheetId="16" name="[Notes.xlsx]Sheet1" sheetPosition="15"/>
 </revisions>
 </file>
 
@@ -10834,8 +14288,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{4DA4B634-6060-436B-8399-E4565919BFA6}" name="kalyan chavali" id="-1688088878" dateTime="2020-02-23T10:31:43"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11100,11 +14556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11195,11 +14651,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B5:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11832,11 +15288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11991,11 +15447,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B4:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12361,15 +15817,16 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B6:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12727,11 +16184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B5:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13012,16 +16469,15 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B3:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13618,7 +17074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B3:F218"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -14531,19 +17987,24 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A61">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="B6:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14599,6 +18060,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14609,11 +18074,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="B6:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14810,19 +18275,147 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A37">
+      <selection activeCell="E42" sqref="E42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6078C8D4-DA59-4FF1-9B0B-1220BAD226C6}">
+  <dimension ref="D2:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="77"/>
+    <col min="4" max="4" width="9.140625" style="77" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="78" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="77" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="77" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="77" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="77" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="77" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="77" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="78" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="77" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="77" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="78" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="77" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="77" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="77" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="77" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="77" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="77" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="78" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26" s="77" t="s">
+        <v>705</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="D17" sqref="D17"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14878,6 +18471,10 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -14886,12 +18483,1019 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB8E36-13BC-4FC7-BC13-7ABFB4668CB2}">
+  <dimension ref="A4:M113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>811</v>
+      </c>
+      <c r="K7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79" t="s">
+        <v>706</v>
+      </c>
+      <c r="L8" s="79"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="79" t="s">
+        <v>707</v>
+      </c>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="79" t="s">
+        <v>709</v>
+      </c>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="79" t="s">
+        <v>712</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="79" t="s">
+        <v>715</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>716</v>
+      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79" t="s">
+        <v>717</v>
+      </c>
+      <c r="M17" s="79"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="79" t="s">
+        <v>718</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>719</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="82" t="s">
+        <v>720</v>
+      </c>
+      <c r="M18" s="79"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
+        <v>721</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>722</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="82" t="s">
+        <v>723</v>
+      </c>
+      <c r="M19" s="79" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="79" t="s">
+        <v>725</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>726</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="82" t="s">
+        <v>727</v>
+      </c>
+      <c r="M20" s="79" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="79"/>
+      <c r="C21" s="79" t="s">
+        <v>729</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="79" t="s">
+        <v>736</v>
+      </c>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="79" t="s">
+        <v>737</v>
+      </c>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="79" t="s">
+        <v>738</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="79" t="s">
+        <v>739</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="C33" s="79"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <v>1</v>
+      </c>
+      <c r="B35" s="79" t="s">
+        <v>741</v>
+      </c>
+      <c r="C35" s="79"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="79">
+        <v>2</v>
+      </c>
+      <c r="B36" s="79" t="s">
+        <v>742</v>
+      </c>
+      <c r="C36" s="79"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="79">
+        <v>3</v>
+      </c>
+      <c r="B37" s="79" t="s">
+        <v>743</v>
+      </c>
+      <c r="C37" s="79"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="79">
+        <v>4</v>
+      </c>
+      <c r="B38" s="79" t="s">
+        <v>744</v>
+      </c>
+      <c r="C38" s="79"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="79"/>
+      <c r="B40" s="80" t="s">
+        <v>745</v>
+      </c>
+      <c r="C40" s="79"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="79"/>
+      <c r="B41" s="79" t="s">
+        <v>746</v>
+      </c>
+      <c r="C41" s="79"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="79">
+        <v>1</v>
+      </c>
+      <c r="B43" s="79" t="s">
+        <v>747</v>
+      </c>
+      <c r="C43" s="79" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="79"/>
+      <c r="B44" s="79" t="s">
+        <v>749</v>
+      </c>
+      <c r="C44" s="79"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="79"/>
+      <c r="B45" s="79" t="s">
+        <v>750</v>
+      </c>
+      <c r="C45" s="79"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="79">
+        <v>2</v>
+      </c>
+      <c r="B47" s="79" t="s">
+        <v>751</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="79"/>
+      <c r="B48" s="79" t="s">
+        <v>753</v>
+      </c>
+      <c r="C48" s="79"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="79"/>
+      <c r="B49" s="79" t="s">
+        <v>754</v>
+      </c>
+      <c r="C49" s="79"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="79">
+        <v>3</v>
+      </c>
+      <c r="B51" s="79" t="s">
+        <v>755</v>
+      </c>
+      <c r="C51" s="79" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="79"/>
+      <c r="B52" s="79" t="s">
+        <v>757</v>
+      </c>
+      <c r="C52" s="79"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="79"/>
+      <c r="B53" s="79" t="s">
+        <v>758</v>
+      </c>
+      <c r="C53" s="79"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="79"/>
+      <c r="B54" s="79" t="s">
+        <v>759</v>
+      </c>
+      <c r="C54" s="79"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="79">
+        <v>4</v>
+      </c>
+      <c r="B56" s="79" t="s">
+        <v>760</v>
+      </c>
+      <c r="C56" s="79" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="79"/>
+      <c r="B57" s="79" t="s">
+        <v>762</v>
+      </c>
+      <c r="C57" s="79"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="79"/>
+      <c r="B60" s="80" t="s">
+        <v>763</v>
+      </c>
+      <c r="C60" s="79"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="79"/>
+      <c r="B62" s="79" t="s">
+        <v>764</v>
+      </c>
+      <c r="C62" s="79"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="79">
+        <v>1</v>
+      </c>
+      <c r="B64" s="79" t="s">
+        <v>765</v>
+      </c>
+      <c r="C64" s="79"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="79">
+        <v>2</v>
+      </c>
+      <c r="B65" s="79" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="79"/>
+      <c r="B66" s="79" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="79">
+        <v>3</v>
+      </c>
+      <c r="B67" s="79" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="79">
+        <v>4</v>
+      </c>
+      <c r="B68" s="79" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="79">
+        <v>5</v>
+      </c>
+      <c r="B69" s="79" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="79">
+        <v>6</v>
+      </c>
+      <c r="B70" s="79" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="79"/>
+      <c r="B73" s="80" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="79"/>
+      <c r="B74" s="79" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="79">
+        <v>1</v>
+      </c>
+      <c r="B76" s="80" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="79"/>
+      <c r="B77" s="79" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="79"/>
+      <c r="B78" s="79" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="79">
+        <v>2</v>
+      </c>
+      <c r="B80" s="80" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="79"/>
+      <c r="B81" s="79" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="79"/>
+      <c r="B82" s="79" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="79"/>
+      <c r="B83" s="79" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="79">
+        <v>3</v>
+      </c>
+      <c r="B85" s="80" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="79"/>
+      <c r="B86" s="79" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="79"/>
+      <c r="B87" s="79" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="79"/>
+      <c r="B88" s="79" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="79">
+        <v>4</v>
+      </c>
+      <c r="B90" s="80" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="79"/>
+      <c r="B91" s="79" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="79"/>
+      <c r="B92" s="79" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="79"/>
+      <c r="B93" s="79" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="79">
+        <v>5</v>
+      </c>
+      <c r="B95" s="80" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="79"/>
+      <c r="B96" s="79" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="79"/>
+      <c r="B97" s="79" t="s">
+        <v>791</v>
+      </c>
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="79">
+        <v>6</v>
+      </c>
+      <c r="B99" s="80" t="s">
+        <v>792</v>
+      </c>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="79"/>
+      <c r="B100" s="79" t="s">
+        <v>793</v>
+      </c>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="79"/>
+      <c r="B101" s="79" t="s">
+        <v>794</v>
+      </c>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="79">
+        <v>7</v>
+      </c>
+      <c r="B103" s="80" t="s">
+        <v>795</v>
+      </c>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="79"/>
+      <c r="B104" s="79" t="s">
+        <v>796</v>
+      </c>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="79"/>
+      <c r="B105" s="79" t="s">
+        <v>797</v>
+      </c>
+      <c r="C105" s="79"/>
+      <c r="D105" s="79"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="79">
+        <v>8</v>
+      </c>
+      <c r="B107" s="80" t="s">
+        <v>798</v>
+      </c>
+      <c r="C107" s="79"/>
+      <c r="D107" s="79"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="79"/>
+      <c r="B108" s="79" t="s">
+        <v>799</v>
+      </c>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="79"/>
+      <c r="B110" s="80" t="s">
+        <v>800</v>
+      </c>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="79"/>
+      <c r="B111" s="79" t="s">
+        <v>801</v>
+      </c>
+      <c r="C111" s="79" t="s">
+        <v>802</v>
+      </c>
+      <c r="D111" s="79" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="79"/>
+      <c r="B112" s="79" t="s">
+        <v>804</v>
+      </c>
+      <c r="C112" s="79" t="s">
+        <v>805</v>
+      </c>
+      <c r="D112" s="79" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="79" t="s">
+        <v>807</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>808</v>
+      </c>
+      <c r="D113" s="79" t="s">
+        <v>809</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A103">
+      <selection activeCell="F122" sqref="F122"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42CB821-9A2F-43EC-9633-352DC1419B24}">
+  <dimension ref="B2:J33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="79"/>
+    <col min="2" max="2" width="16.42578125" style="79" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="79" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="79" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="79" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="79" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="79" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="79" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="79" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="79" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="79" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="79" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="79" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="79" t="s">
+        <v>822</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="79" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>826</v>
+      </c>
+      <c r="I18" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="79" t="s">
+        <v>827</v>
+      </c>
+      <c r="C19" s="79" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="79" t="s">
+        <v>825</v>
+      </c>
+      <c r="I20" s="79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="79" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="79" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="79" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="79" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="79" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="79" t="s">
+        <v>834</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="79" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A22">
+      <selection activeCell="F41" sqref="F41"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15090,7 +19694,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
+    <hyperlink ref="F19" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -15098,11 +19702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15148,11 +19752,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15335,11 +19939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15424,11 +20028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15499,11 +20103,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B4:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15721,7 +20325,7 @@
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
+    <hyperlink ref="C13" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -15729,11 +20333,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B4:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\JavaFundamental\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AE0C2EEA-610D-432E-AE7A-478D0AE445B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C6359D5A-1998-4762-B2C2-2563E0720847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,8 @@
   </sheets>
   <calcPr calcId="181029"/>
   <customWorkbookViews>
+    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
     <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="20"/>
-    <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="864">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -4730,6 +4730,87 @@
   </si>
   <si>
     <t>Constructors in File Class</t>
+  </si>
+  <si>
+    <t>There are 3 constructors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File f = new File(String name); </t>
+  </si>
+  <si>
+    <t>it may be file name or directory name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When we want to create a file (abc.txt) in current working directory or creating a directory(siri123) in current working directory then we have to use the above constructor </t>
+  </si>
+  <si>
+    <t>To create a file/ directory in current working directory</t>
+  </si>
+  <si>
+    <t>To represent resources in CWD</t>
+  </si>
+  <si>
+    <t>File f = new File("siri123","abc.txt")</t>
+  </si>
+  <si>
+    <t>If you want to create a file or directory present in some other directory other than CWD, then we should use this constructor</t>
+  </si>
+  <si>
+    <t>File f= new File(String subdirname, String name)</t>
+  </si>
+  <si>
+    <t>File f = new File(File subdir, String name)</t>
+  </si>
+  <si>
+    <t>File f= new File(f1,"abc.txt")</t>
+  </si>
+  <si>
+    <t>If you want to create a file in a directory, where there exists already a file in the same directory, then the file name can be given instead of specifying the directory name</t>
+  </si>
+  <si>
+    <t>To represent resources in some other directory</t>
+  </si>
+  <si>
+    <t>Write a code to create a file named demo.txt in CWD</t>
+  </si>
+  <si>
+    <t>File f = new File ("demo.txt);</t>
+  </si>
+  <si>
+    <t>f.createNewFile();</t>
+  </si>
+  <si>
+    <t>Ex:1</t>
+  </si>
+  <si>
+    <t>Ex:2</t>
+  </si>
+  <si>
+    <t>Create a directory named "durga123" in CWD and create a file named "abc.txt"in the same directory.</t>
+  </si>
+  <si>
+    <t>File f = new File ("durga123");</t>
+  </si>
+  <si>
+    <t>f.mkdir();</t>
+  </si>
+  <si>
+    <t>File f1 = new File ("durga123","abc.txt");</t>
+  </si>
+  <si>
+    <t>File f1 = new File (f,"abc.txt");</t>
+  </si>
+  <si>
+    <t>f1.createNewFile();</t>
+  </si>
+  <si>
+    <t>Ex:3</t>
+  </si>
+  <si>
+    <t>Create a file named abc.txt in folder E:/xyz</t>
+  </si>
+  <si>
+    <t>File f = new File ("E://xyz",abc.txt);</t>
   </si>
 </sst>
 </file>
@@ -5739,7 +5820,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{160D7978-7907-4E89-8A2D-A01D7BE7A139}" diskRevisions="1" revisionId="1041" version="44">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3CEB751A-A69A-47A6-A3DC-4FD2FA079779}" diskRevisions="1" revisionId="1089" version="49">
   <header guid="{4E5BEA1C-670B-461C-B13D-48FC784813E1}" dateTime="2020-01-28T10:58:52" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId81" minRId="442" maxRId="454">
     <sheetIdMap count="17">
       <sheetId val="1"/>
@@ -6484,6 +6565,131 @@
       <sheetId val="21"/>
     </sheetIdMap>
   </header>
+  <header guid="{FFDBED6B-D6DD-4299-BC69-D584A939151F}" dateTime="2020-02-24T21:33:41" maxSheetId="22" userName="kalyan chavali" r:id="rId115" minRId="1042" maxRId="1063">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{95F87900-9306-4D5A-B184-1D1D15CF8032}" dateTime="2020-02-24T21:40:14" maxSheetId="22" userName="kalyan chavali" r:id="rId116" minRId="1064" maxRId="1066">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{21555528-F7C1-4032-8B8A-AC18AB73E5EA}" dateTime="2020-02-24T21:45:44" maxSheetId="22" userName="kalyan chavali" r:id="rId117" minRId="1067" maxRId="1080">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{75441A11-65F5-4026-9D25-D96F1A6BB298}" dateTime="2020-02-24T21:52:10" maxSheetId="22" userName="kalyan chavali" r:id="rId118" minRId="1081" maxRId="1089">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{3CEB751A-A69A-47A6-A3DC-4FD2FA079779}" dateTime="2020-02-24T22:29:31" maxSheetId="22" userName="kalyan chavali" r:id="rId119">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -10625,6 +10831,315 @@
   </rcc>
   <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="delete"/>
   <rcv guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog25.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1042" sId="21" eol="1" ref="A34:XFD34" action="insertRow"/>
+  <rcc rId="1043" sId="21">
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>There are 3 constructors</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1044" sId="21" eol="1" ref="A35:XFD35" action="insertRow"/>
+  <rcc rId="1045" sId="21">
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t xml:space="preserve">File f = new File(String name); </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1046" sId="21">
+    <nc r="E35" t="inlineStr">
+      <is>
+        <t>it may be file name or directory name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1047" sId="21" eol="1" ref="A36:XFD36" action="insertRow"/>
+  <rcc rId="1048" sId="21">
+    <nc r="B36" t="inlineStr">
+      <is>
+        <t xml:space="preserve">When we want to create a file (abc.txt) in current working directory or creating a directory(siri123) in current working directory then we have to use the above constructor </t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1049" sId="21" eol="1" ref="A37:XFD37" action="insertRow"/>
+  <rcc rId="1050" sId="21">
+    <nc r="B37" t="inlineStr">
+      <is>
+        <t>To create a file/ directory in current working directory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1051" sId="21" eol="1" ref="A38:XFD38" action="insertRow"/>
+  <rcc rId="1052" sId="21">
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>To represent resources in CWD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="21" sqref="B35" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="1053" sId="21">
+    <nc r="A35">
+      <v>1</v>
+    </nc>
+  </rcc>
+  <rcc rId="1054" sId="21">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>File f = new File("siri123","abc.txt")</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1055" sId="21" eol="1" ref="A41:XFD41" action="insertRow"/>
+  <rcc rId="1056" sId="21">
+    <nc r="B41" t="inlineStr">
+      <is>
+        <t>If you want to create a file or directory present in some other directory other than CWD, then we should use this constructor</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1057" sId="21" ref="A40:XFD40" action="insertRow"/>
+  <rcc rId="1058" sId="21">
+    <nc r="A40">
+      <v>2</v>
+    </nc>
+  </rcc>
+  <rcc rId="1059" sId="21">
+    <nc r="B40" t="inlineStr">
+      <is>
+        <t>File f= new File(String subdirname, String name)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1060" sId="21">
+    <nc r="A44">
+      <v>3</v>
+    </nc>
+  </rcc>
+  <rfmt sheetId="21" sqref="B40" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rcc rId="1061" sId="21">
+    <nc r="B44" t="inlineStr">
+      <is>
+        <t>File f = new File(File subdir, String name)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1062" sId="21">
+    <nc r="B45" t="inlineStr">
+      <is>
+        <t>File f= new File(f1,"abc.txt")</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1063" sId="21">
+    <nc r="B46" t="inlineStr">
+      <is>
+        <t>If you want to create a file in a directory, where there exists already a file in the same directory, then the file name can be given instead of specifying the directory name</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="21" sqref="B44" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog26.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rrc rId="1064" sId="21" ref="A43:XFD43" action="insertRow"/>
+  <rcc rId="1065" sId="21">
+    <nc r="B43" t="inlineStr">
+      <is>
+        <t>To represent resources in some other directory</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1066" sId="21">
+    <nc r="B48" t="inlineStr">
+      <is>
+        <t>To represent resources in some other directory</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog27.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1067" sId="21">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>Write a code to create a file named demo.txt in CWD</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1068" sId="21" eol="1" ref="A52:XFD52" action="insertRow"/>
+  <rcc rId="1069" sId="21">
+    <nc r="B52" t="inlineStr">
+      <is>
+        <t>File f = new File ("demo.txt);</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1070" sId="21" eol="1" ref="A53:XFD53" action="insertRow"/>
+  <rcc rId="1071" sId="21">
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>f.createNewFile();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1072" sId="21" ref="A50:XFD50" action="insertRow"/>
+  <rcc rId="1073" sId="21">
+    <nc r="B51" t="inlineStr">
+      <is>
+        <t>Ex:1</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1074" sId="21">
+    <nc r="B56" t="inlineStr">
+      <is>
+        <t>Ex:2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1075" sId="21" eol="1" ref="A57:XFD57" action="insertRow"/>
+  <rcc rId="1076" sId="21">
+    <nc r="B57" t="inlineStr">
+      <is>
+        <t>Create a directory named "durga123" in CWD and create a file named "abc.txt"in the same directory.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1077" sId="21">
+    <nc r="B58" t="inlineStr">
+      <is>
+        <t>File f = new File ("durga123");</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1078" sId="21">
+    <nc r="B59" t="inlineStr">
+      <is>
+        <t>f.mkdir();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1079" sId="21">
+    <nc r="B61" t="inlineStr">
+      <is>
+        <t>f.createNewFile();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1080" sId="21">
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>File f = new File ("abc.txt");</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog28.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1081" sId="21">
+    <oc r="B60" t="inlineStr">
+      <is>
+        <t>File f = new File ("abc.txt");</t>
+      </is>
+    </oc>
+    <nc r="B60" t="inlineStr">
+      <is>
+        <t>File f1 = new File ("durga123","abc.txt");</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="1082" sheetId="21" source="B61" destination="B62" sourceSheetId="21"/>
+  <rcc rId="1083" sId="21">
+    <nc r="B61" t="inlineStr">
+      <is>
+        <t>File f1 = new File (f,"abc.txt");</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1084" sId="21">
+    <oc r="B62" t="inlineStr">
+      <is>
+        <t>f.createNewFile();</t>
+      </is>
+    </oc>
+    <nc r="B62" t="inlineStr">
+      <is>
+        <t>f1.createNewFile();</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1085" sId="21">
+    <nc r="B64" t="inlineStr">
+      <is>
+        <t>Ex:3</t>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1086" sId="21" eol="1" ref="A65:XFD65" action="insertRow"/>
+  <rcc rId="1087" sId="21">
+    <nc r="B65" t="inlineStr">
+      <is>
+        <t>Create a file named abc.txt in folder E:/xyz</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1088" sId="21">
+    <nc r="B66" t="inlineStr">
+      <is>
+        <t>File f = new File ("E://xyz",abc.txt);</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1089" sId="21">
+    <nc r="B67" t="inlineStr">
+      <is>
+        <t>f.createNewFile();</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog29.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="21" sqref="B51 B56 B64" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
 </revisions>
 </file>
 
@@ -14637,12 +15152,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="C11" sqref="C11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C12" sqref="C12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -15269,12 +15784,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15432,11 +15947,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15806,14 +16321,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16167,13 +16682,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -16458,14 +16973,14 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="R73" sqref="R73"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+    </customSheetView>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17057,13 +17572,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -17987,13 +18502,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A61">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="C19" sqref="C19"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A61">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -18060,12 +18575,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="E11" sqref="E11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="E11" sqref="E11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18275,13 +18790,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A37">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="E22" sqref="E22"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A37">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -18296,7 +18811,7 @@
   <dimension ref="D2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18471,11 +18986,11 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B10" sqref="B10"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18487,8 +19002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB8E36-13BC-4FC7-BC13-7ABFB4668CB2}">
   <dimension ref="A4:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F122" sqref="F122"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19327,10 +19842,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42CB821-9A2F-43EC-9633-352DC1419B24}">
-  <dimension ref="B2:J33"/>
+  <dimension ref="A2:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19474,9 +19989,161 @@
         <v>835</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="79" t="s">
         <v>836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="79" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="79">
+        <v>1</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>838</v>
+      </c>
+      <c r="E35" s="79" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="79" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="79" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="79" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="79">
+        <v>2</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="79" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="79" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="79">
+        <v>3</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="79" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="79" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="79" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="80" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="79" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="79" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="79" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="80" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="79" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="79" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="79" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="79" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="79" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="79" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="80" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="79" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="79" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="79" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -19487,6 +20154,7 @@
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19682,12 +20350,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -19738,11 +20406,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -19924,11 +20592,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20011,13 +20679,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -20089,11 +20757,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20313,12 +20981,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -20597,13 +21265,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalya\IdeaProjects\JavaFundamental\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SIRISHAA\IdeaProjects\javaFundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{C6359D5A-1998-4762-B2C2-2563E0720847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="838" firstSheet="10" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Access Specifiers" sheetId="1" r:id="rId1"/>
@@ -35,10 +34,10 @@
     <sheet name="SQL" sheetId="20" r:id="rId20"/>
     <sheet name="File IO" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="20"/>
     <customWorkbookView name="SIRISHA AYYAGARI - Personal View" guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" autoUpdate="1" mergeInterval="15" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="838" activeSheetId="18"/>
-    <customWorkbookView name="kalyan chavali - Personal View" guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="20"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -55,12 +54,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>SIRISHA AYYAGARI</author>
   </authors>
   <commentList>
-    <comment ref="E41" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="E41" authorId="0" guid="{78D41D66-65EF-455C-B883-EC918809DAC6}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D50" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="D50" authorId="0" guid="{D695C8B9-1E70-46E7-8787-BAA0EB7801B1}" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="866">
   <si>
     <t>It resembles a method but it is not a method.</t>
   </si>
@@ -4812,13 +4811,19 @@
   <si>
     <t>File f = new File ("E://xyz",abc.txt);</t>
   </si>
+  <si>
+    <t xml:space="preserve">MySQL is a RDBMS. </t>
+  </si>
+  <si>
+    <t>It allows you to put information into a DB.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -5234,7 +5239,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5820,7 +5825,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{3CEB751A-A69A-47A6-A3DC-4FD2FA079779}" diskRevisions="1" revisionId="1089" version="49">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{6EBBDB33-8EE3-4164-93A0-0C03548259C7}" lastGuid="{3CEB751A-A69A-47A6-A3DC-4FD2FA079779}" diskRevisions="1" revisionId="1091" version="49">
   <header guid="{4E5BEA1C-670B-461C-B13D-48FC784813E1}" dateTime="2020-01-28T10:58:52" maxSheetId="18" userName="SIRISHA AYYAGARI" r:id="rId81" minRId="442" maxRId="454">
     <sheetIdMap count="17">
       <sheetId val="1"/>
@@ -6690,6 +6695,31 @@
       <sheetId val="21"/>
     </sheetIdMap>
   </header>
+  <header guid="{6EBBDB33-8EE3-4164-93A0-0C03548259C7}" dateTime="2020-02-25T09:18:02" maxSheetId="22" userName="SIRISHA AYYAGARI" r:id="rId120" minRId="1090" maxRId="1091">
+    <sheetIdMap count="21">
+      <sheetId val="1"/>
+      <sheetId val="18"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="12"/>
+      <sheetId val="11"/>
+      <sheetId val="13"/>
+      <sheetId val="14"/>
+      <sheetId val="15"/>
+      <sheetId val="16"/>
+      <sheetId val="17"/>
+      <sheetId val="19"/>
+      <sheetId val="20"/>
+      <sheetId val="21"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -11188,6 +11218,25 @@
       </font>
     </dxf>
   </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog30.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1090" sId="20">
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t xml:space="preserve">MySQL is a RDBMS. </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1091" sId="20">
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>It allows you to put information into a DB.</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -15071,11 +15120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15152,12 +15201,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="C12" sqref="C12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="C12" sqref="C12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -15166,10 +15215,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
@@ -15784,12 +15833,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="B1">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" showPageBreaks="1" topLeftCell="B4">
       <selection activeCell="D119" sqref="D119"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15803,7 +15852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -15947,11 +15996,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A13">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="J28" sqref="J28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -15962,11 +16011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:K83"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16321,27 +16370,26 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
-      <selection activeCell="D8" sqref="D8"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
     <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A48">
       <selection activeCell="D53" sqref="D53"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A7">
+      <selection activeCell="D8" sqref="D8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:N62"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16682,13 +16730,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
-      <selection activeCell="H29" sqref="H29"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
+      <selection activeCell="E49" sqref="E49"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A30">
-      <selection activeCell="E49" sqref="E49"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A19">
+      <selection activeCell="H29" sqref="H29"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -16699,11 +16747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:M64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16973,26 +17021,27 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B16" sqref="B16"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A35">
       <selection activeCell="R73" sqref="R73"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B16" sqref="B16"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N92"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17572,13 +17621,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
-      <selection activeCell="F64" sqref="F64"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
+      <selection activeCell="G54" sqref="G54"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" scale="80" topLeftCell="A43">
-      <selection activeCell="G54" sqref="G54"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A46">
+      <selection activeCell="F64" sqref="F64"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -17589,11 +17638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F218"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18502,13 +18551,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
-      <selection activeCell="C19" sqref="C19"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A61">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A61">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A61">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -18519,11 +18568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18575,12 +18624,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B10" sqref="B10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="E11" sqref="E11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18589,11 +18638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18790,13 +18839,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="E22" sqref="E22"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A37">
+      <selection activeCell="E42" sqref="E42"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A37">
-      <selection activeCell="E42" sqref="E42"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="E22" sqref="E22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
@@ -18807,7 +18856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6078C8D4-DA59-4FF1-9B0B-1220BAD226C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18930,7 +18979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18986,11 +19035,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="B10" sqref="B10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="B10" sqref="B10"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -18999,17 +19048,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDB8E36-13BC-4FC7-BC13-7ABFB4668CB2}">
-  <dimension ref="A4:M113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>864</v>
+      </c>
+    </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="79"/>
+      <c r="B4" s="79" t="s">
+        <v>865</v>
+      </c>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
       <c r="E4" s="81"/>
@@ -19841,10 +19897,10 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42CB821-9A2F-43EC-9633-352DC1419B24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
@@ -20159,7 +20215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20350,19 +20406,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B5" sqref="B5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="F19" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F19" r:id="rId3" display="https://beginnersbook.com/2013/12/java-constructor-in-interface/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -20370,7 +20426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20406,11 +20462,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20420,7 +20476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20592,11 +20648,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="H16" sqref="H16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20607,11 +20663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20679,13 +20735,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
-      <selection activeCell="D12" sqref="D12"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
-      <selection activeCell="D11" sqref="D11"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
@@ -20696,7 +20752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -20757,11 +20813,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -20771,10 +20827,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -20981,19 +21037,19 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A19">
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A13">
       <selection activeCell="F25" sqref="F25"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId3" display="http://www.oracle.com/technetwork/java/codeconventions-135099.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -21001,11 +21057,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21265,13 +21321,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
-      <selection activeCell="C43" sqref="C43"/>
+    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
+      <selection activeCell="C41" sqref="C41"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{B388384C-8642-4245-BBEF-8F07AC3839C5}" topLeftCell="A31">
-      <selection activeCell="C41" sqref="C41"/>
+    <customSheetView guid="{ADB1B302-3041-4CA3-9A15-0696EC45EC4B}" topLeftCell="A29">
+      <selection activeCell="C43" sqref="C43"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
     </customSheetView>
